--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -610,13 +610,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M2" t="n">
+        <v>97138</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -699,13 +697,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M3" t="n">
+        <v>97138</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -788,13 +784,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M4" t="n">
+        <v>97138</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -877,13 +871,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M5" t="n">
+        <v>97138</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -966,13 +958,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M6" t="n">
+        <v>97138</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1053,13 +1043,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M7" t="n">
+        <v>97138</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1138,13 +1126,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M8" t="n">
+        <v>97138</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1227,13 +1213,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M9" t="n">
+        <v>97138</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1316,13 +1300,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M10" t="n">
+        <v>97138</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1405,13 +1387,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M11" t="n">
+        <v>97119</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1492,13 +1472,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M12" t="n">
+        <v>97119</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1581,13 +1559,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M13" t="n">
+        <v>97119</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1670,13 +1646,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M14" t="n">
+        <v>97119</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1759,13 +1733,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M15" t="n">
+        <v>97119</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1844,13 +1816,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M16" t="n">
+        <v>97119</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1929,13 +1899,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M17" t="n">
+        <v>97119</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2018,13 +1986,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M18" t="n">
+        <v>97119</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -2107,13 +2073,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M19" t="n">
+        <v>97128</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -2196,13 +2160,11 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M20" t="n">
+        <v>97128</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -2285,13 +2247,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M21" t="n">
+        <v>97128</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2374,13 +2334,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M22" t="n">
+        <v>97128</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2463,13 +2421,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M23" t="n">
+        <v>97128</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2552,13 +2508,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M24" t="n">
+        <v>97128</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2641,13 +2595,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M25" t="n">
+        <v>97128</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2730,13 +2682,11 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M26" t="n">
+        <v>97128</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2819,13 +2769,11 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M27" t="n">
+        <v>97128</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2908,13 +2856,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M28" t="n">
+        <v>97128</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2998,13 +2944,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M29" t="n">
+        <v>97960</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -3087,13 +3031,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M30" t="n">
+        <v>97960</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -3176,13 +3118,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M31" t="n">
+        <v>97960</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -3265,13 +3205,11 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M32" t="n">
+        <v>97960</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -3354,13 +3292,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M33" t="n">
+        <v>97960</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -3443,13 +3379,11 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M34" t="n">
+        <v>97200</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -3530,13 +3464,11 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M35" t="n">
+        <v>97200</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3617,13 +3549,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M36" t="n">
+        <v>97200</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3706,13 +3636,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M37" t="n">
+        <v>97200</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3795,13 +3723,11 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M38" t="n">
+        <v>97200</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3884,13 +3810,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M39" t="n">
+        <v>97200</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3973,13 +3897,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M40" t="n">
+        <v>97200</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -4062,13 +3984,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M41" t="n">
+        <v>24115</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -4151,13 +4071,11 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M42" t="n">
+        <v>24115</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -4240,13 +4158,11 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M43" t="n">
+        <v>24115</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -4329,13 +4245,11 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M44" t="n">
+        <v>24115</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -4418,13 +4332,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M45" t="n">
+        <v>24115</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -4507,13 +4419,11 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M46" t="n">
+        <v>24115</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -4596,13 +4506,11 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M47" t="n">
+        <v>24115</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -4685,13 +4593,11 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M48" t="n">
+        <v>24115</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4774,13 +4680,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M49" t="n">
+        <v>24115</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4863,13 +4767,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>CARMEN</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M50" t="n">
+        <v>24115</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4952,13 +4854,11 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M51" t="n">
+        <v>97138</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -5041,13 +4941,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M52" t="n">
+        <v>97138</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -5130,13 +5028,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M53" t="n">
+        <v>97138</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -5219,13 +5115,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M54" t="n">
+        <v>97138</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -5308,13 +5202,11 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M55" t="n">
+        <v>97143</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -5397,13 +5289,11 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M56" t="n">
+        <v>97143</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -5486,13 +5376,11 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M57" t="n">
+        <v>97143</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -5575,13 +5463,11 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M58" t="n">
+        <v>97143</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -5664,13 +5550,11 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M59" t="n">
+        <v>97143</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -5753,13 +5637,11 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M60" t="n">
+        <v>97143</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -5842,13 +5724,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M61" t="n">
+        <v>97308</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5931,13 +5811,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M62" t="n">
+        <v>97308</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -6020,13 +5898,11 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M63" t="n">
+        <v>97308</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -6109,13 +5985,11 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M64" t="n">
+        <v>97308</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -6198,13 +6072,11 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M65" t="n">
+        <v>97308</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -6287,13 +6159,11 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M66" t="n">
+        <v>97308</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -6376,13 +6246,11 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M67" t="n">
+        <v>97308</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -6465,13 +6333,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M68" t="n">
+        <v>97308</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -6554,13 +6420,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M69" t="n">
+        <v>5120</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -6643,13 +6507,11 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M70" t="n">
+        <v>5120</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -6732,13 +6594,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M71" t="n">
+        <v>5120</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -6821,13 +6681,11 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M72" t="n">
+        <v>5120</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -6910,13 +6768,11 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M73" t="n">
+        <v>5120</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -6999,13 +6855,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M74" t="n">
+        <v>5120</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -7088,13 +6942,11 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M75" t="n">
+        <v>5120</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -7177,13 +7029,11 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
           <t>MÉXICO CDMX</t>
         </is>
+      </c>
+      <c r="M76" t="n">
+        <v>5120</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -7266,13 +7116,11 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>VALLADOLID</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M77" t="n">
+        <v>97780</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -7355,13 +7203,11 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>VALLADOLID</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M78" t="n">
+        <v>97780</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -7444,13 +7290,11 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>VALLADOLID</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M79" t="n">
+        <v>97780</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -7533,13 +7377,11 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>VALLADOLID</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M80" t="n">
+        <v>97780</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -7622,13 +7464,11 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M81" t="n">
+        <v>97130</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -7711,13 +7551,11 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M82" t="n">
+        <v>97130</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -7800,13 +7638,11 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M83" t="n">
+        <v>97130</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -7889,13 +7725,11 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M84" t="n">
+        <v>97210</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -7978,13 +7812,11 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M85" t="n">
+        <v>97210</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -8067,13 +7899,11 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M86" t="n">
+        <v>97210</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -8156,13 +7986,11 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M87" t="n">
+        <v>97210</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -8245,13 +8073,11 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M88" t="n">
+        <v>97210</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -8334,13 +8160,11 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M89" t="n">
+        <v>97134</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -8423,13 +8247,11 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M90" t="n">
+        <v>97134</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -8512,13 +8334,11 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M91" t="n">
+        <v>97134</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -8601,13 +8421,11 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M92" t="n">
+        <v>97134</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -8690,13 +8508,11 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M93" t="n">
+        <v>97215</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -8779,13 +8595,11 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M94" t="n">
+        <v>97215</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -8868,13 +8682,11 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M95" t="n">
+        <v>97215</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -8957,13 +8769,11 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M96" t="n">
+        <v>97215</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -9046,13 +8856,11 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M97" t="n">
+        <v>97215</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -9135,13 +8943,11 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M98" t="n">
+        <v>97215</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -9224,13 +9030,11 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M99" t="n">
+        <v>97215</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -9313,13 +9117,11 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M100" t="n">
+        <v>97215</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -9402,13 +9204,11 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M101" t="n">
+        <v>97215</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -9491,13 +9291,11 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M102" t="n">
+        <v>97215</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -9580,13 +9378,11 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M103" t="n">
+        <v>97133</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -9669,13 +9465,11 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M104" t="n">
+        <v>97133</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -9758,13 +9552,11 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>HECELCHAKÁN</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M105" t="n">
+        <v>24800</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -9845,13 +9637,11 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>HECELCHAKÁN</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M106" t="n">
+        <v>24800</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -9932,13 +9722,11 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>HECELCHAKÁN</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M107" t="n">
+        <v>24800</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -10019,13 +9807,11 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>HECELCHAKÁN</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M108" t="n">
+        <v>24800</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -10111,10 +9897,8 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>CAMPECHE</t>
-        </is>
+      <c r="M109" t="n">
+        <v>24085</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -10196,10 +9980,8 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>CAMPECHE</t>
-        </is>
+      <c r="M110" t="n">
+        <v>24085</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -10283,10 +10065,8 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>CAMPECHE</t>
-        </is>
+      <c r="M111" t="n">
+        <v>24085</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -10370,10 +10150,8 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>CAMPECHE</t>
-        </is>
+      <c r="M112" t="n">
+        <v>24085</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -10459,10 +10237,8 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>CAMPECHE</t>
-        </is>
+      <c r="M113" t="n">
+        <v>24085</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -10546,10 +10322,8 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>CAMPECHE</t>
-        </is>
+      <c r="M114" t="n">
+        <v>24085</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -10632,13 +10406,11 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M115" t="n">
+        <v>97000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -10721,13 +10493,11 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M116" t="n">
+        <v>97000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -10810,13 +10580,11 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M117" t="n">
+        <v>97000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -10899,13 +10667,11 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M118" t="n">
+        <v>97000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -10988,13 +10754,11 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M119" t="n">
+        <v>97000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -11077,13 +10841,11 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M120" t="n">
+        <v>97130</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -11166,13 +10928,11 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M121" t="n">
+        <v>97130</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -11255,13 +11015,11 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M122" t="n">
+        <v>97130</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -11344,13 +11102,11 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M123" t="n">
+        <v>97130</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -11433,13 +11189,11 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M124" t="n">
+        <v>97130</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -11522,13 +11276,11 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M125" t="n">
+        <v>97130</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -11611,13 +11363,11 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M126" t="n">
+        <v>97117</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -11698,13 +11448,11 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M127" t="n">
+        <v>97117</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -11787,13 +11535,11 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M128" t="n">
+        <v>97117</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -11876,13 +11622,11 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M129" t="n">
+        <v>97117</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -11963,13 +11707,11 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M130" t="n">
+        <v>97117</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -12052,13 +11794,11 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M131" t="n">
+        <v>97117</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -12141,13 +11881,11 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M132" t="n">
+        <v>97128</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -12230,13 +11968,11 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M133" t="n">
+        <v>97128</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -12319,13 +12055,11 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M134" t="n">
+        <v>97128</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -12406,13 +12140,11 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M135" t="n">
+        <v>97128</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -12495,13 +12227,11 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M136" t="n">
+        <v>97128</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -12584,13 +12314,11 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M137" t="n">
+        <v>97128</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -12673,13 +12401,11 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M138" t="n">
+        <v>97128</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -12760,13 +12486,11 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M139" t="n">
+        <v>97128</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -12847,13 +12571,11 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M140" t="n">
+        <v>97128</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -12934,13 +12656,11 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M141" t="n">
+        <v>97119</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -13021,13 +12741,11 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M142" t="n">
+        <v>97119</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -13108,13 +12826,11 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M143" t="n">
+        <v>97119</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -13197,13 +12913,11 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M144" t="n">
+        <v>97119</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -13286,13 +13000,11 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M145" t="n">
+        <v>97119</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -13375,13 +13087,11 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M146" t="n">
+        <v>97119</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -13464,13 +13174,11 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M147" t="n">
+        <v>97118</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -13549,13 +13257,11 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M148" t="n">
+        <v>97196</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -13638,13 +13344,11 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M149" t="n">
+        <v>97219</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -13729,13 +13433,11 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>CANDELARIA</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M150" t="n">
+        <v>24330</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -13818,13 +13520,11 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>CANDELARIA</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M151" t="n">
+        <v>24330</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -13909,13 +13609,11 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>CANDELARIA</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M152" t="n">
+        <v>24330</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -14000,13 +13698,11 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>CANDELARIA</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M153" t="n">
+        <v>24330</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -14087,13 +13783,11 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M154" t="n">
+        <v>97130</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -14176,13 +13870,11 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M155" t="n">
+        <v>97130</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -14265,13 +13957,11 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M156" t="n">
+        <v>97130</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -14352,13 +14042,11 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M157" t="n">
+        <v>97130</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -14441,13 +14129,11 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M158" t="n">
+        <v>97130</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -14530,13 +14216,11 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M159" t="n">
+        <v>97138</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -14617,13 +14301,11 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M160" t="n">
+        <v>97138</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -14704,13 +14386,11 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M161" t="n">
+        <v>97300</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -14793,13 +14473,11 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M162" t="n">
+        <v>97135</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -14882,13 +14560,11 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M163" t="n">
+        <v>97135</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -14971,13 +14647,11 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M164" t="n">
+        <v>97135</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -15060,13 +14734,11 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M165" t="n">
+        <v>97135</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -15149,13 +14821,11 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M166" t="n">
+        <v>97135</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -15238,13 +14908,11 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M167" t="n">
+        <v>97135</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -15327,13 +14995,11 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M168" t="n">
+        <v>97135</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -15416,13 +15082,11 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M169" t="n">
+        <v>97305</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -15505,13 +15169,11 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M170" t="n">
+        <v>97140</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -15594,13 +15256,11 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M171" t="n">
+        <v>97140</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -15681,13 +15341,11 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M172" t="n">
+        <v>97140</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -15770,13 +15428,11 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M173" t="n">
+        <v>97140</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -15859,13 +15515,11 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M174" t="n">
+        <v>97140</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -15948,13 +15602,11 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M175" t="n">
+        <v>97140</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -16037,13 +15689,11 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M176" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M176" t="n">
+        <v>97140</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -16126,13 +15776,11 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M177" t="n">
+        <v>97140</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -16213,13 +15861,11 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M178" t="n">
+        <v>97177</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -16302,13 +15948,11 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>CAUCEL</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M179" t="n">
+        <v>97314</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -16389,13 +16033,11 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>CAUCEL</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M180" t="n">
+        <v>97314</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -16478,13 +16120,11 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M181" t="n">
+        <v>97115</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -16565,13 +16205,11 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M182" t="n">
+        <v>97115</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -16654,13 +16292,11 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M183" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M183" t="n">
+        <v>97115</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -16739,13 +16375,11 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M184" t="n">
+        <v>97305</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -16826,13 +16460,11 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M185" t="n">
+        <v>97249</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -16915,13 +16547,11 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M186" t="n">
+        <v>97306</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -17004,13 +16634,11 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M187" t="n">
+        <v>97345</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -17093,13 +16721,11 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M188" t="n">
+        <v>97345</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -17182,13 +16808,11 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M189" t="n">
+        <v>97345</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -17271,13 +16895,11 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M190" t="n">
+        <v>97345</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -17360,13 +16982,11 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M191" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M191" t="n">
+        <v>97345</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -17449,13 +17069,11 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M192" t="n">
+        <v>97345</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -17538,13 +17156,11 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M193" t="n">
+        <v>97345</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -17627,13 +17243,11 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>CONKAL</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M194" t="n">
+        <v>97345</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -17714,13 +17328,11 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M195" t="n">
+        <v>97970</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -17803,13 +17415,11 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M196" t="n">
+        <v>97970</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -17892,13 +17502,11 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>TEKAX</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M197" t="n">
+        <v>97970</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -17981,13 +17589,11 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M198" t="n">
+        <v>97146</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -18070,13 +17676,11 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M199" t="n">
+        <v>97146</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -18157,13 +17761,11 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M200" t="n">
+        <v>97146</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -18246,13 +17848,11 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M201" t="n">
+        <v>97146</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -18335,13 +17935,11 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M202" t="n">
+        <v>97130</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -18424,13 +18022,11 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M203" t="n">
+        <v>97130</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -18513,13 +18109,11 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M204" t="n">
+        <v>97130</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -18600,13 +18194,11 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M205" t="n">
+        <v>97130</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -18689,13 +18281,11 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M206" t="n">
+        <v>97130</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -18778,13 +18368,11 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M207" t="n">
+        <v>97306</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -18867,13 +18455,11 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M208" t="n">
+        <v>97306</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -18956,13 +18542,11 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M209" t="n">
+        <v>97306</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -19045,13 +18629,11 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M210" t="n">
+        <v>97306</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -19134,13 +18716,11 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M211" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M211" t="n">
+        <v>97306</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -19223,13 +18803,11 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M212" t="n">
+        <v>97306</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -19312,13 +18890,11 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M213" t="n">
+        <v>97300</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -19401,13 +18977,11 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M214" t="n">
+        <v>97300</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -19490,13 +19064,11 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
           <t>MÉXICO</t>
         </is>
+      </c>
+      <c r="M215" t="n">
+        <v>97217</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -19554,13 +19126,11 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M216" t="n">
+        <v>97305</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -19641,13 +19211,11 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M217" t="n">
+        <v>97305</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -19730,13 +19298,11 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M218" t="n">
+        <v>97305</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -19819,13 +19385,11 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M219" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M219" t="n">
+        <v>97305</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -19906,13 +19470,11 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M220" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M220" t="n">
+        <v>97305</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -19995,13 +19557,11 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M221" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M221" t="n">
+        <v>97305</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -20084,13 +19644,11 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M222" t="n">
+        <v>97305</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -20173,13 +19731,11 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M223" t="n">
+        <v>97305</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -20262,13 +19818,11 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M224" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M224" t="n">
+        <v>97305</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -20351,13 +19905,11 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M225" t="n">
+        <v>97305</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -20440,13 +19992,11 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M226" t="n">
+        <v>97305</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -20529,13 +20079,11 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M227" t="n">
+        <v>97115</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -20616,13 +20164,11 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M228" t="n">
+        <v>97115</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -20705,13 +20251,11 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M229" t="n">
+        <v>97115</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -20794,13 +20338,11 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M230" t="n">
+        <v>97302</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -20861,10 +20403,8 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>CAMPECHE</t>
-        </is>
+      <c r="M231" t="n">
+        <v>24085</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -20947,13 +20487,11 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M232" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M232" t="n">
+        <v>97302</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -21036,13 +20574,11 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M233" t="n">
+        <v>97302</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -21125,13 +20661,11 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M234" t="n">
+        <v>97302</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -21214,13 +20748,11 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M235" t="n">
+        <v>97302</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -21303,13 +20835,11 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M236" t="n">
+        <v>97302</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -21392,13 +20922,11 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M237" t="n">
+        <v>97302</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -21481,13 +21009,11 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M238" t="n">
+        <v>97314</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -21570,13 +21096,11 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M239" t="n">
+        <v>97314</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -21659,13 +21183,11 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M240" t="n">
+        <v>97314</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -21748,13 +21270,11 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M241" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M241" t="n">
+        <v>97145</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -21837,13 +21357,11 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M242" t="n">
+        <v>97145</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -21926,13 +21444,11 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M243" t="n">
+        <v>97145</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -22013,13 +21529,11 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M244" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M244" t="n">
+        <v>97302</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -22102,13 +21616,11 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M245" t="n">
+        <v>97314</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -22166,13 +21678,11 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M246" t="n">
+        <v>97130</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -22255,13 +21765,11 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M247" t="n">
+        <v>97130</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -22344,13 +21852,11 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Ciudad del Carmen</t>
-        </is>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
           <t>CAMPECHE</t>
         </is>
+      </c>
+      <c r="M248" t="n">
+        <v>24114</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -22408,13 +21914,11 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M249" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M249" t="n">
+        <v>97117</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -22497,13 +22001,11 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M250" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M250" t="n">
+        <v>97117</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -22586,13 +22088,11 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M251" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M251" t="n">
+        <v>97117</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -22673,13 +22173,11 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Tizimín</t>
-        </is>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M252" t="n">
+        <v>97700</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -22739,13 +22237,11 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M253" t="n">
+        <v>97147</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -22830,13 +22326,11 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M254" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M254" t="n">
+        <v>97147</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -22921,13 +22415,11 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M255" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M255" t="n">
+        <v>97147</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -23012,13 +22504,11 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M256" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M256" t="n">
+        <v>97147</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -23103,13 +22593,11 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M257" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M257" t="n">
+        <v>97147</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -23194,13 +22682,11 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M258" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M258" t="n">
+        <v>97147</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -23285,13 +22771,11 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M259" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M259" t="n">
+        <v>97147</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -23374,13 +22858,11 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>CHOCHOLA</t>
-        </is>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
           <t>YUCATAN</t>
         </is>
+      </c>
+      <c r="M260" t="n">
+        <v>97816</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -23463,13 +22945,11 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>CHOCHOLA</t>
-        </is>
-      </c>
-      <c r="M261" t="inlineStr">
-        <is>
           <t>YUCATAN</t>
         </is>
+      </c>
+      <c r="M261" t="n">
+        <v>97816</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -23552,13 +23032,11 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>CHOCHOLA</t>
-        </is>
-      </c>
-      <c r="M262" t="inlineStr">
-        <is>
           <t>YUCATAN</t>
         </is>
+      </c>
+      <c r="M262" t="n">
+        <v>97816</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -23643,13 +23121,11 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M263" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M263" t="n">
+        <v>97205</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -23732,13 +23208,11 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M264" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M264" t="n">
+        <v>97205</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -23823,13 +23297,11 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M265" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M265" t="n">
+        <v>97205</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -23914,13 +23386,11 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M266" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M266" t="n">
+        <v>97205</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -24005,13 +23475,11 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M267" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M267" t="n">
+        <v>97205</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -24096,13 +23564,11 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M268" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M268" t="n">
+        <v>97205</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -24187,13 +23653,11 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M269" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M269" t="n">
+        <v>97205</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -24276,13 +23740,11 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M270" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M270" t="n">
+        <v>97302</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -24340,13 +23802,11 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M271" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M271" t="n">
+        <v>97305</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -24429,13 +23889,11 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M272" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M272" t="n">
+        <v>97305</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -24518,13 +23976,11 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
-        </is>
-      </c>
-      <c r="M273" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M273" t="n">
+        <v>97305</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -24607,13 +24063,11 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Merida</t>
-        </is>
-      </c>
-      <c r="M274" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M274" t="n">
+        <v>97305</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -24696,13 +24150,11 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Merida</t>
-        </is>
-      </c>
-      <c r="M275" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M275" t="n">
+        <v>97305</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -24785,13 +24237,11 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Merida</t>
-        </is>
-      </c>
-      <c r="M276" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M276" t="n">
+        <v>97305</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -24874,13 +24324,11 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Merida</t>
-        </is>
-      </c>
-      <c r="M277" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M277" t="n">
+        <v>97305</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -24963,13 +24411,11 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Merida</t>
-        </is>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M278" t="n">
+        <v>97305</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -25052,13 +24498,11 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Merida</t>
-        </is>
-      </c>
-      <c r="M279" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M279" t="n">
+        <v>97305</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -25141,13 +24585,11 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M280" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M280" t="n">
+        <v>97302</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -25230,13 +24672,11 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M281" t="n">
+        <v>97302</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -25319,13 +24759,11 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M282" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M282" t="n">
+        <v>97302</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -25404,13 +24842,11 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M283" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M283" t="n">
+        <v>97219</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -25470,13 +24906,11 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M284" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M284" t="n">
+        <v>97114</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -25536,13 +24970,11 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M285" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M285" t="n">
+        <v>97114</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -25627,13 +25059,11 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M286" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M286" t="n">
+        <v>97114</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -25693,13 +25123,11 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
           <t>YUCATÁN</t>
         </is>
+      </c>
+      <c r="M287" t="n">
+        <v>97302</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -613,7 +613,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N2" t="inlineStr">
@@ -631,7 +631,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -700,7 +700,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N3" t="inlineStr">
@@ -718,7 +718,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -787,7 +787,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N4" t="inlineStr">
@@ -805,7 +805,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>CZ P07</t>
         </is>
@@ -874,7 +874,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N5" t="inlineStr">
@@ -892,7 +892,7 @@
           <t>TIPPMANN-ARMS</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>M4-22</t>
         </is>
@@ -961,7 +961,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N6" t="inlineStr">
@@ -979,7 +979,7 @@
           <t>WALTHER</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>PPKS</t>
         </is>
@@ -1046,7 +1046,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N7" t="inlineStr">
@@ -1064,7 +1064,7 @@
           <t>SMITH &amp; WESSON</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="4" t="n">
         <v>41</v>
       </c>
       <c r="R7" s="3" t="n">
@@ -1129,7 +1129,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N8" t="inlineStr">
@@ -1147,7 +1147,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1216,7 +1216,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N9" t="inlineStr">
@@ -1234,7 +1234,7 @@
           <t>WALTHER</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>G22</t>
         </is>
@@ -1303,7 +1303,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N10" t="inlineStr">
@@ -1321,7 +1321,7 @@
           <t>SPRINGFIELD</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>OF 1922</t>
         </is>
@@ -1390,7 +1390,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N11" t="inlineStr">
@@ -1408,7 +1408,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="4" t="n">
         <v>25</v>
       </c>
       <c r="R11" s="3" t="inlineStr">
@@ -1475,7 +1475,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N12" t="inlineStr">
@@ -1493,7 +1493,7 @@
           <t>SMITH &amp; WESSON</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>19-3</t>
         </is>
@@ -1562,7 +1562,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N13" t="inlineStr">
@@ -1580,7 +1580,7 @@
           <t>HECKLER &amp; KOCH</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>HK 416 D</t>
         </is>
@@ -1649,7 +1649,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N14" t="inlineStr">
@@ -1667,7 +1667,7 @@
           <t>TAURUS</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
         <is>
           <t>PT 58 HC PLUS</t>
         </is>
@@ -1736,7 +1736,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N15" t="inlineStr">
@@ -1752,7 +1752,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="4" t="n">
         <v>500</v>
       </c>
       <c r="R15" s="3" t="inlineStr">
@@ -1819,7 +1819,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N16" t="inlineStr">
@@ -1837,7 +1837,7 @@
           <t>JC HIGGINS</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="4" t="n">
         <v>30</v>
       </c>
       <c r="R16" s="3" t="n">
@@ -1902,7 +1902,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N17" t="inlineStr">
@@ -1920,7 +1920,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
         <is>
           <t>SAKO</t>
         </is>
@@ -1989,7 +1989,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N18" t="inlineStr">
@@ -2007,7 +2007,7 @@
           <t>COLT'S</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -2076,7 +2076,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N19" t="inlineStr">
@@ -2094,7 +2094,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -2163,7 +2163,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N20" t="inlineStr">
@@ -2181,7 +2181,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" s="4" t="inlineStr">
         <is>
           <t>DUCKS UNLIMITED</t>
         </is>
@@ -2250,7 +2250,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N21" t="inlineStr">
@@ -2268,7 +2268,7 @@
           <t>STEYRS</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
         <is>
           <t>1950</t>
         </is>
@@ -2337,7 +2337,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N22" t="inlineStr">
@@ -2355,7 +2355,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" s="4" t="inlineStr">
         <is>
           <t>B-80</t>
         </is>
@@ -2424,7 +2424,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N23" t="inlineStr">
@@ -2442,7 +2442,7 @@
           <t>KIMBER</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" s="4" t="inlineStr">
         <is>
           <t>82</t>
         </is>
@@ -2511,7 +2511,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N24" t="inlineStr">
@@ -2529,7 +2529,7 @@
           <t>BANSNERs</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" s="4" t="inlineStr">
         <is>
           <t>X-TREME SHEEP HUNTER</t>
         </is>
@@ -2598,7 +2598,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N25" t="inlineStr">
@@ -2616,7 +2616,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr">
         <is>
           <t>CITORI</t>
         </is>
@@ -2685,7 +2685,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N26" t="inlineStr">
@@ -2703,7 +2703,7 @@
           <t>RUGER</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" s="4" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
@@ -2772,7 +2772,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N27" t="inlineStr">
@@ -2790,7 +2790,7 @@
           <t>CZ</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" s="4" t="inlineStr">
         <is>
           <t>452 ZKM</t>
         </is>
@@ -2859,7 +2859,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N28" t="inlineStr">
@@ -2878,7 +2878,7 @@
           <t>BLASER</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -2947,7 +2947,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" s="4" t="n">
         <v>97960</v>
       </c>
       <c r="N29" t="inlineStr">
@@ -2965,7 +2965,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
         <is>
           <t>870</t>
         </is>
@@ -3034,7 +3034,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" s="4" t="n">
         <v>97960</v>
       </c>
       <c r="N30" t="inlineStr">
@@ -3052,7 +3052,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" s="4" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
@@ -3121,7 +3121,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="4" t="n">
         <v>97960</v>
       </c>
       <c r="N31" t="inlineStr">
@@ -3139,7 +3139,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" s="4" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
@@ -3208,7 +3208,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" s="4" t="n">
         <v>97960</v>
       </c>
       <c r="N32" t="inlineStr">
@@ -3226,7 +3226,7 @@
           <t>STOEGER</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" s="4" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
@@ -3295,7 +3295,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" s="4" t="n">
         <v>97960</v>
       </c>
       <c r="N33" t="inlineStr">
@@ -3313,7 +3313,7 @@
           <t>STOEGER</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" s="4" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
@@ -3382,7 +3382,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" s="4" t="n">
         <v>97200</v>
       </c>
       <c r="N34" t="inlineStr">
@@ -3398,7 +3398,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" s="4" t="inlineStr">
         <is>
           <t>870-LW</t>
         </is>
@@ -3467,7 +3467,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" s="4" t="n">
         <v>97200</v>
       </c>
       <c r="N35" t="inlineStr">
@@ -3483,7 +3483,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q35" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -3552,7 +3552,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" s="4" t="n">
         <v>97200</v>
       </c>
       <c r="N36" t="inlineStr">
@@ -3570,7 +3570,7 @@
           <t>FABARM</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" s="4" t="inlineStr">
         <is>
           <t>LION H368</t>
         </is>
@@ -3639,7 +3639,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" s="4" t="n">
         <v>97200</v>
       </c>
       <c r="N37" t="inlineStr">
@@ -3657,7 +3657,7 @@
           <t>GLENFIELD</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" s="4" t="inlineStr">
         <is>
           <t>60</t>
         </is>
@@ -3726,7 +3726,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" s="4" t="n">
         <v>97200</v>
       </c>
       <c r="N38" t="inlineStr">
@@ -3744,7 +3744,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q38" s="4" t="inlineStr">
         <is>
           <t>XS SPECIAL</t>
         </is>
@@ -3813,7 +3813,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="M39" s="4" t="n">
         <v>97200</v>
       </c>
       <c r="N39" t="inlineStr">
@@ -3831,7 +3831,7 @@
           <t>SAVAGE</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="Q39" s="4" t="inlineStr">
         <is>
           <t>AXIS</t>
         </is>
@@ -3900,7 +3900,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" s="4" t="n">
         <v>97200</v>
       </c>
       <c r="N40" t="inlineStr">
@@ -3918,7 +3918,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="Q40" s="4" t="inlineStr">
         <is>
           <t>700</t>
         </is>
@@ -3987,7 +3987,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N41" t="inlineStr">
@@ -4005,7 +4005,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="Q41" s="4" t="inlineStr">
         <is>
           <t>597</t>
         </is>
@@ -4074,7 +4074,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N42" t="inlineStr">
@@ -4092,7 +4092,7 @@
           <t>KEL-TEC</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="Q42" s="4" t="inlineStr">
         <is>
           <t>PMR-30</t>
         </is>
@@ -4161,7 +4161,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N43" t="inlineStr">
@@ -4179,7 +4179,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="Q43" s="4" t="inlineStr">
         <is>
           <t>CZ452-2E ZKM</t>
         </is>
@@ -4248,7 +4248,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N44" t="inlineStr">
@@ -4266,7 +4266,7 @@
           <t>WALTHER</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="Q44" s="4" t="inlineStr">
         <is>
           <t>GSP EXPERT</t>
         </is>
@@ -4335,7 +4335,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N45" t="inlineStr">
@@ -4353,7 +4353,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="Q45" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -4422,7 +4422,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N46" t="inlineStr">
@@ -4440,7 +4440,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="Q46" s="4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
@@ -4509,7 +4509,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N47" t="inlineStr">
@@ -4527,7 +4527,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="Q47" s="4" t="inlineStr">
         <is>
           <t>CZ P 07</t>
         </is>
@@ -4596,7 +4596,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N48" t="inlineStr">
@@ -4614,7 +4614,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="Q48" s="4" t="inlineStr">
         <is>
           <t>SX3</t>
         </is>
@@ -4683,7 +4683,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M49" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N49" t="inlineStr">
@@ -4701,7 +4701,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="Q49" s="4" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
@@ -4770,7 +4770,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" s="4" t="n">
         <v>24115</v>
       </c>
       <c r="N50" t="inlineStr">
@@ -4788,7 +4788,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="Q50" s="4" t="inlineStr">
         <is>
           <t>CZ 527 VARMINT</t>
         </is>
@@ -4857,7 +4857,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M51" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N51" t="inlineStr">
@@ -4875,7 +4875,7 @@
           <t>HK</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="Q51" s="4" t="inlineStr">
         <is>
           <t>HK416D</t>
         </is>
@@ -4944,7 +4944,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N52" t="inlineStr">
@@ -4962,7 +4962,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="Q52" s="4" t="inlineStr">
         <is>
           <t>CZ 550 MAGNUM</t>
         </is>
@@ -5031,7 +5031,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N53" t="inlineStr">
@@ -5049,7 +5049,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="Q53" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -5118,7 +5118,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N54" t="inlineStr">
@@ -5136,7 +5136,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="Q54" s="4" t="inlineStr">
         <is>
           <t>700</t>
         </is>
@@ -5205,7 +5205,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" s="4" t="n">
         <v>97143</v>
       </c>
       <c r="N55" t="inlineStr">
@@ -5223,7 +5223,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="Q55" s="4" t="inlineStr">
         <is>
           <t>VINCI</t>
         </is>
@@ -5292,7 +5292,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" s="4" t="n">
         <v>97143</v>
       </c>
       <c r="N56" t="inlineStr">
@@ -5310,7 +5310,7 @@
           <t>GLENFIELD</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="Q56" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5379,7 +5379,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" s="4" t="n">
         <v>97143</v>
       </c>
       <c r="N57" t="inlineStr">
@@ -5397,7 +5397,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="Q57" s="4" t="inlineStr">
         <is>
           <t>700</t>
         </is>
@@ -5466,7 +5466,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" s="4" t="n">
         <v>97143</v>
       </c>
       <c r="N58" t="inlineStr">
@@ -5484,7 +5484,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="Q58" s="4" t="inlineStr">
         <is>
           <t>500</t>
         </is>
@@ -5553,7 +5553,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" s="4" t="n">
         <v>97143</v>
       </c>
       <c r="N59" t="inlineStr">
@@ -5571,7 +5571,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="Q59" s="4" t="inlineStr">
         <is>
           <t>MAXUS</t>
         </is>
@@ -5640,7 +5640,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" s="4" t="n">
         <v>97143</v>
       </c>
       <c r="N60" t="inlineStr">
@@ -5658,7 +5658,7 @@
           <t>TANFOGLIO</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="Q60" s="4" t="inlineStr">
         <is>
           <t>FT 9 FS SPORT</t>
         </is>
@@ -5727,7 +5727,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="M61" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N61" t="inlineStr">
@@ -5745,7 +5745,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="Q61" s="4" t="inlineStr">
         <is>
           <t>63</t>
         </is>
@@ -5814,7 +5814,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N62" t="inlineStr">
@@ -5832,7 +5832,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="Q62" s="4" t="inlineStr">
         <is>
           <t>47</t>
         </is>
@@ -5901,7 +5901,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="M63" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N63" t="inlineStr">
@@ -5919,7 +5919,7 @@
           <t>SMITH &amp; WESSON</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="Q63" s="4" t="inlineStr">
         <is>
           <t>44618</t>
         </is>
@@ -5988,7 +5988,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="M64" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N64" t="inlineStr">
@@ -6006,7 +6006,7 @@
           <t>SMITH &amp; WESSON</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="Q64" s="4" t="inlineStr">
         <is>
           <t>34-1</t>
         </is>
@@ -6075,7 +6075,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="M65" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N65" t="inlineStr">
@@ -6093,7 +6093,7 @@
           <t>SMITH &amp; WESSON</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="Q65" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -6162,7 +6162,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N66" t="inlineStr">
@@ -6180,7 +6180,7 @@
           <t>WALTHER</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="Q66" s="4" t="inlineStr">
         <is>
           <t>PPK/S</t>
         </is>
@@ -6249,7 +6249,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N67" t="inlineStr">
@@ -6267,7 +6267,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="Q67" s="4" t="inlineStr">
         <is>
           <t>950 B</t>
         </is>
@@ -6336,7 +6336,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" s="4" t="n">
         <v>97308</v>
       </c>
       <c r="N68" t="inlineStr">
@@ -6354,7 +6354,7 @@
           <t>ANSCHUTZ</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="Q68" s="4" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -6423,7 +6423,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N69" t="inlineStr">
@@ -6441,7 +6441,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="Q69" s="4" t="inlineStr">
         <is>
           <t>X-BOLT</t>
         </is>
@@ -6510,7 +6510,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N70" t="inlineStr">
@@ -6528,7 +6528,7 @@
           <t>ISSC</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="Q70" s="4" t="inlineStr">
         <is>
           <t>MK22</t>
         </is>
@@ -6597,7 +6597,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="M71" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N71" t="inlineStr">
@@ -6615,7 +6615,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="Q71" s="4" t="inlineStr">
         <is>
           <t>X-BOLT</t>
         </is>
@@ -6684,7 +6684,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N72" t="inlineStr">
@@ -6702,7 +6702,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="Q72" s="4" t="inlineStr">
         <is>
           <t>SAFARI</t>
         </is>
@@ -6771,7 +6771,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="M73" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N73" t="inlineStr">
@@ -6789,7 +6789,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="Q73" s="4" t="inlineStr">
         <is>
           <t>700</t>
         </is>
@@ -6858,7 +6858,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="M74" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N74" t="inlineStr">
@@ -6876,7 +6876,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="Q74" s="4" t="inlineStr">
         <is>
           <t>VINCI</t>
         </is>
@@ -6945,7 +6945,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="M75" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N75" t="inlineStr">
@@ -6963,7 +6963,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="Q75" s="4" t="inlineStr">
         <is>
           <t>CZ 527 AMERICAN</t>
         </is>
@@ -7032,7 +7032,7 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" s="4" t="n">
         <v>5120</v>
       </c>
       <c r="N76" t="inlineStr">
@@ -7050,7 +7050,7 @@
           <t>ROCK ISLAND</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="Q76" s="4" t="inlineStr">
         <is>
           <t>M1911 A2 FS-MM</t>
         </is>
@@ -7119,7 +7119,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="M77" s="4" t="n">
         <v>97780</v>
       </c>
       <c r="N77" t="inlineStr">
@@ -7137,7 +7137,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="Q77" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -7206,7 +7206,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="M78" s="4" t="n">
         <v>97780</v>
       </c>
       <c r="N78" t="inlineStr">
@@ -7224,7 +7224,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="Q78" s="4" t="inlineStr">
         <is>
           <t>CZ P07</t>
         </is>
@@ -7293,7 +7293,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M79" s="4" t="n">
         <v>97780</v>
       </c>
       <c r="N79" t="inlineStr">
@@ -7311,7 +7311,7 @@
           <t>STEYR</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="Q79" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -7380,7 +7380,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="M80" s="4" t="n">
         <v>97780</v>
       </c>
       <c r="N80" t="inlineStr">
@@ -7398,7 +7398,7 @@
           <t>SIG SAUER</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="Q80" s="4" t="inlineStr">
         <is>
           <t>P365</t>
         </is>
@@ -7467,7 +7467,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="M81" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N81" t="inlineStr">
@@ -7485,7 +7485,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
+      <c r="Q81" s="4" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
@@ -7554,7 +7554,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="M82" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N82" t="inlineStr">
@@ -7572,7 +7572,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
+      <c r="Q82" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -7641,7 +7641,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="M83" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N83" t="inlineStr">
@@ -7659,7 +7659,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
+      <c r="Q83" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -7728,7 +7728,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="M84" s="4" t="n">
         <v>97210</v>
       </c>
       <c r="N84" t="inlineStr">
@@ -7746,7 +7746,7 @@
           <t>ATA ARMS</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="Q84" s="4" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
@@ -7815,7 +7815,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="M85" s="4" t="n">
         <v>97210</v>
       </c>
       <c r="N85" t="inlineStr">
@@ -7833,7 +7833,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
+      <c r="Q85" s="4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -7902,7 +7902,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="M86" s="4" t="n">
         <v>97210</v>
       </c>
       <c r="N86" t="inlineStr">
@@ -7920,7 +7920,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
+      <c r="Q86" s="4" t="inlineStr">
         <is>
           <t>682 GOLD E</t>
         </is>
@@ -7989,7 +7989,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="M87" s="4" t="n">
         <v>97210</v>
       </c>
       <c r="N87" t="inlineStr">
@@ -8007,7 +8007,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
+      <c r="Q87" s="4" t="inlineStr">
         <is>
           <t>692 SPORTING</t>
         </is>
@@ -8076,7 +8076,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="M88" s="4" t="n">
         <v>97210</v>
       </c>
       <c r="N88" t="inlineStr">
@@ -8094,7 +8094,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="Q88" s="4" t="inlineStr">
         <is>
           <t>692</t>
         </is>
@@ -8163,7 +8163,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="M89" s="4" t="n">
         <v>97134</v>
       </c>
       <c r="N89" t="inlineStr">
@@ -8181,7 +8181,7 @@
           <t>PIETRO BERETTA</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="Q89" s="4" t="inlineStr">
         <is>
           <t>84FS CHEETAH</t>
         </is>
@@ -8250,7 +8250,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="M90" s="4" t="n">
         <v>97134</v>
       </c>
       <c r="N90" t="inlineStr">
@@ -8268,7 +8268,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="Q90" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -8337,7 +8337,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="M91" s="4" t="n">
         <v>97134</v>
       </c>
       <c r="N91" t="inlineStr">
@@ -8355,7 +8355,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr">
+      <c r="Q91" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -8424,7 +8424,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="M92" s="4" t="n">
         <v>97134</v>
       </c>
       <c r="N92" t="inlineStr">
@@ -8442,7 +8442,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="Q92" s="4" t="inlineStr">
         <is>
           <t>597</t>
         </is>
@@ -8511,7 +8511,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="M93" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N93" t="inlineStr">
@@ -8529,7 +8529,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="Q93" s="4" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
@@ -8598,7 +8598,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="M94" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N94" t="inlineStr">
@@ -8616,7 +8616,7 @@
           <t>MAVERICK</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr">
+      <c r="Q94" s="4" t="inlineStr">
         <is>
           <t>EAGLE PASS TX.</t>
         </is>
@@ -8685,7 +8685,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="M95" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N95" t="inlineStr">
@@ -8703,7 +8703,7 @@
           <t>STEVENS</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr">
+      <c r="Q95" s="4" t="inlineStr">
         <is>
           <t>987</t>
         </is>
@@ -8772,7 +8772,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="M96" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N96" t="inlineStr">
@@ -8790,7 +8790,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr">
+      <c r="Q96" s="4" t="inlineStr">
         <is>
           <t>SILVER</t>
         </is>
@@ -8859,7 +8859,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="M97" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N97" t="inlineStr">
@@ -8877,7 +8877,7 @@
           <t>CZ</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr">
+      <c r="Q97" s="4" t="inlineStr">
         <is>
           <t>527</t>
         </is>
@@ -8946,7 +8946,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="M98" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N98" t="inlineStr">
@@ -8964,7 +8964,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="Q98" s="4" t="inlineStr">
         <is>
           <t>DUCA DI MONTEFELTRO</t>
         </is>
@@ -9033,7 +9033,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="M99" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N99" t="inlineStr">
@@ -9051,7 +9051,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr">
+      <c r="Q99" s="4" t="inlineStr">
         <is>
           <t>700</t>
         </is>
@@ -9120,7 +9120,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="M100" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N100" t="inlineStr">
@@ -9138,7 +9138,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr">
+      <c r="Q100" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -9207,7 +9207,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="M101" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N101" t="inlineStr">
@@ -9225,7 +9225,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr">
+      <c r="Q101" s="4" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -9294,7 +9294,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="M102" s="4" t="n">
         <v>97215</v>
       </c>
       <c r="N102" t="inlineStr">
@@ -9312,7 +9312,7 @@
           <t>SAVAGE</t>
         </is>
       </c>
-      <c r="Q102" t="inlineStr">
+      <c r="Q102" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -9381,7 +9381,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="M103" s="4" t="n">
         <v>97133</v>
       </c>
       <c r="N103" t="inlineStr">
@@ -9399,7 +9399,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr">
+      <c r="Q103" s="4" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
@@ -9468,7 +9468,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="M104" s="4" t="n">
         <v>97133</v>
       </c>
       <c r="N104" t="inlineStr">
@@ -9486,7 +9486,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr">
+      <c r="Q104" s="4" t="inlineStr">
         <is>
           <t>VINCI</t>
         </is>
@@ -9555,7 +9555,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="M105" s="4" t="n">
         <v>24800</v>
       </c>
       <c r="N105" t="inlineStr">
@@ -9571,7 +9571,7 @@
           <t>SIN</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr">
+      <c r="Q105" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -9640,7 +9640,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="M106" s="4" t="n">
         <v>24800</v>
       </c>
       <c r="N106" t="inlineStr">
@@ -9658,7 +9658,7 @@
           <t>F.N. ACTION</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr">
+      <c r="Q106" s="4" t="inlineStr">
         <is>
           <t>R01050</t>
         </is>
@@ -9725,7 +9725,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="M107" s="4" t="n">
         <v>24800</v>
       </c>
       <c r="N107" t="inlineStr">
@@ -9741,7 +9741,7 @@
           <t>PIETRO BERETTA</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr">
+      <c r="Q107" s="4" t="inlineStr">
         <is>
           <t>S 55</t>
         </is>
@@ -9810,7 +9810,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="M108" s="4" t="n">
         <v>24800</v>
       </c>
       <c r="N108" t="inlineStr">
@@ -9828,7 +9828,7 @@
           <t>SAKO</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr">
+      <c r="Q108" s="4" t="inlineStr">
         <is>
           <t>85M</t>
         </is>
@@ -9897,7 +9897,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="M109" s="4" t="n">
         <v>24085</v>
       </c>
       <c r="N109" t="inlineStr">
@@ -9913,7 +9913,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q109" t="n">
+      <c r="Q109" s="4" t="n">
         <v>500</v>
       </c>
       <c r="R109" s="3" t="inlineStr">
@@ -9980,7 +9980,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="M110" s="4" t="n">
         <v>24085</v>
       </c>
       <c r="N110" t="inlineStr">
@@ -9998,7 +9998,7 @@
           <t>MENDOZA</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr">
+      <c r="Q110" s="4" t="inlineStr">
         <is>
           <t>PUMA</t>
         </is>
@@ -10065,7 +10065,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="M111" s="4" t="n">
         <v>24085</v>
       </c>
       <c r="N111" t="inlineStr">
@@ -10083,7 +10083,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q111" t="n">
+      <c r="Q111" s="4" t="n">
         <v>500</v>
       </c>
       <c r="R111" s="3" t="inlineStr">
@@ -10150,7 +10150,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="M112" s="4" t="n">
         <v>24085</v>
       </c>
       <c r="N112" t="inlineStr">
@@ -10168,7 +10168,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr">
+      <c r="Q112" s="4" t="inlineStr">
         <is>
           <t>4X4</t>
         </is>
@@ -10237,7 +10237,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="M113" s="4" t="n">
         <v>24085</v>
       </c>
       <c r="N113" t="inlineStr">
@@ -10255,7 +10255,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q113" s="4" t="n">
         <v>930</v>
       </c>
       <c r="R113" s="3" t="inlineStr">
@@ -10322,7 +10322,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="M114" s="4" t="n">
         <v>24085</v>
       </c>
       <c r="N114" t="inlineStr">
@@ -10340,7 +10340,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr">
+      <c r="Q114" s="4" t="inlineStr">
         <is>
           <t>CZ 550</t>
         </is>
@@ -10409,7 +10409,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="M115" s="4" t="n">
         <v>97000</v>
       </c>
       <c r="N115" t="inlineStr">
@@ -10427,7 +10427,7 @@
           <t>P. BERETTA</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr">
+      <c r="Q115" s="4" t="inlineStr">
         <is>
           <t>A390ST</t>
         </is>
@@ -10496,7 +10496,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="M116" s="4" t="n">
         <v>97000</v>
       </c>
       <c r="N116" t="inlineStr">
@@ -10514,7 +10514,7 @@
           <t>BROWNING BAR</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr">
+      <c r="Q116" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -10583,7 +10583,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="M117" s="4" t="n">
         <v>97000</v>
       </c>
       <c r="N117" t="inlineStr">
@@ -10601,7 +10601,7 @@
           <t>G.S.G.</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr">
+      <c r="Q117" s="4" t="inlineStr">
         <is>
           <t>GSG-5</t>
         </is>
@@ -10670,7 +10670,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="M118" s="4" t="n">
         <v>97000</v>
       </c>
       <c r="N118" t="inlineStr">
@@ -10688,7 +10688,7 @@
           <t>G.S.G.</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr">
+      <c r="Q118" s="4" t="inlineStr">
         <is>
           <t>GSG-5</t>
         </is>
@@ -10757,7 +10757,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="M119" s="4" t="n">
         <v>97000</v>
       </c>
       <c r="N119" t="inlineStr">
@@ -10775,7 +10775,7 @@
           <t>G.S.G.</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr">
+      <c r="Q119" s="4" t="inlineStr">
         <is>
           <t>GSG-5</t>
         </is>
@@ -10844,7 +10844,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="M120" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N120" t="inlineStr">
@@ -10862,7 +10862,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr">
+      <c r="Q120" s="4" t="inlineStr">
         <is>
           <t>PHOENIX</t>
         </is>
@@ -10931,7 +10931,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="M121" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N121" t="inlineStr">
@@ -10949,7 +10949,7 @@
           <t>P. BERETTA</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr">
+      <c r="Q121" s="4" t="inlineStr">
         <is>
           <t>682 GOLD E.</t>
         </is>
@@ -11018,7 +11018,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="M122" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N122" t="inlineStr">
@@ -11036,7 +11036,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr">
+      <c r="Q122" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -11105,7 +11105,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="M123" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N123" t="inlineStr">
@@ -11123,7 +11123,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q123" t="inlineStr">
+      <c r="Q123" s="4" t="inlineStr">
         <is>
           <t>CZ452-2E ZKM</t>
         </is>
@@ -11192,7 +11192,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="M124" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N124" t="inlineStr">
@@ -11210,7 +11210,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q124" t="inlineStr">
+      <c r="Q124" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -11279,7 +11279,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="M125" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N125" t="inlineStr">
@@ -11297,7 +11297,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr">
+      <c r="Q125" s="4" t="inlineStr">
         <is>
           <t>CZ 600 ALPHA</t>
         </is>
@@ -11366,7 +11366,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="M126" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N126" t="inlineStr">
@@ -11384,7 +11384,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q126" t="n">
+      <c r="Q126" s="4" t="n">
         <v>25</v>
       </c>
       <c r="R126" s="3" t="inlineStr">
@@ -11451,7 +11451,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="M127" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N127" t="inlineStr">
@@ -11469,7 +11469,7 @@
           <t>G.S.G.</t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr">
+      <c r="Q127" s="4" t="inlineStr">
         <is>
           <t>GSG-5</t>
         </is>
@@ -11538,7 +11538,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="M128" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N128" t="inlineStr">
@@ -11556,7 +11556,7 @@
           <t>SAKO</t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr">
+      <c r="Q128" s="4" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
@@ -11625,7 +11625,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="M129" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N129" t="inlineStr">
@@ -11643,7 +11643,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q129" t="n">
+      <c r="Q129" s="4" t="n">
         <v>1100</v>
       </c>
       <c r="R129" s="3" t="inlineStr">
@@ -11710,7 +11710,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="M130" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N130" t="inlineStr">
@@ -11728,7 +11728,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr">
+      <c r="Q130" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -11797,7 +11797,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="M131" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N131" t="inlineStr">
@@ -11815,7 +11815,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr">
+      <c r="Q131" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -11884,7 +11884,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="M132" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N132" t="inlineStr">
@@ -11902,7 +11902,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr">
+      <c r="Q132" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -11971,7 +11971,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="M133" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N133" t="inlineStr">
@@ -11989,7 +11989,7 @@
           <t>ATA ARMS</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
+      <c r="Q133" s="4" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
@@ -12058,7 +12058,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="M134" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N134" t="inlineStr">
@@ -12076,7 +12076,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q134" t="n">
+      <c r="Q134" s="4" t="n">
         <v>25</v>
       </c>
       <c r="R134" s="3" t="inlineStr">
@@ -12143,7 +12143,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="M135" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N135" t="inlineStr">
@@ -12161,7 +12161,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr">
+      <c r="Q135" s="4" t="inlineStr">
         <is>
           <t>CZ P-10 C</t>
         </is>
@@ -12230,7 +12230,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="M136" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N136" t="inlineStr">
@@ -12248,7 +12248,7 @@
           <t>RUGER</t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr">
+      <c r="Q136" s="4" t="inlineStr">
         <is>
           <t>10/22..</t>
         </is>
@@ -12317,7 +12317,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="M137" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N137" t="inlineStr">
@@ -12335,7 +12335,7 @@
           <t>KRISS</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr">
+      <c r="Q137" s="4" t="inlineStr">
         <is>
           <t>DMK22C</t>
         </is>
@@ -12404,7 +12404,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="M138" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N138" t="inlineStr">
@@ -12422,7 +12422,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q138" t="n">
+      <c r="Q138" s="4" t="n">
         <v>590</v>
       </c>
       <c r="R138" s="3" t="inlineStr">
@@ -12489,7 +12489,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="M139" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N139" t="inlineStr">
@@ -12505,7 +12505,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q139" t="inlineStr">
+      <c r="Q139" s="4" t="inlineStr">
         <is>
           <t>SV10 PREVAIL III</t>
         </is>
@@ -12574,7 +12574,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="M140" s="4" t="n">
         <v>97128</v>
       </c>
       <c r="N140" t="inlineStr">
@@ -12592,7 +12592,7 @@
           <t>ARIZONA ARMORY PHOENIX AZ</t>
         </is>
       </c>
-      <c r="Q140" t="inlineStr">
+      <c r="Q140" s="4" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
@@ -12659,7 +12659,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="M141" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N141" t="inlineStr">
@@ -12677,7 +12677,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q141" t="n">
+      <c r="Q141" s="4" t="n">
         <v>25</v>
       </c>
       <c r="R141" s="3" t="inlineStr">
@@ -12744,7 +12744,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="M142" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N142" t="inlineStr">
@@ -12762,7 +12762,7 @@
           <t>TIKKA</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr">
+      <c r="Q142" s="4" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
@@ -12829,7 +12829,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="M143" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N143" t="inlineStr">
@@ -12847,7 +12847,7 @@
           <t>LANBER</t>
         </is>
       </c>
-      <c r="Q143" t="inlineStr">
+      <c r="Q143" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -12916,7 +12916,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="M144" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N144" t="inlineStr">
@@ -12934,7 +12934,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr">
+      <c r="Q144" s="4" t="inlineStr">
         <is>
           <t>LITE</t>
         </is>
@@ -13003,7 +13003,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="M145" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N145" t="inlineStr">
@@ -13021,7 +13021,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q145" t="inlineStr">
+      <c r="Q145" s="4" t="inlineStr">
         <is>
           <t>WHITE LIGHTNING</t>
         </is>
@@ -13090,7 +13090,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="M146" s="4" t="n">
         <v>97119</v>
       </c>
       <c r="N146" t="inlineStr">
@@ -13108,7 +13108,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q146" t="inlineStr">
+      <c r="Q146" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -13177,7 +13177,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="M147" s="4" t="n">
         <v>97118</v>
       </c>
       <c r="N147" t="inlineStr">
@@ -13193,7 +13193,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q147" t="n">
+      <c r="Q147" s="4" t="n">
         <v>870</v>
       </c>
       <c r="R147" s="3" t="inlineStr">
@@ -13260,7 +13260,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="M148" s="4" t="n">
         <v>97196</v>
       </c>
       <c r="N148" t="inlineStr">
@@ -13278,7 +13278,7 @@
           <t>TANFOGLIO</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr">
+      <c r="Q148" s="4" t="inlineStr">
         <is>
           <t>FT 9 FS</t>
         </is>
@@ -13347,7 +13347,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="M149" s="4" t="n">
         <v>97219</v>
       </c>
       <c r="N149" t="inlineStr">
@@ -13365,7 +13365,7 @@
           <t>TANFOGLIO</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr">
+      <c r="Q149" s="4" t="inlineStr">
         <is>
           <t>FT9FS SPORT</t>
         </is>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>+52 999 278 0476</t>
+          <t>529992780476</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -13436,7 +13436,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="M150" s="4" t="n">
         <v>24330</v>
       </c>
       <c r="N150" t="inlineStr">
@@ -13454,7 +13454,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q150" t="n">
+      <c r="Q150" s="4" t="n">
         <v>25</v>
       </c>
       <c r="R150" s="3" t="inlineStr">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>+52 999 278 0476</t>
+          <t>529992780476</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -13523,7 +13523,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="M151" s="4" t="n">
         <v>24330</v>
       </c>
       <c r="N151" t="inlineStr">
@@ -13541,7 +13541,7 @@
           <t>FABARM</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr">
+      <c r="Q151" s="4" t="inlineStr">
         <is>
           <t>ELOS</t>
         </is>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F152" s="4" t="inlineStr">
         <is>
-          <t>+52 999 278 0476</t>
+          <t>529992780476</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -13612,7 +13612,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="M152" s="4" t="n">
         <v>24330</v>
       </c>
       <c r="N152" t="inlineStr">
@@ -13630,7 +13630,7 @@
           <t>SAKO</t>
         </is>
       </c>
-      <c r="Q152" t="inlineStr">
+      <c r="Q152" s="4" t="inlineStr">
         <is>
           <t>85 XS</t>
         </is>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="F153" s="4" t="inlineStr">
         <is>
-          <t>+52 999 278 0476</t>
+          <t>529992780476</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -13701,7 +13701,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="M153" s="4" t="n">
         <v>24330</v>
       </c>
       <c r="N153" t="inlineStr">
@@ -13719,7 +13719,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q153" t="n">
+      <c r="Q153" s="4" t="n">
         <v>1100</v>
       </c>
       <c r="R153" s="3" t="inlineStr">
@@ -13786,7 +13786,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="M154" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N154" t="inlineStr">
@@ -13804,7 +13804,7 @@
           <t>SIG-SAUER</t>
         </is>
       </c>
-      <c r="Q154" t="inlineStr">
+      <c r="Q154" s="4" t="inlineStr">
         <is>
           <t>P250</t>
         </is>
@@ -13873,7 +13873,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="M155" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N155" t="inlineStr">
@@ -13891,7 +13891,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q155" t="inlineStr">
+      <c r="Q155" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -13960,7 +13960,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="M156" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N156" t="inlineStr">
@@ -13978,7 +13978,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q156" t="n">
+      <c r="Q156" s="4" t="n">
         <v>42</v>
       </c>
       <c r="R156" s="3" t="inlineStr">
@@ -14045,7 +14045,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="M157" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N157" t="inlineStr">
@@ -14063,7 +14063,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q157" t="inlineStr">
+      <c r="Q157" s="4" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
@@ -14132,7 +14132,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="M158" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N158" t="inlineStr">
@@ -14150,7 +14150,7 @@
           <t>SIG-SAUER</t>
         </is>
       </c>
-      <c r="Q158" t="inlineStr">
+      <c r="Q158" s="4" t="inlineStr">
         <is>
           <t>P250</t>
         </is>
@@ -14219,7 +14219,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="M159" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N159" t="inlineStr">
@@ -14237,7 +14237,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q159" t="inlineStr">
+      <c r="Q159" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -14304,7 +14304,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="M160" s="4" t="n">
         <v>97138</v>
       </c>
       <c r="N160" t="inlineStr">
@@ -14322,7 +14322,7 @@
           <t>TANFOGLIO</t>
         </is>
       </c>
-      <c r="Q160" t="inlineStr">
+      <c r="Q160" s="4" t="inlineStr">
         <is>
           <t>GT 380</t>
         </is>
@@ -14389,7 +14389,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="M161" s="4" t="n">
         <v>97300</v>
       </c>
       <c r="N161" t="inlineStr">
@@ -14407,7 +14407,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q161" t="inlineStr">
+      <c r="Q161" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -14476,7 +14476,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="M162" s="4" t="n">
         <v>97135</v>
       </c>
       <c r="N162" t="inlineStr">
@@ -14494,7 +14494,7 @@
           <t>ATA ARMS</t>
         </is>
       </c>
-      <c r="Q162" t="inlineStr">
+      <c r="Q162" s="4" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
@@ -14563,7 +14563,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="M163" s="4" t="n">
         <v>97135</v>
       </c>
       <c r="N163" t="inlineStr">
@@ -14581,7 +14581,7 @@
           <t>DIAMONDBACK FIREARMS</t>
         </is>
       </c>
-      <c r="Q163" t="inlineStr">
+      <c r="Q163" s="4" t="inlineStr">
         <is>
           <t>DB380</t>
         </is>
@@ -14650,7 +14650,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="M164" s="4" t="n">
         <v>97135</v>
       </c>
       <c r="N164" t="inlineStr">
@@ -14668,7 +14668,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q164" t="inlineStr">
+      <c r="Q164" s="4" t="inlineStr">
         <is>
           <t>42</t>
         </is>
@@ -14737,7 +14737,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="M165" s="4" t="n">
         <v>97135</v>
       </c>
       <c r="N165" t="inlineStr">
@@ -14755,7 +14755,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q165" t="inlineStr">
+      <c r="Q165" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -14824,7 +14824,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="M166" s="4" t="n">
         <v>97135</v>
       </c>
       <c r="N166" t="inlineStr">
@@ -14842,7 +14842,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr">
+      <c r="Q166" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -14911,7 +14911,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="M167" s="4" t="n">
         <v>97135</v>
       </c>
       <c r="N167" t="inlineStr">
@@ -14929,7 +14929,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q167" t="inlineStr">
+      <c r="Q167" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -14998,7 +14998,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="M168" s="4" t="n">
         <v>97135</v>
       </c>
       <c r="N168" t="inlineStr">
@@ -15016,7 +15016,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr">
+      <c r="Q168" s="4" t="inlineStr">
         <is>
           <t>CZ P-09</t>
         </is>
@@ -15085,7 +15085,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="M169" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N169" t="inlineStr">
@@ -15103,7 +15103,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q169" t="inlineStr">
+      <c r="Q169" s="4" t="inlineStr">
         <is>
           <t>1200</t>
         </is>
@@ -15172,7 +15172,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="M170" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N170" t="inlineStr">
@@ -15190,7 +15190,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q170" t="inlineStr">
+      <c r="Q170" s="4" t="inlineStr">
         <is>
           <t>590</t>
         </is>
@@ -15259,7 +15259,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="M171" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N171" t="inlineStr">
@@ -15277,7 +15277,7 @@
           <t>MENDOZA</t>
         </is>
       </c>
-      <c r="Q171" t="inlineStr">
+      <c r="Q171" s="4" t="inlineStr">
         <is>
           <t>PUMA</t>
         </is>
@@ -15344,7 +15344,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="M172" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N172" t="inlineStr">
@@ -15362,7 +15362,7 @@
           <t>DIAMONDBACK</t>
         </is>
       </c>
-      <c r="Q172" t="inlineStr">
+      <c r="Q172" s="4" t="inlineStr">
         <is>
           <t>DB-15</t>
         </is>
@@ -15431,7 +15431,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="M173" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N173" t="inlineStr">
@@ -15449,7 +15449,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q173" t="inlineStr">
+      <c r="Q173" s="4" t="inlineStr">
         <is>
           <t>1911</t>
         </is>
@@ -15518,7 +15518,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="M174" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N174" t="inlineStr">
@@ -15536,7 +15536,7 @@
           <t>SIG SAUER</t>
         </is>
       </c>
-      <c r="Q174" t="inlineStr">
+      <c r="Q174" s="4" t="inlineStr">
         <is>
           <t>P322</t>
         </is>
@@ -15605,7 +15605,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="M175" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N175" t="inlineStr">
@@ -15623,7 +15623,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q175" t="inlineStr">
+      <c r="Q175" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -15692,7 +15692,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="M176" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N176" t="inlineStr">
@@ -15710,7 +15710,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q176" t="inlineStr">
+      <c r="Q176" s="4" t="inlineStr">
         <is>
           <t>CZ P-10</t>
         </is>
@@ -15779,7 +15779,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="M177" s="4" t="n">
         <v>97140</v>
       </c>
       <c r="N177" t="inlineStr">
@@ -15795,7 +15795,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q177" t="inlineStr">
+      <c r="Q177" s="4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -15864,7 +15864,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="M178" s="4" t="n">
         <v>97177</v>
       </c>
       <c r="N178" t="inlineStr">
@@ -15882,7 +15882,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q178" t="inlineStr">
+      <c r="Q178" s="4" t="inlineStr">
         <is>
           <t>500A</t>
         </is>
@@ -15951,7 +15951,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="M179" s="4" t="n">
         <v>97314</v>
       </c>
       <c r="N179" t="inlineStr">
@@ -15969,7 +15969,7 @@
           <t>LUIGI FRANCHI</t>
         </is>
       </c>
-      <c r="Q179" t="inlineStr">
+      <c r="Q179" s="4" t="inlineStr">
         <is>
           <t>BRESCIA</t>
         </is>
@@ -16036,7 +16036,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="M180" s="4" t="n">
         <v>97314</v>
       </c>
       <c r="N180" t="inlineStr">
@@ -16054,7 +16054,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q180" t="inlineStr">
+      <c r="Q180" s="4" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -16123,7 +16123,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="M181" s="4" t="n">
         <v>97115</v>
       </c>
       <c r="N181" t="inlineStr">
@@ -16141,7 +16141,7 @@
           <t>STAR</t>
         </is>
       </c>
-      <c r="Q181" t="inlineStr">
+      <c r="Q181" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -16208,7 +16208,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="M182" s="4" t="n">
         <v>97115</v>
       </c>
       <c r="N182" t="inlineStr">
@@ -16226,7 +16226,7 @@
           <t>STEVENS</t>
         </is>
       </c>
-      <c r="Q182" t="inlineStr">
+      <c r="Q182" s="4" t="inlineStr">
         <is>
           <t>887</t>
         </is>
@@ -16295,7 +16295,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="M183" s="4" t="n">
         <v>97115</v>
       </c>
       <c r="N183" t="inlineStr">
@@ -16311,7 +16311,7 @@
           <t>GLENFIELD</t>
         </is>
       </c>
-      <c r="Q183" t="inlineStr">
+      <c r="Q183" s="4" t="inlineStr">
         <is>
           <t>778</t>
         </is>
@@ -16378,7 +16378,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="M184" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N184" t="inlineStr">
@@ -16396,7 +16396,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q184" t="inlineStr">
+      <c r="Q184" s="4" t="inlineStr">
         <is>
           <t>425 PN</t>
         </is>
@@ -16463,7 +16463,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="M185" s="4" t="n">
         <v>97249</v>
       </c>
       <c r="N185" t="inlineStr">
@@ -16481,7 +16481,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q185" t="inlineStr">
+      <c r="Q185" s="4" t="inlineStr">
         <is>
           <t>CZ-P-07</t>
         </is>
@@ -16550,7 +16550,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="M186" s="4" t="n">
         <v>97306</v>
       </c>
       <c r="N186" t="inlineStr">
@@ -16568,7 +16568,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q186" t="inlineStr">
+      <c r="Q186" s="4" t="inlineStr">
         <is>
           <t>BDA-380</t>
         </is>
@@ -16637,7 +16637,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="M187" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N187" t="inlineStr">
@@ -16655,7 +16655,7 @@
           <t>GRAND POWER</t>
         </is>
       </c>
-      <c r="Q187" t="inlineStr">
+      <c r="Q187" s="4" t="inlineStr">
         <is>
           <t>P380</t>
         </is>
@@ -16724,7 +16724,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="M188" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N188" t="inlineStr">
@@ -16742,7 +16742,7 @@
           <t>GRAND POWER</t>
         </is>
       </c>
-      <c r="Q188" t="inlineStr">
+      <c r="Q188" s="4" t="inlineStr">
         <is>
           <t>LP380</t>
         </is>
@@ -16811,7 +16811,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="M189" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N189" t="inlineStr">
@@ -16829,7 +16829,7 @@
           <t>GRAND POWER</t>
         </is>
       </c>
-      <c r="Q189" t="inlineStr">
+      <c r="Q189" s="4" t="inlineStr">
         <is>
           <t>K22 X-TRIM</t>
         </is>
@@ -16898,7 +16898,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="M190" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N190" t="inlineStr">
@@ -16916,7 +16916,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q190" t="inlineStr">
+      <c r="Q190" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -16985,7 +16985,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="M191" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N191" t="inlineStr">
@@ -17003,7 +17003,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q191" t="inlineStr">
+      <c r="Q191" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -17072,7 +17072,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="M192" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N192" t="inlineStr">
@@ -17090,7 +17090,7 @@
           <t>RUGER</t>
         </is>
       </c>
-      <c r="Q192" t="inlineStr">
+      <c r="Q192" s="4" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
@@ -17159,7 +17159,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="M193" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N193" t="inlineStr">
@@ -17177,7 +17177,7 @@
           <t>RUGER</t>
         </is>
       </c>
-      <c r="Q193" t="inlineStr">
+      <c r="Q193" s="4" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
@@ -17246,7 +17246,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="M194" s="4" t="n">
         <v>97345</v>
       </c>
       <c r="N194" t="inlineStr">
@@ -17264,7 +17264,7 @@
           <t>KRISS</t>
         </is>
       </c>
-      <c r="Q194" t="inlineStr">
+      <c r="Q194" s="4" t="inlineStr">
         <is>
           <t>DMK22C</t>
         </is>
@@ -17331,7 +17331,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="M195" s="4" t="n">
         <v>97970</v>
       </c>
       <c r="N195" t="inlineStr">
@@ -17349,7 +17349,7 @@
           <t>LLAMA</t>
         </is>
       </c>
-      <c r="Q195" t="inlineStr">
+      <c r="Q195" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -17418,7 +17418,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="M196" s="4" t="n">
         <v>97970</v>
       </c>
       <c r="N196" t="inlineStr">
@@ -17436,7 +17436,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q196" t="inlineStr">
+      <c r="Q196" s="4" t="inlineStr">
         <is>
           <t>BUCK MARK</t>
         </is>
@@ -17505,7 +17505,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="M197" s="4" t="n">
         <v>97970</v>
       </c>
       <c r="N197" t="inlineStr">
@@ -17523,7 +17523,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q197" t="inlineStr">
+      <c r="Q197" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -17592,7 +17592,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="M198" s="4" t="n">
         <v>97146</v>
       </c>
       <c r="N198" t="inlineStr">
@@ -17610,7 +17610,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q198" t="inlineStr">
+      <c r="Q198" s="4" t="inlineStr">
         <is>
           <t>11-87 SPORTSMAN</t>
         </is>
@@ -17679,7 +17679,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="M199" s="4" t="n">
         <v>97146</v>
       </c>
       <c r="N199" t="inlineStr">
@@ -17697,7 +17697,7 @@
           <t>ZBROJOVKA BRNO</t>
         </is>
       </c>
-      <c r="Q199" t="inlineStr">
+      <c r="Q199" s="4" t="inlineStr">
         <is>
           <t>AZKW</t>
         </is>
@@ -17764,7 +17764,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="M200" s="4" t="n">
         <v>97146</v>
       </c>
       <c r="N200" t="inlineStr">
@@ -17782,7 +17782,7 @@
           <t>STEVENS</t>
         </is>
       </c>
-      <c r="Q200" t="inlineStr">
+      <c r="Q200" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -17851,7 +17851,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="M201" s="4" t="n">
         <v>97146</v>
       </c>
       <c r="N201" t="inlineStr">
@@ -17869,7 +17869,7 @@
           <t>WEATHERBY</t>
         </is>
       </c>
-      <c r="Q201" t="inlineStr">
+      <c r="Q201" s="4" t="inlineStr">
         <is>
           <t>VANGUARD</t>
         </is>
@@ -17938,7 +17938,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="M202" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N202" t="inlineStr">
@@ -17956,7 +17956,7 @@
           <t>SMITH &amp; WESSON</t>
         </is>
       </c>
-      <c r="Q202" t="inlineStr">
+      <c r="Q202" s="4" t="inlineStr">
         <is>
           <t>SPRINGFIELD</t>
         </is>
@@ -18025,7 +18025,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="M203" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N203" t="inlineStr">
@@ -18043,7 +18043,7 @@
           <t>SEARS</t>
         </is>
       </c>
-      <c r="Q203" t="inlineStr">
+      <c r="Q203" s="4" t="inlineStr">
         <is>
           <t>3T</t>
         </is>
@@ -18112,7 +18112,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="M204" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N204" t="inlineStr">
@@ -18128,7 +18128,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q204" t="inlineStr">
+      <c r="Q204" s="4" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -18197,7 +18197,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="M205" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N205" t="inlineStr">
@@ -18215,7 +18215,7 @@
           <t>STEVENS</t>
         </is>
       </c>
-      <c r="Q205" t="inlineStr">
+      <c r="Q205" s="4" t="inlineStr">
         <is>
           <t>311</t>
         </is>
@@ -18284,7 +18284,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="M206" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N206" t="inlineStr">
@@ -18302,7 +18302,7 @@
           <t>STEVENS</t>
         </is>
       </c>
-      <c r="Q206" t="inlineStr">
+      <c r="Q206" s="4" t="inlineStr">
         <is>
           <t>79</t>
         </is>
@@ -18371,7 +18371,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="M207" s="4" t="n">
         <v>97306</v>
       </c>
       <c r="N207" t="inlineStr">
@@ -18389,7 +18389,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q207" t="inlineStr">
+      <c r="Q207" s="4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
@@ -18458,7 +18458,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="M208" s="4" t="n">
         <v>97306</v>
       </c>
       <c r="N208" t="inlineStr">
@@ -18476,7 +18476,7 @@
           <t>MOSSBERG</t>
         </is>
       </c>
-      <c r="Q208" t="inlineStr">
+      <c r="Q208" s="4" t="inlineStr">
         <is>
           <t>SA-20</t>
         </is>
@@ -18545,7 +18545,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="M209" s="4" t="n">
         <v>97306</v>
       </c>
       <c r="N209" t="inlineStr">
@@ -18563,7 +18563,7 @@
           <t>SIG SAUER</t>
         </is>
       </c>
-      <c r="Q209" t="inlineStr">
+      <c r="Q209" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -18632,7 +18632,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="M210" s="4" t="n">
         <v>97306</v>
       </c>
       <c r="N210" t="inlineStr">
@@ -18650,7 +18650,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q210" t="inlineStr">
+      <c r="Q210" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -18719,7 +18719,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="M211" s="4" t="n">
         <v>97306</v>
       </c>
       <c r="N211" t="inlineStr">
@@ -18737,7 +18737,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q211" t="inlineStr">
+      <c r="Q211" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -18806,7 +18806,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="M212" s="4" t="n">
         <v>97306</v>
       </c>
       <c r="N212" t="inlineStr">
@@ -18824,7 +18824,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q212" t="inlineStr">
+      <c r="Q212" s="4" t="inlineStr">
         <is>
           <t>CZ P-10 C</t>
         </is>
@@ -18893,7 +18893,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="M213" s="4" t="n">
         <v>97300</v>
       </c>
       <c r="N213" t="inlineStr">
@@ -18911,7 +18911,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q213" t="inlineStr">
+      <c r="Q213" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -18980,7 +18980,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="M214" s="4" t="n">
         <v>97300</v>
       </c>
       <c r="N214" t="inlineStr">
@@ -18998,7 +18998,7 @@
           <t>CZ</t>
         </is>
       </c>
-      <c r="Q214" t="inlineStr">
+      <c r="Q214" s="4" t="inlineStr">
         <is>
           <t>CZ 457</t>
         </is>
@@ -19067,7 +19067,7 @@
           <t>MÉXICO</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="M215" s="4" t="n">
         <v>97217</v>
       </c>
       <c r="N215" t="inlineStr">
@@ -19129,7 +19129,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="M216" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N216" t="inlineStr">
@@ -19147,7 +19147,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q216" t="inlineStr">
+      <c r="Q216" s="4" t="inlineStr">
         <is>
           <t>1894</t>
         </is>
@@ -19214,7 +19214,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M217" t="n">
+      <c r="M217" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N217" t="inlineStr">
@@ -19232,7 +19232,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q217" t="inlineStr">
+      <c r="Q217" s="4" t="inlineStr">
         <is>
           <t>GOVERNMENT</t>
         </is>
@@ -19301,7 +19301,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M218" t="n">
+      <c r="M218" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N218" t="inlineStr">
@@ -19319,7 +19319,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q218" t="inlineStr">
+      <c r="Q218" s="4" t="inlineStr">
         <is>
           <t>552</t>
         </is>
@@ -19388,7 +19388,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M219" t="n">
+      <c r="M219" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N219" t="inlineStr">
@@ -19406,7 +19406,7 @@
           <t>BERETTA</t>
         </is>
       </c>
-      <c r="Q219" t="inlineStr">
+      <c r="Q219" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -19473,7 +19473,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M220" t="n">
+      <c r="M220" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N220" t="inlineStr">
@@ -19491,7 +19491,7 @@
           <t>SAVAGE</t>
         </is>
       </c>
-      <c r="Q220" t="inlineStr">
+      <c r="Q220" s="4" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -19560,7 +19560,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M221" t="n">
+      <c r="M221" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N221" t="inlineStr">
@@ -19578,7 +19578,7 @@
           <t>ATA ARMS</t>
         </is>
       </c>
-      <c r="Q221" t="inlineStr">
+      <c r="Q221" s="4" t="inlineStr">
         <is>
           <t>MAX 5</t>
         </is>
@@ -19647,7 +19647,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M222" t="n">
+      <c r="M222" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N222" t="inlineStr">
@@ -19665,7 +19665,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q222" t="inlineStr">
+      <c r="Q222" s="4" t="inlineStr">
         <is>
           <t>WHITE LIGHTNING</t>
         </is>
@@ -19734,7 +19734,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="M223" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N223" t="inlineStr">
@@ -19752,7 +19752,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q223" t="inlineStr">
+      <c r="Q223" s="4" t="inlineStr">
         <is>
           <t>MAXUS</t>
         </is>
@@ -19821,7 +19821,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M224" t="n">
+      <c r="M224" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N224" t="inlineStr">
@@ -19839,7 +19839,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q224" t="inlineStr">
+      <c r="Q224" s="4" t="inlineStr">
         <is>
           <t>FUSION EVOLVE</t>
         </is>
@@ -19908,7 +19908,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="M225" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N225" t="inlineStr">
@@ -19926,7 +19926,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q225" t="inlineStr">
+      <c r="Q225" s="4" t="inlineStr">
         <is>
           <t>SILVER HUNTER</t>
         </is>
@@ -19995,7 +19995,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M226" t="n">
+      <c r="M226" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N226" t="inlineStr">
@@ -20013,7 +20013,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q226" t="inlineStr">
+      <c r="Q226" s="4" t="inlineStr">
         <is>
           <t>WOODSMAN</t>
         </is>
@@ -20082,7 +20082,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M227" t="n">
+      <c r="M227" s="4" t="n">
         <v>97115</v>
       </c>
       <c r="N227" t="inlineStr">
@@ -20100,7 +20100,7 @@
           <t>STAR</t>
         </is>
       </c>
-      <c r="Q227" t="inlineStr">
+      <c r="Q227" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -20167,7 +20167,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="M228" s="4" t="n">
         <v>97115</v>
       </c>
       <c r="N228" t="inlineStr">
@@ -20185,7 +20185,7 @@
           <t>REMINGTON</t>
         </is>
       </c>
-      <c r="Q228" t="inlineStr">
+      <c r="Q228" s="4" t="inlineStr">
         <is>
           <t>SPR310</t>
         </is>
@@ -20254,7 +20254,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="M229" s="4" t="n">
         <v>97115</v>
       </c>
       <c r="N229" t="inlineStr">
@@ -20272,7 +20272,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q229" t="inlineStr">
+      <c r="Q229" s="4" t="inlineStr">
         <is>
           <t>CITORI</t>
         </is>
@@ -20341,7 +20341,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M230" t="n">
+      <c r="M230" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N230" t="inlineStr">
@@ -20403,7 +20403,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M231" t="n">
+      <c r="M231" s="4" t="n">
         <v>24085</v>
       </c>
       <c r="N231" t="inlineStr">
@@ -20421,7 +20421,7 @@
           <t>GRAND POWER</t>
         </is>
       </c>
-      <c r="Q231" t="inlineStr">
+      <c r="Q231" s="4" t="inlineStr">
         <is>
           <t>ROXOR</t>
         </is>
@@ -20490,7 +20490,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M232" t="n">
+      <c r="M232" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N232" t="inlineStr">
@@ -20508,7 +20508,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q232" t="inlineStr">
+      <c r="Q232" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -20577,7 +20577,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M233" t="n">
+      <c r="M233" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N233" t="inlineStr">
@@ -20595,7 +20595,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q233" t="inlineStr">
+      <c r="Q233" s="4" t="inlineStr">
         <is>
           <t>C Z P-10 C</t>
         </is>
@@ -20664,7 +20664,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="M234" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N234" t="inlineStr">
@@ -20682,7 +20682,7 @@
           <t>SIG SAUER</t>
         </is>
       </c>
-      <c r="Q234" t="inlineStr">
+      <c r="Q234" s="4" t="inlineStr">
         <is>
           <t>P322</t>
         </is>
@@ -20751,7 +20751,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="M235" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N235" t="inlineStr">
@@ -20769,7 +20769,7 @@
           <t>MENDOZA</t>
         </is>
       </c>
-      <c r="Q235" t="inlineStr">
+      <c r="Q235" s="4" t="inlineStr">
         <is>
           <t>PUMA</t>
         </is>
@@ -20838,7 +20838,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="M236" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N236" t="inlineStr">
@@ -20856,7 +20856,7 @@
           <t>RUGER</t>
         </is>
       </c>
-      <c r="Q236" t="inlineStr">
+      <c r="Q236" s="4" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
@@ -20925,7 +20925,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M237" t="n">
+      <c r="M237" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N237" t="inlineStr">
@@ -20943,7 +20943,7 @@
           <t>RETAY</t>
         </is>
       </c>
-      <c r="Q237" t="inlineStr">
+      <c r="Q237" s="4" t="inlineStr">
         <is>
           <t>GPSX</t>
         </is>
@@ -21012,7 +21012,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M238" t="n">
+      <c r="M238" s="4" t="n">
         <v>97314</v>
       </c>
       <c r="N238" t="inlineStr">
@@ -21030,7 +21030,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q238" t="inlineStr">
+      <c r="Q238" s="4" t="inlineStr">
         <is>
           <t>C Z P-10 C</t>
         </is>
@@ -21099,7 +21099,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M239" t="n">
+      <c r="M239" s="4" t="n">
         <v>97314</v>
       </c>
       <c r="N239" t="inlineStr">
@@ -21117,7 +21117,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q239" t="inlineStr">
+      <c r="Q239" s="4" t="inlineStr">
         <is>
           <t>BUCKMARK CONTOUR</t>
         </is>
@@ -21186,7 +21186,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M240" t="n">
+      <c r="M240" s="4" t="n">
         <v>97314</v>
       </c>
       <c r="N240" t="inlineStr">
@@ -21204,7 +21204,7 @@
           <t>RETAY</t>
         </is>
       </c>
-      <c r="Q240" t="inlineStr">
+      <c r="Q240" s="4" t="inlineStr">
         <is>
           <t>GORDION</t>
         </is>
@@ -21273,7 +21273,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M241" t="n">
+      <c r="M241" s="4" t="n">
         <v>97145</v>
       </c>
       <c r="N241" t="inlineStr">
@@ -21291,7 +21291,7 @@
           <t>FRANCHI</t>
         </is>
       </c>
-      <c r="Q241" t="inlineStr">
+      <c r="Q241" s="4" t="inlineStr">
         <is>
           <t>BARRAGE SPORTING</t>
         </is>
@@ -21360,7 +21360,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M242" t="n">
+      <c r="M242" s="4" t="n">
         <v>97145</v>
       </c>
       <c r="N242" t="inlineStr">
@@ -21378,7 +21378,7 @@
           <t>WINCHESTER</t>
         </is>
       </c>
-      <c r="Q242" t="inlineStr">
+      <c r="Q242" s="4" t="inlineStr">
         <is>
           <t>NATERAS</t>
         </is>
@@ -21447,7 +21447,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M243" t="n">
+      <c r="M243" s="4" t="n">
         <v>97145</v>
       </c>
       <c r="N243" t="inlineStr">
@@ -21465,7 +21465,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q243" t="n">
+      <c r="Q243" s="4" t="n">
         <v>25</v>
       </c>
       <c r="R243" s="3" t="inlineStr">
@@ -21532,7 +21532,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M244" t="n">
+      <c r="M244" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N244" t="inlineStr">
@@ -21550,7 +21550,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q244" t="inlineStr">
+      <c r="Q244" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -21619,7 +21619,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M245" t="n">
+      <c r="M245" s="4" t="n">
         <v>97314</v>
       </c>
       <c r="N245" t="inlineStr">
@@ -21681,7 +21681,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M246" t="n">
+      <c r="M246" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N246" t="inlineStr">
@@ -21699,7 +21699,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q246" t="inlineStr">
+      <c r="Q246" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -21768,7 +21768,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M247" t="n">
+      <c r="M247" s="4" t="n">
         <v>97130</v>
       </c>
       <c r="N247" t="inlineStr">
@@ -21786,7 +21786,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q247" t="inlineStr">
+      <c r="Q247" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -21855,7 +21855,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M248" t="n">
+      <c r="M248" s="4" t="n">
         <v>24114</v>
       </c>
       <c r="N248" t="inlineStr">
@@ -21917,7 +21917,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M249" t="n">
+      <c r="M249" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N249" t="inlineStr">
@@ -21935,7 +21935,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q249" t="inlineStr">
+      <c r="Q249" s="4" t="inlineStr">
         <is>
           <t>CZ P-10 C</t>
         </is>
@@ -22004,7 +22004,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M250" t="n">
+      <c r="M250" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N250" t="inlineStr">
@@ -22022,7 +22022,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q250" t="inlineStr">
+      <c r="Q250" s="4" t="inlineStr">
         <is>
           <t>BUCK</t>
         </is>
@@ -22091,7 +22091,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M251" t="n">
+      <c r="M251" s="4" t="n">
         <v>97117</v>
       </c>
       <c r="N251" t="inlineStr">
@@ -22109,7 +22109,7 @@
           <t>MENDOZA</t>
         </is>
       </c>
-      <c r="Q251" t="inlineStr">
+      <c r="Q251" s="4" t="inlineStr">
         <is>
           <t>PUMA</t>
         </is>
@@ -22176,7 +22176,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M252" t="n">
+      <c r="M252" s="4" t="n">
         <v>97700</v>
       </c>
       <c r="N252" t="inlineStr">
@@ -22209,7 +22209,7 @@
       </c>
       <c r="F253" s="4" t="inlineStr">
         <is>
-          <t>999 900 1366</t>
+          <t>9999001366</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -22240,7 +22240,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M253" t="n">
+      <c r="M253" s="4" t="n">
         <v>97147</v>
       </c>
       <c r="N253" t="inlineStr">
@@ -22258,7 +22258,7 @@
           <t>GRAND POWER</t>
         </is>
       </c>
-      <c r="Q253" t="inlineStr">
+      <c r="Q253" s="4" t="inlineStr">
         <is>
           <t>K22</t>
         </is>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="F254" s="4" t="inlineStr">
         <is>
-          <t>999 900 1366</t>
+          <t>9999001366</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -22329,7 +22329,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M254" t="n">
+      <c r="M254" s="4" t="n">
         <v>97147</v>
       </c>
       <c r="N254" t="inlineStr">
@@ -22347,7 +22347,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q254" t="inlineStr">
+      <c r="Q254" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -22387,7 +22387,7 @@
       </c>
       <c r="F255" s="4" t="inlineStr">
         <is>
-          <t>999 900 1366</t>
+          <t>9999001366</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -22418,7 +22418,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M255" t="n">
+      <c r="M255" s="4" t="n">
         <v>97147</v>
       </c>
       <c r="N255" t="inlineStr">
@@ -22436,7 +22436,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q255" t="inlineStr">
+      <c r="Q255" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="F256" s="4" t="inlineStr">
         <is>
-          <t>999 900 1366</t>
+          <t>9999001366</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -22507,7 +22507,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M256" t="n">
+      <c r="M256" s="4" t="n">
         <v>97147</v>
       </c>
       <c r="N256" t="inlineStr">
@@ -22525,7 +22525,7 @@
           <t>SIG SAUER</t>
         </is>
       </c>
-      <c r="Q256" t="inlineStr">
+      <c r="Q256" s="4" t="inlineStr">
         <is>
           <t>P365</t>
         </is>
@@ -22565,7 +22565,7 @@
       </c>
       <c r="F257" s="4" t="inlineStr">
         <is>
-          <t>999 900 1366</t>
+          <t>9999001366</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -22596,7 +22596,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M257" t="n">
+      <c r="M257" s="4" t="n">
         <v>97147</v>
       </c>
       <c r="N257" t="inlineStr">
@@ -22614,7 +22614,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q257" t="inlineStr">
+      <c r="Q257" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -22654,7 +22654,7 @@
       </c>
       <c r="F258" s="4" t="inlineStr">
         <is>
-          <t>999 900 1366</t>
+          <t>9999001366</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -22685,7 +22685,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M258" t="n">
+      <c r="M258" s="4" t="n">
         <v>97147</v>
       </c>
       <c r="N258" t="inlineStr">
@@ -22703,7 +22703,7 @@
           <t>H&amp;R</t>
         </is>
       </c>
-      <c r="Q258" t="inlineStr">
+      <c r="Q258" s="4" t="inlineStr">
         <is>
           <t>929</t>
         </is>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="F259" s="4" t="inlineStr">
         <is>
-          <t>999 900 1366</t>
+          <t>9999001366</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -22774,7 +22774,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M259" t="n">
+      <c r="M259" s="4" t="n">
         <v>97147</v>
       </c>
       <c r="N259" t="inlineStr">
@@ -22792,7 +22792,7 @@
           <t>CHIAPPA FIREARMS</t>
         </is>
       </c>
-      <c r="Q259" t="inlineStr">
+      <c r="Q259" s="4" t="inlineStr">
         <is>
           <t>MFOUR-22</t>
         </is>
@@ -22861,7 +22861,7 @@
           <t>YUCATAN</t>
         </is>
       </c>
-      <c r="M260" t="n">
+      <c r="M260" s="4" t="n">
         <v>97816</v>
       </c>
       <c r="N260" t="inlineStr">
@@ -22879,7 +22879,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q260" t="inlineStr">
+      <c r="Q260" s="4" t="inlineStr">
         <is>
           <t>CZ SHADOW 2</t>
         </is>
@@ -22948,7 +22948,7 @@
           <t>YUCATAN</t>
         </is>
       </c>
-      <c r="M261" t="n">
+      <c r="M261" s="4" t="n">
         <v>97816</v>
       </c>
       <c r="N261" t="inlineStr">
@@ -22966,7 +22966,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q261" t="inlineStr">
+      <c r="Q261" s="4" t="inlineStr">
         <is>
           <t>CZ 457 MTR</t>
         </is>
@@ -23035,7 +23035,7 @@
           <t>YUCATAN</t>
         </is>
       </c>
-      <c r="M262" t="n">
+      <c r="M262" s="4" t="n">
         <v>97816</v>
       </c>
       <c r="N262" t="inlineStr">
@@ -23053,7 +23053,7 @@
           <t>BREDA</t>
         </is>
       </c>
-      <c r="Q262" t="inlineStr">
+      <c r="Q262" s="4" t="inlineStr">
         <is>
           <t>TITANIO</t>
         </is>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="F263" s="4" t="inlineStr">
         <is>
-          <t>+52 999 200 3314</t>
+          <t>529992003314</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -23124,7 +23124,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M263" t="n">
+      <c r="M263" s="4" t="n">
         <v>97205</v>
       </c>
       <c r="N263" t="inlineStr">
@@ -23142,7 +23142,7 @@
           <t>MENDOZA</t>
         </is>
       </c>
-      <c r="Q263" t="inlineStr">
+      <c r="Q263" s="4" t="inlineStr">
         <is>
           <t>PUMA</t>
         </is>
@@ -23180,7 +23180,7 @@
       </c>
       <c r="F264" s="4" t="inlineStr">
         <is>
-          <t>+52 999 200 3314</t>
+          <t>529992003314</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -23211,7 +23211,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M264" t="n">
+      <c r="M264" s="4" t="n">
         <v>97205</v>
       </c>
       <c r="N264" t="inlineStr">
@@ -23229,7 +23229,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q264" t="inlineStr">
+      <c r="Q264" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="F265" s="4" t="inlineStr">
         <is>
-          <t>+52 999 200 3314</t>
+          <t>529992003314</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -23300,7 +23300,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M265" t="n">
+      <c r="M265" s="4" t="n">
         <v>97205</v>
       </c>
       <c r="N265" t="inlineStr">
@@ -23318,7 +23318,7 @@
           <t>BENELLI</t>
         </is>
       </c>
-      <c r="Q265" t="inlineStr">
+      <c r="Q265" s="4" t="inlineStr">
         <is>
           <t>MR1</t>
         </is>
@@ -23358,7 +23358,7 @@
       </c>
       <c r="F266" s="4" t="inlineStr">
         <is>
-          <t>+52 999 200 3314</t>
+          <t>529992003314</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -23389,7 +23389,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M266" t="n">
+      <c r="M266" s="4" t="n">
         <v>97205</v>
       </c>
       <c r="N266" t="inlineStr">
@@ -23407,7 +23407,7 @@
           <t>RETAY</t>
         </is>
       </c>
-      <c r="Q266" t="inlineStr">
+      <c r="Q266" s="4" t="inlineStr">
         <is>
           <t>MASAY MARA</t>
         </is>
@@ -23447,7 +23447,7 @@
       </c>
       <c r="F267" s="4" t="inlineStr">
         <is>
-          <t>+52 999 200 3314</t>
+          <t>529992003314</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -23478,7 +23478,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M267" t="n">
+      <c r="M267" s="4" t="n">
         <v>97205</v>
       </c>
       <c r="N267" t="inlineStr">
@@ -23496,7 +23496,7 @@
           <t>BERSA</t>
         </is>
       </c>
-      <c r="Q267" t="inlineStr">
+      <c r="Q267" s="4" t="inlineStr">
         <is>
           <t>THUNDER 380 COMBAT</t>
         </is>
@@ -23536,7 +23536,7 @@
       </c>
       <c r="F268" s="4" t="inlineStr">
         <is>
-          <t>+52 999 200 3314</t>
+          <t>529992003314</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -23567,7 +23567,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M268" t="n">
+      <c r="M268" s="4" t="n">
         <v>97205</v>
       </c>
       <c r="N268" t="inlineStr">
@@ -23585,7 +23585,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q268" t="inlineStr">
+      <c r="Q268" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -23625,7 +23625,7 @@
       </c>
       <c r="F269" s="4" t="inlineStr">
         <is>
-          <t>+52 999 200 3314</t>
+          <t>529992003314</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -23656,7 +23656,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M269" t="n">
+      <c r="M269" s="4" t="n">
         <v>97205</v>
       </c>
       <c r="N269" t="inlineStr">
@@ -23674,7 +23674,7 @@
           <t>GRAND POWER</t>
         </is>
       </c>
-      <c r="Q269" t="inlineStr">
+      <c r="Q269" s="4" t="inlineStr">
         <is>
           <t>LP380</t>
         </is>
@@ -23743,7 +23743,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M270" t="n">
+      <c r="M270" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N270" t="inlineStr">
@@ -23805,7 +23805,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M271" t="n">
+      <c r="M271" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N271" t="inlineStr">
@@ -23823,7 +23823,7 @@
           <t>BROWNING</t>
         </is>
       </c>
-      <c r="Q271" t="inlineStr">
+      <c r="Q271" s="4" t="inlineStr">
         <is>
           <t>BUCKMARK CONTOUR</t>
         </is>
@@ -23892,7 +23892,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M272" t="n">
+      <c r="M272" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N272" t="inlineStr">
@@ -23910,7 +23910,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q272" t="inlineStr">
+      <c r="Q272" s="4" t="inlineStr">
         <is>
           <t>457 PREMIUM</t>
         </is>
@@ -23979,7 +23979,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M273" t="n">
+      <c r="M273" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N273" t="inlineStr">
@@ -23997,7 +23997,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q273" t="inlineStr">
+      <c r="Q273" s="4" t="inlineStr">
         <is>
           <t>CZ P-10 C</t>
         </is>
@@ -24066,7 +24066,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M274" t="n">
+      <c r="M274" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N274" t="inlineStr">
@@ -24084,7 +24084,7 @@
           <t>COLT</t>
         </is>
       </c>
-      <c r="Q274" t="inlineStr">
+      <c r="Q274" s="4" t="inlineStr">
         <is>
           <t>DETECTIVE</t>
         </is>
@@ -24153,7 +24153,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M275" t="n">
+      <c r="M275" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N275" t="inlineStr">
@@ -24171,7 +24171,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q275" t="inlineStr">
+      <c r="Q275" s="4" t="inlineStr">
         <is>
           <t>CZ P-09</t>
         </is>
@@ -24240,7 +24240,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M276" t="n">
+      <c r="M276" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N276" t="inlineStr">
@@ -24258,7 +24258,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q276" t="inlineStr">
+      <c r="Q276" s="4" t="inlineStr">
         <is>
           <t>CZ P-10 C</t>
         </is>
@@ -24327,7 +24327,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M277" t="n">
+      <c r="M277" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N277" t="inlineStr">
@@ -24345,7 +24345,7 @@
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q277" t="inlineStr">
+      <c r="Q277" s="4" t="inlineStr">
         <is>
           <t>CZ P-07</t>
         </is>
@@ -24414,7 +24414,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M278" t="n">
+      <c r="M278" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N278" t="inlineStr">
@@ -24432,7 +24432,7 @@
           <t>ARMSAN</t>
         </is>
       </c>
-      <c r="Q278" t="inlineStr">
+      <c r="Q278" s="4" t="inlineStr">
         <is>
           <t>P612</t>
         </is>
@@ -24501,7 +24501,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M279" t="n">
+      <c r="M279" s="4" t="n">
         <v>97305</v>
       </c>
       <c r="N279" t="inlineStr">
@@ -24519,7 +24519,7 @@
           <t>MENDOZA</t>
         </is>
       </c>
-      <c r="Q279" t="inlineStr">
+      <c r="Q279" s="4" t="inlineStr">
         <is>
           <t>RM22-1000 CENTENARIO</t>
         </is>
@@ -24588,7 +24588,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M280" t="n">
+      <c r="M280" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N280" t="inlineStr">
@@ -24606,7 +24606,7 @@
           <t>SIG SAUER</t>
         </is>
       </c>
-      <c r="Q280" t="inlineStr">
+      <c r="Q280" s="4" t="inlineStr">
         <is>
           <t>P322</t>
         </is>
@@ -24675,7 +24675,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M281" t="n">
+      <c r="M281" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N281" t="inlineStr">
@@ -24693,7 +24693,7 @@
           <t>RUGER</t>
         </is>
       </c>
-      <c r="Q281" t="inlineStr">
+      <c r="Q281" s="4" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
@@ -24762,7 +24762,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M282" t="n">
+      <c r="M282" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N282" t="inlineStr">
@@ -24778,7 +24778,7 @@
           <t>J.B. RONGE FILF A LIEGE</t>
         </is>
       </c>
-      <c r="Q282" t="inlineStr">
+      <c r="Q282" s="4" t="inlineStr">
         <is>
           <t>SIN</t>
         </is>
@@ -24845,7 +24845,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M283" t="n">
+      <c r="M283" s="4" t="n">
         <v>97219</v>
       </c>
       <c r="N283" t="inlineStr">
@@ -24878,7 +24878,7 @@
       </c>
       <c r="F284" s="4" t="inlineStr">
         <is>
-          <t>999 163 9981</t>
+          <t>9991639981</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -24909,7 +24909,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M284" t="n">
+      <c r="M284" s="4" t="n">
         <v>97114</v>
       </c>
       <c r="N284" t="inlineStr">
@@ -24942,7 +24942,7 @@
       </c>
       <c r="F285" s="4" t="inlineStr">
         <is>
-          <t>999 947 3043</t>
+          <t>9999473043</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -24973,7 +24973,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M285" t="n">
+      <c r="M285" s="4" t="n">
         <v>97114</v>
       </c>
       <c r="N285" t="inlineStr">
@@ -24991,7 +24991,7 @@
           <t>GLOCK</t>
         </is>
       </c>
-      <c r="Q285" t="inlineStr">
+      <c r="Q285" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="F286" s="4" t="inlineStr">
         <is>
-          <t>999 528 7779</t>
+          <t>9995287779</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -25062,7 +25062,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M286" t="n">
+      <c r="M286" s="4" t="n">
         <v>97114</v>
       </c>
       <c r="N286" t="inlineStr">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="F287" s="4" t="inlineStr">
         <is>
-          <t>999 730 0081</t>
+          <t>9997300081</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -25126,7 +25126,7 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M287" t="n">
+      <c r="M287" s="4" t="n">
         <v>97302</v>
       </c>
       <c r="N287" t="inlineStr">

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -582,8 +582,10 @@
           <t>FEGR350218HYNRSC04</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>9999470480</v>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>'9999470480</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -613,8 +615,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>97138</v>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -669,8 +673,10 @@
           <t>FEGR350218HYNRSC04</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>9999470480</v>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>'9999470480</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -700,8 +706,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>97138</v>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -756,8 +764,10 @@
           <t>FEGR350218HYNRSC04</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>9999470480</v>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>'9999470480</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -787,8 +797,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>97138</v>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -843,8 +855,10 @@
           <t>FEGR350218HYNRSC04</t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>9999470480</v>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>'9999470480</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -874,8 +888,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>97138</v>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -930,8 +946,10 @@
           <t>LIZJ750609HYNZVC08</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>9991336764</v>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>'9991336764</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -961,8 +979,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>97138</v>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1015,8 +1035,10 @@
           <t>LIZJ750609HYNZVC08</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>9991336764</v>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>'9991336764</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1046,8 +1068,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>97138</v>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1098,8 +1122,10 @@
           <t>LIZJ750609HYNZVC08</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>9991336764</v>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>'9991336764</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1129,8 +1155,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>97138</v>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1185,8 +1213,10 @@
           <t>LIZJ750609HYNZVC08</t>
         </is>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>9991336764</v>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>'9991336764</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1216,8 +1246,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>97138</v>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1272,8 +1304,10 @@
           <t>LIZJ750609HYNZVC08</t>
         </is>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>9991336764</v>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>'9991336764</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1303,8 +1337,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>97138</v>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1359,8 +1395,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F11" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1390,8 +1428,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>97119</v>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1444,8 +1484,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F12" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1475,8 +1517,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M12" s="4" t="n">
-        <v>97119</v>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1531,8 +1575,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F13" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1562,8 +1608,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M13" s="4" t="n">
-        <v>97119</v>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1618,8 +1666,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F14" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1649,8 +1699,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M14" s="4" t="n">
-        <v>97119</v>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1705,8 +1757,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F15" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1736,8 +1790,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M15" s="4" t="n">
-        <v>97119</v>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1788,8 +1844,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F16" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1819,8 +1877,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M16" s="4" t="n">
-        <v>97119</v>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1871,8 +1931,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F17" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1902,8 +1964,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>97119</v>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1958,8 +2022,10 @@
           <t>XARA661008HYNCVD08</t>
         </is>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>9992442613</v>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>'9992442613</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1989,8 +2055,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M18" s="4" t="n">
-        <v>97119</v>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -2045,8 +2113,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F19" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2076,8 +2146,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M19" s="4" t="n">
-        <v>97128</v>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -2132,8 +2204,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F20" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2163,8 +2237,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>97128</v>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -2219,8 +2295,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F21" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2250,8 +2328,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M21" s="4" t="n">
-        <v>97128</v>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2306,8 +2386,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F22" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2337,8 +2419,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M22" s="4" t="n">
-        <v>97128</v>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2393,8 +2477,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F23" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2424,8 +2510,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M23" s="4" t="n">
-        <v>97128</v>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2480,8 +2568,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F24" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2511,8 +2601,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M24" s="4" t="n">
-        <v>97128</v>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2567,8 +2659,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F25" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2598,8 +2692,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M25" s="4" t="n">
-        <v>97128</v>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2654,8 +2750,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F26" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2685,8 +2783,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M26" s="4" t="n">
-        <v>97128</v>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2741,8 +2841,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F27" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2772,8 +2874,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M27" s="4" t="n">
-        <v>97128</v>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2828,8 +2932,10 @@
           <t>AUCR770225HYNGNM08</t>
         </is>
       </c>
-      <c r="F28" s="4" t="n">
-        <v>9999238686</v>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>'9999238686</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2859,8 +2965,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M28" s="4" t="n">
-        <v>97128</v>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2916,8 +3024,10 @@
           <t>CAPM841222HSLHLN09</t>
         </is>
       </c>
-      <c r="F29" s="4" t="n">
-        <v>9992771732</v>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>'9992771732</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2947,8 +3057,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M29" s="4" t="n">
-        <v>97960</v>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>'97960</t>
+        </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -3003,8 +3115,10 @@
           <t>CAPM841222HSLHLN09</t>
         </is>
       </c>
-      <c r="F30" s="4" t="n">
-        <v>9992771732</v>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>'9992771732</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3034,8 +3148,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M30" s="4" t="n">
-        <v>97960</v>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>'97960</t>
+        </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -3090,8 +3206,10 @@
           <t>CAPM841222HSLHLN09</t>
         </is>
       </c>
-      <c r="F31" s="4" t="n">
-        <v>9992771732</v>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>'9992771732</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3121,8 +3239,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M31" s="4" t="n">
-        <v>97960</v>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>'97960</t>
+        </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -3177,8 +3297,10 @@
           <t>CAPM841222HSLHLN09</t>
         </is>
       </c>
-      <c r="F32" s="4" t="n">
-        <v>9992771732</v>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>'9992771732</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3208,8 +3330,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M32" s="4" t="n">
-        <v>97960</v>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>'97960</t>
+        </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -3264,8 +3388,10 @@
           <t>CAPM841222HSLHLN09</t>
         </is>
       </c>
-      <c r="F33" s="4" t="n">
-        <v>9992771732</v>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>'9992771732</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3295,8 +3421,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M33" s="4" t="n">
-        <v>97960</v>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>'97960</t>
+        </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -3351,8 +3479,10 @@
           <t>MOTP610622HYNNRL09</t>
         </is>
       </c>
-      <c r="F34" s="4" t="n">
-        <v>9999810995</v>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>'9999810995</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3382,8 +3512,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M34" s="4" t="n">
-        <v>97200</v>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>'97200</t>
+        </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -3436,8 +3568,10 @@
           <t>MOTP610622HYNNRL09</t>
         </is>
       </c>
-      <c r="F35" s="4" t="n">
-        <v>9999810995</v>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>'9999810995</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3467,8 +3601,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M35" s="4" t="n">
-        <v>97200</v>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>'97200</t>
+        </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3521,8 +3657,10 @@
           <t>MOTP610622HYNNRL09</t>
         </is>
       </c>
-      <c r="F36" s="4" t="n">
-        <v>9999810995</v>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>'9999810995</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3552,8 +3690,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M36" s="4" t="n">
-        <v>97200</v>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>'97200</t>
+        </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3608,8 +3748,10 @@
           <t>MOTP610622HYNNRL09</t>
         </is>
       </c>
-      <c r="F37" s="4" t="n">
-        <v>9999810995</v>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>'9999810995</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3639,8 +3781,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M37" s="4" t="n">
-        <v>97200</v>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>'97200</t>
+        </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3695,8 +3839,10 @@
           <t>MOTP610622HYNNRL09</t>
         </is>
       </c>
-      <c r="F38" s="4" t="n">
-        <v>9999810995</v>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>'9999810995</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3726,8 +3872,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M38" s="4" t="n">
-        <v>97200</v>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>'97200</t>
+        </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3782,8 +3930,10 @@
           <t>MOTP610622HYNNRL09</t>
         </is>
       </c>
-      <c r="F39" s="4" t="n">
-        <v>9999810995</v>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>'9999810995</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3813,8 +3963,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M39" s="4" t="n">
-        <v>97200</v>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>'97200</t>
+        </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3869,8 +4021,10 @@
           <t>MOTP610622HYNNRL09</t>
         </is>
       </c>
-      <c r="F40" s="4" t="n">
-        <v>9999810995</v>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>'9999810995</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3900,8 +4054,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M40" s="4" t="n">
-        <v>97200</v>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>'97200</t>
+        </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3956,8 +4112,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F41" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3987,8 +4145,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M41" s="4" t="n">
-        <v>24115</v>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -4043,8 +4203,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F42" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4074,8 +4236,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M42" s="4" t="n">
-        <v>24115</v>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -4130,8 +4294,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F43" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4161,8 +4327,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M43" s="4" t="n">
-        <v>24115</v>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -4217,8 +4385,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F44" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4248,8 +4418,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M44" s="4" t="n">
-        <v>24115</v>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -4304,8 +4476,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F45" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4335,8 +4509,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M45" s="4" t="n">
-        <v>24115</v>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -4391,8 +4567,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F46" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4422,8 +4600,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M46" s="4" t="n">
-        <v>24115</v>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -4478,8 +4658,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F47" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4509,8 +4691,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M47" s="4" t="n">
-        <v>24115</v>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -4565,8 +4749,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F48" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4596,8 +4782,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M48" s="4" t="n">
-        <v>24115</v>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4652,8 +4840,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F49" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4683,8 +4873,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M49" s="4" t="n">
-        <v>24115</v>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4739,8 +4931,10 @@
           <t>HISR591125HCCNHG06</t>
         </is>
       </c>
-      <c r="F50" s="4" t="n">
-        <v>9381200721</v>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>'9381200721</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4770,8 +4964,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M50" s="4" t="n">
-        <v>24115</v>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>'24115</t>
+        </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4826,8 +5022,10 @@
           <t>JOLJ720624HYNRPN04</t>
         </is>
       </c>
-      <c r="F51" s="4" t="n">
-        <v>9999258499</v>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>'9999258499</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4857,8 +5055,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M51" s="4" t="n">
-        <v>97138</v>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4913,8 +5113,10 @@
           <t>JOLJ720624HYNRPN04</t>
         </is>
       </c>
-      <c r="F52" s="4" t="n">
-        <v>9999258499</v>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>'9999258499</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4944,8 +5146,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M52" s="4" t="n">
-        <v>97138</v>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -5000,8 +5204,10 @@
           <t>JOLJ720624HYNRPN04</t>
         </is>
       </c>
-      <c r="F53" s="4" t="n">
-        <v>9999258499</v>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>'9999258499</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5031,8 +5237,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M53" s="4" t="n">
-        <v>97138</v>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -5087,8 +5295,10 @@
           <t>JOLJ720624HYNRPN04</t>
         </is>
       </c>
-      <c r="F54" s="4" t="n">
-        <v>9999258499</v>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>'9999258499</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5118,8 +5328,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M54" s="4" t="n">
-        <v>97138</v>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -5174,8 +5386,10 @@
           <t>DAMJ690611HYNWDR03</t>
         </is>
       </c>
-      <c r="F55" s="4" t="n">
-        <v>9999005153</v>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>'9999005153</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5205,8 +5419,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M55" s="4" t="n">
-        <v>97143</v>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>'97143</t>
+        </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -5261,8 +5477,10 @@
           <t>DAMJ690611HYNWDR03</t>
         </is>
       </c>
-      <c r="F56" s="4" t="n">
-        <v>9999005153</v>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>'9999005153</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5292,8 +5510,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M56" s="4" t="n">
-        <v>97143</v>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>'97143</t>
+        </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -5348,8 +5568,10 @@
           <t>DAMJ690611HYNWDR03</t>
         </is>
       </c>
-      <c r="F57" s="4" t="n">
-        <v>9999005153</v>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>'9999005153</t>
+        </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5379,8 +5601,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M57" s="4" t="n">
-        <v>97143</v>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>'97143</t>
+        </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -5435,8 +5659,10 @@
           <t>DAMJ690611HYNWDR03</t>
         </is>
       </c>
-      <c r="F58" s="4" t="n">
-        <v>9999005153</v>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>'9999005153</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5466,8 +5692,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M58" s="4" t="n">
-        <v>97143</v>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>'97143</t>
+        </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -5522,8 +5750,10 @@
           <t>DAMJ690611HYNWDR03</t>
         </is>
       </c>
-      <c r="F59" s="4" t="n">
-        <v>9999005153</v>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>'9999005153</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5553,8 +5783,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M59" s="4" t="n">
-        <v>97143</v>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>'97143</t>
+        </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -5609,8 +5841,10 @@
           <t>DAMJ690611HYNWDR03</t>
         </is>
       </c>
-      <c r="F60" s="4" t="n">
-        <v>9999005153</v>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>'9999005153</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5640,8 +5874,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M60" s="4" t="n">
-        <v>97143</v>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>'97143</t>
+        </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -5696,8 +5932,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F61" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5727,8 +5965,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M61" s="4" t="n">
-        <v>97308</v>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5783,8 +6023,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F62" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5814,8 +6056,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M62" s="4" t="n">
-        <v>97308</v>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -5870,8 +6114,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F63" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5901,8 +6147,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M63" s="4" t="n">
-        <v>97308</v>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -5957,8 +6205,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F64" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5988,8 +6238,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M64" s="4" t="n">
-        <v>97308</v>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -6044,8 +6296,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F65" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -6075,8 +6329,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M65" s="4" t="n">
-        <v>97308</v>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -6131,8 +6387,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F66" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -6162,8 +6420,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M66" s="4" t="n">
-        <v>97308</v>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -6218,8 +6478,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F67" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -6249,8 +6511,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M67" s="4" t="n">
-        <v>97308</v>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -6305,8 +6569,10 @@
           <t>SAGS611114HDFNRR05</t>
         </is>
       </c>
-      <c r="F68" s="4" t="n">
-        <v>5554388308</v>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>'5554388308</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -6336,8 +6602,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M68" s="4" t="n">
-        <v>97308</v>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>'97308</t>
+        </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -6392,8 +6660,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F69" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -6423,8 +6693,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M69" s="4" t="n">
-        <v>5120</v>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -6479,8 +6751,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F70" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -6510,8 +6784,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M70" s="4" t="n">
-        <v>5120</v>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -6566,8 +6842,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F71" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -6597,8 +6875,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M71" s="4" t="n">
-        <v>5120</v>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -6653,8 +6933,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F72" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6684,8 +6966,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M72" s="4" t="n">
-        <v>5120</v>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -6740,8 +7024,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F73" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -6771,8 +7057,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M73" s="4" t="n">
-        <v>5120</v>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -6827,8 +7115,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F74" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -6858,8 +7148,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M74" s="4" t="n">
-        <v>5120</v>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -6914,8 +7206,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F75" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -6945,8 +7239,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M75" s="4" t="n">
-        <v>5120</v>
+      <c r="M75" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -7001,8 +7297,10 @@
           <t>CAFC660725HDFNRL03</t>
         </is>
       </c>
-      <c r="F76" s="4" t="n">
-        <v>5554536965</v>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>'5554536965</t>
+        </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -7032,8 +7330,10 @@
           <t>MÉXICO CDMX</t>
         </is>
       </c>
-      <c r="M76" s="4" t="n">
-        <v>5120</v>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>'5120</t>
+        </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -7088,8 +7388,10 @@
           <t>RIPA800807HYNVNL07</t>
         </is>
       </c>
-      <c r="F77" s="4" t="n">
-        <v>9997720959</v>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t>'9997720959</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -7119,8 +7421,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M77" s="4" t="n">
-        <v>97780</v>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>'97780</t>
+        </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -7175,8 +7479,10 @@
           <t>RIPA800807HYNVNL07</t>
         </is>
       </c>
-      <c r="F78" s="4" t="n">
-        <v>9997720959</v>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>'9997720959</t>
+        </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -7206,8 +7512,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M78" s="4" t="n">
-        <v>97780</v>
+      <c r="M78" s="4" t="inlineStr">
+        <is>
+          <t>'97780</t>
+        </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -7262,8 +7570,10 @@
           <t>RIPA800807HYNVNL07</t>
         </is>
       </c>
-      <c r="F79" s="4" t="n">
-        <v>9997720959</v>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>'9997720959</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -7293,8 +7603,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M79" s="4" t="n">
-        <v>97780</v>
+      <c r="M79" s="4" t="inlineStr">
+        <is>
+          <t>'97780</t>
+        </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -7349,8 +7661,10 @@
           <t>RIPA800807HYNVNL07</t>
         </is>
       </c>
-      <c r="F80" s="4" t="n">
-        <v>9997720959</v>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>'9997720959</t>
+        </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -7380,8 +7694,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M80" s="4" t="n">
-        <v>97780</v>
+      <c r="M80" s="4" t="inlineStr">
+        <is>
+          <t>'97780</t>
+        </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -7436,8 +7752,10 @@
           <t>TULV760925HYNRCC04</t>
         </is>
       </c>
-      <c r="F81" s="4" t="n">
-        <v>9999600269</v>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>'9999600269</t>
+        </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -7467,8 +7785,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M81" s="4" t="n">
-        <v>97130</v>
+      <c r="M81" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -7523,8 +7843,10 @@
           <t>TULV760925HYNRCC04</t>
         </is>
       </c>
-      <c r="F82" s="4" t="n">
-        <v>9999600269</v>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>'9999600269</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -7554,8 +7876,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M82" s="4" t="n">
-        <v>97130</v>
+      <c r="M82" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -7610,8 +7934,10 @@
           <t>TULV760925HYNRCC04</t>
         </is>
       </c>
-      <c r="F83" s="4" t="n">
-        <v>9999600269</v>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>'9999600269</t>
+        </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -7641,8 +7967,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M83" s="4" t="n">
-        <v>97130</v>
+      <c r="M83" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -7697,8 +8025,10 @@
           <t>MOEE870627HYNNSD04</t>
         </is>
       </c>
-      <c r="F84" s="4" t="n">
-        <v>9993349575</v>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>'9993349575</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -7728,8 +8058,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M84" s="4" t="n">
-        <v>97210</v>
+      <c r="M84" s="4" t="inlineStr">
+        <is>
+          <t>'97210</t>
+        </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -7784,8 +8116,10 @@
           <t>MOEE870627HYNNSD04</t>
         </is>
       </c>
-      <c r="F85" s="4" t="n">
-        <v>9993349575</v>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>'9993349575</t>
+        </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -7815,8 +8149,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M85" s="4" t="n">
-        <v>97210</v>
+      <c r="M85" s="4" t="inlineStr">
+        <is>
+          <t>'97210</t>
+        </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -7871,8 +8207,10 @@
           <t>MOEE870627HYNNSD04</t>
         </is>
       </c>
-      <c r="F86" s="4" t="n">
-        <v>9993349575</v>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>'9993349575</t>
+        </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -7902,8 +8240,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M86" s="4" t="n">
-        <v>97210</v>
+      <c r="M86" s="4" t="inlineStr">
+        <is>
+          <t>'97210</t>
+        </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -7958,8 +8298,10 @@
           <t>MOEE870627HYNNSD04</t>
         </is>
       </c>
-      <c r="F87" s="4" t="n">
-        <v>9993349575</v>
+      <c r="F87" s="4" t="inlineStr">
+        <is>
+          <t>'9993349575</t>
+        </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -7989,8 +8331,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M87" s="4" t="n">
-        <v>97210</v>
+      <c r="M87" s="4" t="inlineStr">
+        <is>
+          <t>'97210</t>
+        </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -8045,8 +8389,10 @@
           <t>MOEE870627HYNNSD04</t>
         </is>
       </c>
-      <c r="F88" s="4" t="n">
-        <v>9993349575</v>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>'9993349575</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -8076,8 +8422,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M88" s="4" t="n">
-        <v>97210</v>
+      <c r="M88" s="4" t="inlineStr">
+        <is>
+          <t>'97210</t>
+        </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -8132,8 +8480,10 @@
           <t>BIGJ760724HYNRNN06</t>
         </is>
       </c>
-      <c r="F89" s="4" t="n">
-        <v>9991637860</v>
+      <c r="F89" s="4" t="inlineStr">
+        <is>
+          <t>'9991637860</t>
+        </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -8163,8 +8513,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M89" s="4" t="n">
-        <v>97134</v>
+      <c r="M89" s="4" t="inlineStr">
+        <is>
+          <t>'97134</t>
+        </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -8219,8 +8571,10 @@
           <t>BIGJ760724HYNRNN06</t>
         </is>
       </c>
-      <c r="F90" s="4" t="n">
-        <v>9991637860</v>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>'9991637860</t>
+        </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -8250,8 +8604,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M90" s="4" t="n">
-        <v>97134</v>
+      <c r="M90" s="4" t="inlineStr">
+        <is>
+          <t>'97134</t>
+        </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -8306,8 +8662,10 @@
           <t>BIGJ760724HYNRNN06</t>
         </is>
       </c>
-      <c r="F91" s="4" t="n">
-        <v>9991637860</v>
+      <c r="F91" s="4" t="inlineStr">
+        <is>
+          <t>'9991637860</t>
+        </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -8337,8 +8695,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M91" s="4" t="n">
-        <v>97134</v>
+      <c r="M91" s="4" t="inlineStr">
+        <is>
+          <t>'97134</t>
+        </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -8393,8 +8753,10 @@
           <t>BIGJ760724HYNRNN06</t>
         </is>
       </c>
-      <c r="F92" s="4" t="n">
-        <v>9991637860</v>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>'9991637860</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -8424,8 +8786,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M92" s="4" t="n">
-        <v>97134</v>
+      <c r="M92" s="4" t="inlineStr">
+        <is>
+          <t>'97134</t>
+        </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -8480,8 +8844,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F93" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F93" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -8511,8 +8877,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M93" s="4" t="n">
-        <v>97215</v>
+      <c r="M93" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -8567,8 +8935,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F94" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -8598,8 +8968,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M94" s="4" t="n">
-        <v>97215</v>
+      <c r="M94" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -8654,8 +9026,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F95" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F95" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -8685,8 +9059,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M95" s="4" t="n">
-        <v>97215</v>
+      <c r="M95" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -8741,8 +9117,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F96" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -8772,8 +9150,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M96" s="4" t="n">
-        <v>97215</v>
+      <c r="M96" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -8828,8 +9208,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F97" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -8859,8 +9241,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M97" s="4" t="n">
-        <v>97215</v>
+      <c r="M97" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -8915,8 +9299,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F98" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -8946,8 +9332,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M98" s="4" t="n">
-        <v>97215</v>
+      <c r="M98" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -9002,8 +9390,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F99" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F99" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -9033,8 +9423,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M99" s="4" t="n">
-        <v>97215</v>
+      <c r="M99" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -9089,8 +9481,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F100" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -9120,8 +9514,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M100" s="4" t="n">
-        <v>97215</v>
+      <c r="M100" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -9176,8 +9572,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F101" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F101" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -9207,8 +9605,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M101" s="4" t="n">
-        <v>97215</v>
+      <c r="M101" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -9263,8 +9663,10 @@
           <t>GAPC790619HYNRRR09</t>
         </is>
       </c>
-      <c r="F102" s="4" t="n">
-        <v>9999431556</v>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>'9999431556</t>
+        </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -9294,8 +9696,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M102" s="4" t="n">
-        <v>97215</v>
+      <c r="M102" s="4" t="inlineStr">
+        <is>
+          <t>'97215</t>
+        </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -9350,8 +9754,10 @@
           <t>MABR671122HYNDHB07</t>
         </is>
       </c>
-      <c r="F103" s="4" t="n">
-        <v>9999473478</v>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>'9999473478</t>
+        </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -9381,8 +9787,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M103" s="4" t="n">
-        <v>97133</v>
+      <c r="M103" s="4" t="inlineStr">
+        <is>
+          <t>'97133</t>
+        </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -9437,8 +9845,10 @@
           <t>MABR671122HYNDHB07</t>
         </is>
       </c>
-      <c r="F104" s="4" t="n">
-        <v>9999473478</v>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>'9999473478</t>
+        </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -9468,8 +9878,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M104" s="4" t="n">
-        <v>97133</v>
+      <c r="M104" s="4" t="inlineStr">
+        <is>
+          <t>'97133</t>
+        </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -9524,8 +9936,10 @@
           <t>MAHH810329HYNRRG09</t>
         </is>
       </c>
-      <c r="F105" s="4" t="n">
-        <v>9961006288</v>
+      <c r="F105" s="4" t="inlineStr">
+        <is>
+          <t>'9961006288</t>
+        </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -9555,8 +9969,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M105" s="4" t="n">
-        <v>24800</v>
+      <c r="M105" s="4" t="inlineStr">
+        <is>
+          <t>'24800</t>
+        </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -9609,8 +10025,10 @@
           <t>MAHH810329HYNRRG09</t>
         </is>
       </c>
-      <c r="F106" s="4" t="n">
-        <v>9961006288</v>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>'9961006288</t>
+        </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -9640,8 +10058,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M106" s="4" t="n">
-        <v>24800</v>
+      <c r="M106" s="4" t="inlineStr">
+        <is>
+          <t>'24800</t>
+        </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -9694,8 +10114,10 @@
           <t>MAHH810329HYNRRG09</t>
         </is>
       </c>
-      <c r="F107" s="4" t="n">
-        <v>9961006288</v>
+      <c r="F107" s="4" t="inlineStr">
+        <is>
+          <t>'9961006288</t>
+        </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -9725,8 +10147,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M107" s="4" t="n">
-        <v>24800</v>
+      <c r="M107" s="4" t="inlineStr">
+        <is>
+          <t>'24800</t>
+        </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -9779,8 +10203,10 @@
           <t>MAHH810329HYNRRG09</t>
         </is>
       </c>
-      <c r="F108" s="4" t="n">
-        <v>9961006288</v>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>'9961006288</t>
+        </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -9810,8 +10236,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M108" s="4" t="n">
-        <v>24800</v>
+      <c r="M108" s="4" t="inlineStr">
+        <is>
+          <t>'24800</t>
+        </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -9866,8 +10294,10 @@
           <t>BAAH530514HCCRKP07</t>
         </is>
       </c>
-      <c r="F109" s="4" t="n">
-        <v>9818296516</v>
+      <c r="F109" s="4" t="inlineStr">
+        <is>
+          <t>'9818296516</t>
+        </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -9897,8 +10327,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M109" s="4" t="n">
-        <v>24085</v>
+      <c r="M109" s="4" t="inlineStr">
+        <is>
+          <t>'24085</t>
+        </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -9949,8 +10381,10 @@
           <t>BAAH530514HCCRKP07</t>
         </is>
       </c>
-      <c r="F110" s="4" t="n">
-        <v>9818296516</v>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>'9818296516</t>
+        </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -9980,8 +10414,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M110" s="4" t="n">
-        <v>24085</v>
+      <c r="M110" s="4" t="inlineStr">
+        <is>
+          <t>'24085</t>
+        </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -10034,8 +10470,10 @@
           <t>BAAH530514HCCRKP07</t>
         </is>
       </c>
-      <c r="F111" s="4" t="n">
-        <v>9818296516</v>
+      <c r="F111" s="4" t="inlineStr">
+        <is>
+          <t>'9818296516</t>
+        </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -10065,8 +10503,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M111" s="4" t="n">
-        <v>24085</v>
+      <c r="M111" s="4" t="inlineStr">
+        <is>
+          <t>'24085</t>
+        </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -10119,8 +10559,10 @@
           <t>BAAH530514HCCRKP07</t>
         </is>
       </c>
-      <c r="F112" s="4" t="n">
-        <v>9818296516</v>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>'9818296516</t>
+        </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -10150,8 +10592,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M112" s="4" t="n">
-        <v>24085</v>
+      <c r="M112" s="4" t="inlineStr">
+        <is>
+          <t>'24085</t>
+        </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -10206,8 +10650,10 @@
           <t>BAAH530514HCCRKP07</t>
         </is>
       </c>
-      <c r="F113" s="4" t="n">
-        <v>9818296516</v>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>'9818296516</t>
+        </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -10237,8 +10683,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M113" s="4" t="n">
-        <v>24085</v>
+      <c r="M113" s="4" t="inlineStr">
+        <is>
+          <t>'24085</t>
+        </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -10291,8 +10739,10 @@
           <t>BAAH530514HCCRKP07</t>
         </is>
       </c>
-      <c r="F114" s="4" t="n">
-        <v>9818296516</v>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>'9818296516</t>
+        </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -10322,8 +10772,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M114" s="4" t="n">
-        <v>24085</v>
+      <c r="M114" s="4" t="inlineStr">
+        <is>
+          <t>'24085</t>
+        </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -10378,8 +10830,10 @@
           <t>GAGA590307HYNRML03</t>
         </is>
       </c>
-      <c r="F115" s="4" t="n">
-        <v>9999001272</v>
+      <c r="F115" s="4" t="inlineStr">
+        <is>
+          <t>'9999001272</t>
+        </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -10409,8 +10863,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M115" s="4" t="n">
-        <v>97000</v>
+      <c r="M115" s="4" t="inlineStr">
+        <is>
+          <t>'97000</t>
+        </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -10465,8 +10921,10 @@
           <t>GAGA590307HYNRML03</t>
         </is>
       </c>
-      <c r="F116" s="4" t="n">
-        <v>9999001272</v>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>'9999001272</t>
+        </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -10496,8 +10954,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M116" s="4" t="n">
-        <v>97000</v>
+      <c r="M116" s="4" t="inlineStr">
+        <is>
+          <t>'97000</t>
+        </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -10552,8 +11012,10 @@
           <t>GAGA590307HYNRML03</t>
         </is>
       </c>
-      <c r="F117" s="4" t="n">
-        <v>9999001272</v>
+      <c r="F117" s="4" t="inlineStr">
+        <is>
+          <t>'9999001272</t>
+        </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -10583,8 +11045,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M117" s="4" t="n">
-        <v>97000</v>
+      <c r="M117" s="4" t="inlineStr">
+        <is>
+          <t>'97000</t>
+        </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -10639,8 +11103,10 @@
           <t>GAGA590307HYNRML03</t>
         </is>
       </c>
-      <c r="F118" s="4" t="n">
-        <v>9999001272</v>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>'9999001272</t>
+        </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -10670,8 +11136,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M118" s="4" t="n">
-        <v>97000</v>
+      <c r="M118" s="4" t="inlineStr">
+        <is>
+          <t>'97000</t>
+        </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -10726,8 +11194,10 @@
           <t>GAGA590307HYNRML03</t>
         </is>
       </c>
-      <c r="F119" s="4" t="n">
-        <v>9999001272</v>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>'9999001272</t>
+        </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -10757,8 +11227,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M119" s="4" t="n">
-        <v>97000</v>
+      <c r="M119" s="4" t="inlineStr">
+        <is>
+          <t>'97000</t>
+        </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -10813,8 +11285,10 @@
           <t>MUMS640728HDFXDR02</t>
         </is>
       </c>
-      <c r="F120" s="4" t="n">
-        <v>9992005550</v>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>'9992005550</t>
+        </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -10844,8 +11318,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M120" s="4" t="n">
-        <v>97130</v>
+      <c r="M120" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -10900,8 +11376,10 @@
           <t>MUMS640728HDFXDR02</t>
         </is>
       </c>
-      <c r="F121" s="4" t="n">
-        <v>9992005550</v>
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>'9992005550</t>
+        </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -10931,8 +11409,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M121" s="4" t="n">
-        <v>97130</v>
+      <c r="M121" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -10987,8 +11467,10 @@
           <t>MUMS640728HDFXDR02</t>
         </is>
       </c>
-      <c r="F122" s="4" t="n">
-        <v>9992005550</v>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>'9992005550</t>
+        </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -11018,8 +11500,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M122" s="4" t="n">
-        <v>97130</v>
+      <c r="M122" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -11074,8 +11558,10 @@
           <t>MUMS640728HDFXDR02</t>
         </is>
       </c>
-      <c r="F123" s="4" t="n">
-        <v>9992005550</v>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>'9992005550</t>
+        </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -11105,8 +11591,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M123" s="4" t="n">
-        <v>97130</v>
+      <c r="M123" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -11161,8 +11649,10 @@
           <t>MUMS640728HDFXDR02</t>
         </is>
       </c>
-      <c r="F124" s="4" t="n">
-        <v>9992005550</v>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>'9992005550</t>
+        </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -11192,8 +11682,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M124" s="4" t="n">
-        <v>97130</v>
+      <c r="M124" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -11248,8 +11740,10 @@
           <t>MUMS640728HDFXDR02</t>
         </is>
       </c>
-      <c r="F125" s="4" t="n">
-        <v>9992005550</v>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>'9992005550</t>
+        </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -11279,8 +11773,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M125" s="4" t="n">
-        <v>97130</v>
+      <c r="M125" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -11335,8 +11831,10 @@
           <t>GOMA780511HYNMRL05</t>
         </is>
       </c>
-      <c r="F126" s="4" t="n">
-        <v>9999490494</v>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>'9999490494</t>
+        </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -11366,8 +11864,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M126" s="4" t="n">
-        <v>97117</v>
+      <c r="M126" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -11420,8 +11920,10 @@
           <t>GOMA780511HYNMRL05</t>
         </is>
       </c>
-      <c r="F127" s="4" t="n">
-        <v>9999490494</v>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>'9999490494</t>
+        </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -11451,8 +11953,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M127" s="4" t="n">
-        <v>97117</v>
+      <c r="M127" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -11507,8 +12011,10 @@
           <t>GOMA780511HYNMRL05</t>
         </is>
       </c>
-      <c r="F128" s="4" t="n">
-        <v>9999490494</v>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>'9999490494</t>
+        </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -11538,8 +12044,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M128" s="4" t="n">
-        <v>97117</v>
+      <c r="M128" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -11594,8 +12102,10 @@
           <t>GOMA780511HYNMRL05</t>
         </is>
       </c>
-      <c r="F129" s="4" t="n">
-        <v>9999490494</v>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>'9999490494</t>
+        </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -11625,8 +12135,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M129" s="4" t="n">
-        <v>97117</v>
+      <c r="M129" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -11679,8 +12191,10 @@
           <t>GOMA780511HYNMRL05</t>
         </is>
       </c>
-      <c r="F130" s="4" t="n">
-        <v>9999490494</v>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>'9999490494</t>
+        </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -11710,8 +12224,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M130" s="4" t="n">
-        <v>97117</v>
+      <c r="M130" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -11766,8 +12282,10 @@
           <t>GOMA780511HYNMRL05</t>
         </is>
       </c>
-      <c r="F131" s="4" t="n">
-        <v>9999490494</v>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>'9999490494</t>
+        </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -11797,8 +12315,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M131" s="4" t="n">
-        <v>97117</v>
+      <c r="M131" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -11853,8 +12373,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F132" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -11884,8 +12406,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M132" s="4" t="n">
-        <v>97128</v>
+      <c r="M132" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -11940,8 +12464,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F133" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F133" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -11971,8 +12497,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M133" s="4" t="n">
-        <v>97128</v>
+      <c r="M133" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -12027,8 +12555,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F134" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -12058,8 +12588,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M134" s="4" t="n">
-        <v>97128</v>
+      <c r="M134" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -12112,8 +12644,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F135" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F135" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -12143,8 +12677,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M135" s="4" t="n">
-        <v>97128</v>
+      <c r="M135" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -12199,8 +12735,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F136" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -12230,8 +12768,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M136" s="4" t="n">
-        <v>97128</v>
+      <c r="M136" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -12286,8 +12826,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F137" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F137" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -12317,8 +12859,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M137" s="4" t="n">
-        <v>97128</v>
+      <c r="M137" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -12373,8 +12917,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F138" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -12404,8 +12950,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M138" s="4" t="n">
-        <v>97128</v>
+      <c r="M138" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -12458,8 +13006,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F139" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F139" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -12489,8 +13039,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M139" s="4" t="n">
-        <v>97128</v>
+      <c r="M139" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -12543,8 +13095,10 @@
           <t>RUPJ920129HYNZRV07</t>
         </is>
       </c>
-      <c r="F140" s="4" t="n">
-        <v>9992429052</v>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>'9992429052</t>
+        </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -12574,8 +13128,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M140" s="4" t="n">
-        <v>97128</v>
+      <c r="M140" s="4" t="inlineStr">
+        <is>
+          <t>'97128</t>
+        </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -12628,8 +13184,10 @@
           <t>TIBH730728HQRHRN08</t>
         </is>
       </c>
-      <c r="F141" s="4" t="n">
-        <v>9999415052</v>
+      <c r="F141" s="4" t="inlineStr">
+        <is>
+          <t>'9999415052</t>
+        </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -12659,8 +13217,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M141" s="4" t="n">
-        <v>97119</v>
+      <c r="M141" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -12713,8 +13273,10 @@
           <t>TIBH730728HQRHRN08</t>
         </is>
       </c>
-      <c r="F142" s="4" t="n">
-        <v>9999415052</v>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>'9999415052</t>
+        </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -12744,8 +13306,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M142" s="4" t="n">
-        <v>97119</v>
+      <c r="M142" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -12798,8 +13362,10 @@
           <t>TIBH730728HQRHRN08</t>
         </is>
       </c>
-      <c r="F143" s="4" t="n">
-        <v>9999415052</v>
+      <c r="F143" s="4" t="inlineStr">
+        <is>
+          <t>'9999415052</t>
+        </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -12829,8 +13395,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M143" s="4" t="n">
-        <v>97119</v>
+      <c r="M143" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -12885,8 +13453,10 @@
           <t>TIBH730728HQRHRN08</t>
         </is>
       </c>
-      <c r="F144" s="4" t="n">
-        <v>9999415052</v>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>'9999415052</t>
+        </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -12916,8 +13486,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M144" s="4" t="n">
-        <v>97119</v>
+      <c r="M144" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -12972,8 +13544,10 @@
           <t>TIBH730728HQRHRN08</t>
         </is>
       </c>
-      <c r="F145" s="4" t="n">
-        <v>9999415052</v>
+      <c r="F145" s="4" t="inlineStr">
+        <is>
+          <t>'9999415052</t>
+        </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -13003,8 +13577,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M145" s="4" t="n">
-        <v>97119</v>
+      <c r="M145" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -13059,8 +13635,10 @@
           <t>TIBH730728HQRHRN08</t>
         </is>
       </c>
-      <c r="F146" s="4" t="n">
-        <v>9999415052</v>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>'9999415052</t>
+        </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -13090,8 +13668,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M146" s="4" t="n">
-        <v>97119</v>
+      <c r="M146" s="4" t="inlineStr">
+        <is>
+          <t>'97119</t>
+        </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -13146,8 +13726,10 @@
           <t>SOMD831110HTSCRV04</t>
         </is>
       </c>
-      <c r="F147" s="4" t="n">
-        <v>9999494819</v>
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>'9999494819</t>
+        </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -13177,8 +13759,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M147" s="4" t="n">
-        <v>97118</v>
+      <c r="M147" s="4" t="inlineStr">
+        <is>
+          <t>'97118</t>
+        </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -13229,8 +13813,10 @@
           <t>HECG720131HYNRRL06</t>
         </is>
       </c>
-      <c r="F148" s="4" t="n">
-        <v>9992389961</v>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>'9992389961</t>
+        </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -13260,8 +13846,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M148" s="4" t="n">
-        <v>97196</v>
+      <c r="M148" s="4" t="inlineStr">
+        <is>
+          <t>'97196</t>
+        </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -13316,8 +13904,10 @@
           <t>GAVE680401HTSLZZ02</t>
         </is>
       </c>
-      <c r="F149" s="4" t="n">
-        <v>9991335899</v>
+      <c r="F149" s="4" t="inlineStr">
+        <is>
+          <t>'9991335899</t>
+        </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -13347,8 +13937,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M149" s="4" t="n">
-        <v>97219</v>
+      <c r="M149" s="4" t="inlineStr">
+        <is>
+          <t>'97219</t>
+        </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -13405,7 +13997,7 @@
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>529992780476</t>
+          <t>'529992780476</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -13436,8 +14028,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M150" s="4" t="n">
-        <v>24330</v>
+      <c r="M150" s="4" t="inlineStr">
+        <is>
+          <t>'24330</t>
+        </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -13492,7 +14086,7 @@
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>529992780476</t>
+          <t>'529992780476</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -13523,8 +14117,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M151" s="4" t="n">
-        <v>24330</v>
+      <c r="M151" s="4" t="inlineStr">
+        <is>
+          <t>'24330</t>
+        </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -13581,7 +14177,7 @@
       </c>
       <c r="F152" s="4" t="inlineStr">
         <is>
-          <t>529992780476</t>
+          <t>'529992780476</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -13612,8 +14208,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M152" s="4" t="n">
-        <v>24330</v>
+      <c r="M152" s="4" t="inlineStr">
+        <is>
+          <t>'24330</t>
+        </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -13670,7 +14268,7 @@
       </c>
       <c r="F153" s="4" t="inlineStr">
         <is>
-          <t>529992780476</t>
+          <t>'529992780476</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -13701,8 +14299,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M153" s="4" t="n">
-        <v>24330</v>
+      <c r="M153" s="4" t="inlineStr">
+        <is>
+          <t>'24330</t>
+        </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -13755,8 +14355,10 @@
           <t>RIPR580721HYNVLF06</t>
         </is>
       </c>
-      <c r="F154" s="4" t="n">
-        <v>9999477501</v>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>'9999477501</t>
+        </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -13786,8 +14388,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M154" s="4" t="n">
-        <v>97130</v>
+      <c r="M154" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -13842,8 +14446,10 @@
           <t>RIPR580721HYNVLF06</t>
         </is>
       </c>
-      <c r="F155" s="4" t="n">
-        <v>9999477501</v>
+      <c r="F155" s="4" t="inlineStr">
+        <is>
+          <t>'9999477501</t>
+        </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -13873,8 +14479,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M155" s="4" t="n">
-        <v>97130</v>
+      <c r="M155" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -13929,8 +14537,10 @@
           <t>RIPR580721HYNVLF06</t>
         </is>
       </c>
-      <c r="F156" s="4" t="n">
-        <v>9999477501</v>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>'9999477501</t>
+        </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -13960,8 +14570,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M156" s="4" t="n">
-        <v>97130</v>
+      <c r="M156" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -14014,8 +14626,10 @@
           <t>RIPR580721HYNVLF06</t>
         </is>
       </c>
-      <c r="F157" s="4" t="n">
-        <v>9999477501</v>
+      <c r="F157" s="4" t="inlineStr">
+        <is>
+          <t>'9999477501</t>
+        </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -14045,8 +14659,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M157" s="4" t="n">
-        <v>97130</v>
+      <c r="M157" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -14101,8 +14717,10 @@
           <t>PIVA591215MDFNLL09</t>
         </is>
       </c>
-      <c r="F158" s="4" t="n">
-        <v>9999479199</v>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>'9999479199</t>
+        </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -14132,8 +14750,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M158" s="4" t="n">
-        <v>97130</v>
+      <c r="M158" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -14188,8 +14808,10 @@
           <t>SACA740719HDFNBN03</t>
         </is>
       </c>
-      <c r="F159" s="4" t="n">
-        <v>9992243874</v>
+      <c r="F159" s="4" t="inlineStr">
+        <is>
+          <t>'9992243874</t>
+        </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -14219,8 +14841,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M159" s="4" t="n">
-        <v>97138</v>
+      <c r="M159" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -14273,8 +14897,10 @@
           <t>SACM001023HYNNRRA7</t>
         </is>
       </c>
-      <c r="F160" s="4" t="n">
-        <v>9992978103</v>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>'9992978103</t>
+        </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -14304,8 +14930,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M160" s="4" t="n">
-        <v>97138</v>
+      <c r="M160" s="4" t="inlineStr">
+        <is>
+          <t>'97138</t>
+        </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -14358,8 +14986,10 @@
           <t>XACR701106HYNCVH07</t>
         </is>
       </c>
-      <c r="F161" s="4" t="n">
-        <v>9999477957</v>
+      <c r="F161" s="4" t="inlineStr">
+        <is>
+          <t>'9999477957</t>
+        </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -14389,8 +15019,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M161" s="4" t="n">
-        <v>97300</v>
+      <c r="M161" s="4" t="inlineStr">
+        <is>
+          <t>'97300</t>
+        </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -14445,8 +15077,10 @@
           <t>MAOJ741116HYNXRN02</t>
         </is>
       </c>
-      <c r="F162" s="4" t="n">
-        <v>9991229424</v>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>'9991229424</t>
+        </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -14476,8 +15110,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M162" s="4" t="n">
-        <v>97135</v>
+      <c r="M162" s="4" t="inlineStr">
+        <is>
+          <t>'97135</t>
+        </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -14532,8 +15168,10 @@
           <t>MAOJ741116HYNXRN02</t>
         </is>
       </c>
-      <c r="F163" s="4" t="n">
-        <v>9991229424</v>
+      <c r="F163" s="4" t="inlineStr">
+        <is>
+          <t>'9991229424</t>
+        </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -14563,8 +15201,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M163" s="4" t="n">
-        <v>97135</v>
+      <c r="M163" s="4" t="inlineStr">
+        <is>
+          <t>'97135</t>
+        </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -14619,8 +15259,10 @@
           <t>MAOJ741116HYNXRN02</t>
         </is>
       </c>
-      <c r="F164" s="4" t="n">
-        <v>9991229424</v>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>'9991229424</t>
+        </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -14650,8 +15292,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M164" s="4" t="n">
-        <v>97135</v>
+      <c r="M164" s="4" t="inlineStr">
+        <is>
+          <t>'97135</t>
+        </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -14706,8 +15350,10 @@
           <t>MAOJ741116HYNXRN02</t>
         </is>
       </c>
-      <c r="F165" s="4" t="n">
-        <v>9991229424</v>
+      <c r="F165" s="4" t="inlineStr">
+        <is>
+          <t>'9991229424</t>
+        </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -14737,8 +15383,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M165" s="4" t="n">
-        <v>97135</v>
+      <c r="M165" s="4" t="inlineStr">
+        <is>
+          <t>'97135</t>
+        </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -14793,8 +15441,10 @@
           <t>MAOJ741116HYNXRN02</t>
         </is>
       </c>
-      <c r="F166" s="4" t="n">
-        <v>9991229424</v>
+      <c r="F166" s="4" t="inlineStr">
+        <is>
+          <t>'9991229424</t>
+        </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -14824,8 +15474,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M166" s="4" t="n">
-        <v>97135</v>
+      <c r="M166" s="4" t="inlineStr">
+        <is>
+          <t>'97135</t>
+        </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -14880,8 +15532,10 @@
           <t>MAOJ741116HYNXRN02</t>
         </is>
       </c>
-      <c r="F167" s="4" t="n">
-        <v>9991229424</v>
+      <c r="F167" s="4" t="inlineStr">
+        <is>
+          <t>'9991229424</t>
+        </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -14911,8 +15565,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M167" s="4" t="n">
-        <v>97135</v>
+      <c r="M167" s="4" t="inlineStr">
+        <is>
+          <t>'97135</t>
+        </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -14967,8 +15623,10 @@
           <t>MAOJ741116HYNXRN02</t>
         </is>
       </c>
-      <c r="F168" s="4" t="n">
-        <v>9991229424</v>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>'9991229424</t>
+        </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -14998,8 +15656,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M168" s="4" t="n">
-        <v>97135</v>
+      <c r="M168" s="4" t="inlineStr">
+        <is>
+          <t>'97135</t>
+        </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -15054,8 +15714,10 @@
           <t>SAFC680731HDFNRL07</t>
         </is>
       </c>
-      <c r="F169" s="4" t="n">
-        <v>9992403110</v>
+      <c r="F169" s="4" t="inlineStr">
+        <is>
+          <t>'9992403110</t>
+        </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -15085,8 +15747,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M169" s="4" t="n">
-        <v>97305</v>
+      <c r="M169" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -15141,8 +15805,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F170" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -15172,8 +15838,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M170" s="4" t="n">
-        <v>97140</v>
+      <c r="M170" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -15228,8 +15896,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F171" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F171" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -15259,8 +15929,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M171" s="4" t="n">
-        <v>97140</v>
+      <c r="M171" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -15313,8 +15985,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F172" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F172" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -15344,8 +16018,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M172" s="4" t="n">
-        <v>97140</v>
+      <c r="M172" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -15400,8 +16076,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F173" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F173" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -15431,8 +16109,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M173" s="4" t="n">
-        <v>97140</v>
+      <c r="M173" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -15487,8 +16167,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F174" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -15518,8 +16200,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M174" s="4" t="n">
-        <v>97140</v>
+      <c r="M174" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -15574,8 +16258,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F175" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F175" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -15605,8 +16291,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M175" s="4" t="n">
-        <v>97140</v>
+      <c r="M175" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -15661,8 +16349,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F176" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -15692,8 +16382,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M176" s="4" t="n">
-        <v>97140</v>
+      <c r="M176" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -15748,8 +16440,10 @@
           <t>DEHE890423HDFNRD03</t>
         </is>
       </c>
-      <c r="F177" s="4" t="n">
-        <v>5520869685</v>
+      <c r="F177" s="4" t="inlineStr">
+        <is>
+          <t>'5520869685</t>
+        </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -15779,8 +16473,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M177" s="4" t="n">
-        <v>97140</v>
+      <c r="M177" s="4" t="inlineStr">
+        <is>
+          <t>'97140</t>
+        </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -15833,8 +16529,10 @@
           <t>AAME760820HYNRND04</t>
         </is>
       </c>
-      <c r="F178" s="4" t="n">
-        <v>9991276042</v>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>'9991276042</t>
+        </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -15864,8 +16562,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M178" s="4" t="n">
-        <v>97177</v>
+      <c r="M178" s="4" t="inlineStr">
+        <is>
+          <t>'97177</t>
+        </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -15920,8 +16620,10 @@
           <t>GAER870129HYNRSD09</t>
         </is>
       </c>
-      <c r="F179" s="4" t="n">
-        <v>9991375427</v>
+      <c r="F179" s="4" t="inlineStr">
+        <is>
+          <t>'9991375427</t>
+        </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -15951,8 +16653,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M179" s="4" t="n">
-        <v>97314</v>
+      <c r="M179" s="4" t="inlineStr">
+        <is>
+          <t>'97314</t>
+        </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -16005,8 +16709,10 @@
           <t>GAER870129HYNRSD09</t>
         </is>
       </c>
-      <c r="F180" s="4" t="n">
-        <v>9991375427</v>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>'9991375427</t>
+        </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -16036,8 +16742,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M180" s="4" t="n">
-        <v>97314</v>
+      <c r="M180" s="4" t="inlineStr">
+        <is>
+          <t>'97314</t>
+        </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -16092,8 +16800,10 @@
           <t>REVJ510801HDGTLL01</t>
         </is>
       </c>
-      <c r="F181" s="4" t="n">
-        <v>9993356071</v>
+      <c r="F181" s="4" t="inlineStr">
+        <is>
+          <t>'9993356071</t>
+        </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -16123,8 +16833,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M181" s="4" t="n">
-        <v>97115</v>
+      <c r="M181" s="4" t="inlineStr">
+        <is>
+          <t>'97115</t>
+        </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -16177,8 +16889,10 @@
           <t>REVJ510801HDGTLL01</t>
         </is>
       </c>
-      <c r="F182" s="4" t="n">
-        <v>9993356071</v>
+      <c r="F182" s="4" t="inlineStr">
+        <is>
+          <t>'9993356071</t>
+        </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -16208,8 +16922,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M182" s="4" t="n">
-        <v>97115</v>
+      <c r="M182" s="4" t="inlineStr">
+        <is>
+          <t>'97115</t>
+        </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -16264,8 +16980,10 @@
           <t>REVJ510801HDGTLL01</t>
         </is>
       </c>
-      <c r="F183" s="4" t="n">
-        <v>9993356071</v>
+      <c r="F183" s="4" t="inlineStr">
+        <is>
+          <t>'9993356071</t>
+        </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -16295,8 +17013,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M183" s="4" t="n">
-        <v>97115</v>
+      <c r="M183" s="4" t="inlineStr">
+        <is>
+          <t>'97115</t>
+        </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -16347,8 +17067,10 @@
           <t>AACD910605HYNZMV00</t>
         </is>
       </c>
-      <c r="F184" s="4" t="n">
-        <v>9991369874</v>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>'9991369874</t>
+        </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -16378,8 +17100,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M184" s="4" t="n">
-        <v>97305</v>
+      <c r="M184" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -16432,8 +17156,10 @@
           <t>GACE770131HDFNFN04</t>
         </is>
       </c>
-      <c r="F185" s="4" t="n">
-        <v>5520985073</v>
+      <c r="F185" s="4" t="inlineStr">
+        <is>
+          <t>'5520985073</t>
+        </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -16463,8 +17189,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M185" s="4" t="n">
-        <v>97249</v>
+      <c r="M185" s="4" t="inlineStr">
+        <is>
+          <t>'97249</t>
+        </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -16519,8 +17247,10 @@
           <t>PAAA710213HDFRLR07</t>
         </is>
       </c>
-      <c r="F186" s="4" t="n">
-        <v>9994992099</v>
+      <c r="F186" s="4" t="inlineStr">
+        <is>
+          <t>'9994992099</t>
+        </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -16550,8 +17280,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M186" s="4" t="n">
-        <v>97306</v>
+      <c r="M186" s="4" t="inlineStr">
+        <is>
+          <t>'97306</t>
+        </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -16606,8 +17338,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F187" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F187" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -16637,8 +17371,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M187" s="4" t="n">
-        <v>97345</v>
+      <c r="M187" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -16693,8 +17429,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F188" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F188" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -16724,8 +17462,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M188" s="4" t="n">
-        <v>97345</v>
+      <c r="M188" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -16780,8 +17520,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F189" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F189" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -16811,8 +17553,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M189" s="4" t="n">
-        <v>97345</v>
+      <c r="M189" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -16867,8 +17611,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F190" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F190" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -16898,8 +17644,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M190" s="4" t="n">
-        <v>97345</v>
+      <c r="M190" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -16954,8 +17702,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F191" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F191" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -16985,8 +17735,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M191" s="4" t="n">
-        <v>97345</v>
+      <c r="M191" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -17041,8 +17793,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F192" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -17072,8 +17826,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M192" s="4" t="n">
-        <v>97345</v>
+      <c r="M192" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -17128,8 +17884,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F193" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F193" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -17159,8 +17917,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M193" s="4" t="n">
-        <v>97345</v>
+      <c r="M193" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -17215,8 +17975,10 @@
           <t>GANJ7408O7HDFRXQ04</t>
         </is>
       </c>
-      <c r="F194" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F194" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -17246,8 +18008,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M194" s="4" t="n">
-        <v>97345</v>
+      <c r="M194" s="4" t="inlineStr">
+        <is>
+          <t>'97345</t>
+        </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -17300,8 +18064,10 @@
           <t>VARJ861111HMNLJS03</t>
         </is>
       </c>
-      <c r="F195" s="4" t="n">
-        <v>9971248940</v>
+      <c r="F195" s="4" t="inlineStr">
+        <is>
+          <t>'9971248940</t>
+        </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -17331,8 +18097,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M195" s="4" t="n">
-        <v>97970</v>
+      <c r="M195" s="4" t="inlineStr">
+        <is>
+          <t>'97970</t>
+        </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -17387,8 +18155,10 @@
           <t>VARJ861111HMNLJS03</t>
         </is>
       </c>
-      <c r="F196" s="4" t="n">
-        <v>9971248940</v>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>'9971248940</t>
+        </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -17418,8 +18188,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M196" s="4" t="n">
-        <v>97970</v>
+      <c r="M196" s="4" t="inlineStr">
+        <is>
+          <t>'97970</t>
+        </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -17474,8 +18246,10 @@
           <t>VARJ861111HMNLJS03</t>
         </is>
       </c>
-      <c r="F197" s="4" t="n">
-        <v>9971248940</v>
+      <c r="F197" s="4" t="inlineStr">
+        <is>
+          <t>'9971248940</t>
+        </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -17505,8 +18279,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M197" s="4" t="n">
-        <v>97970</v>
+      <c r="M197" s="4" t="inlineStr">
+        <is>
+          <t>'97970</t>
+        </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -17561,8 +18337,10 @@
           <t>VECB750917HYNRHR03</t>
         </is>
       </c>
-      <c r="F198" s="4" t="n">
-        <v>9992247551</v>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>'9992247551</t>
+        </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -17592,8 +18370,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M198" s="4" t="n">
-        <v>97146</v>
+      <c r="M198" s="4" t="inlineStr">
+        <is>
+          <t>'97146</t>
+        </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -17648,8 +18428,10 @@
           <t>VECB750917HYNRHR03</t>
         </is>
       </c>
-      <c r="F199" s="4" t="n">
-        <v>9992247551</v>
+      <c r="F199" s="4" t="inlineStr">
+        <is>
+          <t>'9992247551</t>
+        </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -17679,8 +18461,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M199" s="4" t="n">
-        <v>97146</v>
+      <c r="M199" s="4" t="inlineStr">
+        <is>
+          <t>'97146</t>
+        </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -17733,8 +18517,10 @@
           <t>VECB750917HYNRHR03</t>
         </is>
       </c>
-      <c r="F200" s="4" t="n">
-        <v>9992247551</v>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>'9992247551</t>
+        </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -17764,8 +18550,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M200" s="4" t="n">
-        <v>97146</v>
+      <c r="M200" s="4" t="inlineStr">
+        <is>
+          <t>'97146</t>
+        </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -17820,8 +18608,10 @@
           <t>VECB750917HYNRHR03</t>
         </is>
       </c>
-      <c r="F201" s="4" t="n">
-        <v>9992247551</v>
+      <c r="F201" s="4" t="inlineStr">
+        <is>
+          <t>'9992247551</t>
+        </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -17851,8 +18641,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M201" s="4" t="n">
-        <v>97146</v>
+      <c r="M201" s="4" t="inlineStr">
+        <is>
+          <t>'97146</t>
+        </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -17907,8 +18699,10 @@
           <t>MECR871030HYNNRG05</t>
         </is>
       </c>
-      <c r="F202" s="4" t="n">
-        <v>9991356502</v>
+      <c r="F202" s="4" t="inlineStr">
+        <is>
+          <t>'9991356502</t>
+        </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -17938,8 +18732,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M202" s="4" t="n">
-        <v>97130</v>
+      <c r="M202" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -17994,8 +18790,10 @@
           <t>MECR871030HYNNRG05</t>
         </is>
       </c>
-      <c r="F203" s="4" t="n">
-        <v>9991356502</v>
+      <c r="F203" s="4" t="inlineStr">
+        <is>
+          <t>'9991356502</t>
+        </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -18025,8 +18823,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M203" s="4" t="n">
-        <v>97130</v>
+      <c r="M203" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -18081,8 +18881,10 @@
           <t>MECR871030HYNNRG05</t>
         </is>
       </c>
-      <c r="F204" s="4" t="n">
-        <v>9991356502</v>
+      <c r="F204" s="4" t="inlineStr">
+        <is>
+          <t>'9991356502</t>
+        </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -18112,8 +18914,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M204" s="4" t="n">
-        <v>97130</v>
+      <c r="M204" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -18166,8 +18970,10 @@
           <t>MECR871030HYNNRG05</t>
         </is>
       </c>
-      <c r="F205" s="4" t="n">
-        <v>9991356502</v>
+      <c r="F205" s="4" t="inlineStr">
+        <is>
+          <t>'9991356502</t>
+        </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -18197,8 +19003,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M205" s="4" t="n">
-        <v>97130</v>
+      <c r="M205" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -18253,8 +19061,10 @@
           <t>MECR871030HYNNRG05</t>
         </is>
       </c>
-      <c r="F206" s="4" t="n">
-        <v>9991356502</v>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>'9991356502</t>
+        </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -18284,8 +19094,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M206" s="4" t="n">
-        <v>97130</v>
+      <c r="M206" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -18340,8 +19152,10 @@
           <t>TACM750410HYNZHN05</t>
         </is>
       </c>
-      <c r="F207" s="4" t="n">
-        <v>9991518266</v>
+      <c r="F207" s="4" t="inlineStr">
+        <is>
+          <t>'9991518266</t>
+        </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -18371,8 +19185,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M207" s="4" t="n">
-        <v>97306</v>
+      <c r="M207" s="4" t="inlineStr">
+        <is>
+          <t>'97306</t>
+        </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -18427,8 +19243,10 @@
           <t>TACM750410HYNZHN05</t>
         </is>
       </c>
-      <c r="F208" s="4" t="n">
-        <v>9991518266</v>
+      <c r="F208" s="4" t="inlineStr">
+        <is>
+          <t>'9991518266</t>
+        </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -18458,8 +19276,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M208" s="4" t="n">
-        <v>97306</v>
+      <c r="M208" s="4" t="inlineStr">
+        <is>
+          <t>'97306</t>
+        </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -18514,8 +19334,10 @@
           <t>TACM750410HYNZHN05</t>
         </is>
       </c>
-      <c r="F209" s="4" t="n">
-        <v>9991518266</v>
+      <c r="F209" s="4" t="inlineStr">
+        <is>
+          <t>'9991518266</t>
+        </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -18545,8 +19367,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M209" s="4" t="n">
-        <v>97306</v>
+      <c r="M209" s="4" t="inlineStr">
+        <is>
+          <t>'97306</t>
+        </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -18601,8 +19425,10 @@
           <t>PACA840803HYNRTR08</t>
         </is>
       </c>
-      <c r="F210" s="4" t="n">
-        <v>9994912883</v>
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>'9994912883</t>
+        </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -18632,8 +19458,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M210" s="4" t="n">
-        <v>97306</v>
+      <c r="M210" s="4" t="inlineStr">
+        <is>
+          <t>'97306</t>
+        </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -18688,8 +19516,10 @@
           <t>PACA840803HYNRTR08</t>
         </is>
       </c>
-      <c r="F211" s="4" t="n">
-        <v>9994912883</v>
+      <c r="F211" s="4" t="inlineStr">
+        <is>
+          <t>'9994912883</t>
+        </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -18719,8 +19549,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M211" s="4" t="n">
-        <v>97306</v>
+      <c r="M211" s="4" t="inlineStr">
+        <is>
+          <t>'97306</t>
+        </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -18775,8 +19607,10 @@
           <t>PACA840803HYNRTR08</t>
         </is>
       </c>
-      <c r="F212" s="4" t="n">
-        <v>9994912883</v>
+      <c r="F212" s="4" t="inlineStr">
+        <is>
+          <t>'9994912883</t>
+        </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -18806,8 +19640,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M212" s="4" t="n">
-        <v>97306</v>
+      <c r="M212" s="4" t="inlineStr">
+        <is>
+          <t>'97306</t>
+        </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -18862,8 +19698,10 @@
           <t>CAMR840315HYNSNC08</t>
         </is>
       </c>
-      <c r="F213" s="4" t="n">
-        <v>9901011913</v>
+      <c r="F213" s="4" t="inlineStr">
+        <is>
+          <t>'9901011913</t>
+        </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -18893,8 +19731,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M213" s="4" t="n">
-        <v>97300</v>
+      <c r="M213" s="4" t="inlineStr">
+        <is>
+          <t>'97300</t>
+        </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -18949,8 +19789,10 @@
           <t>CAMR840315HYNSNC08</t>
         </is>
       </c>
-      <c r="F214" s="4" t="n">
-        <v>9901011913</v>
+      <c r="F214" s="4" t="inlineStr">
+        <is>
+          <t>'9901011913</t>
+        </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -18980,8 +19822,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M214" s="4" t="n">
-        <v>97300</v>
+      <c r="M214" s="4" t="inlineStr">
+        <is>
+          <t>'97300</t>
+        </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -19036,8 +19880,10 @@
           <t>GOAE840623HYNMRD00</t>
         </is>
       </c>
-      <c r="F215" s="4" t="n">
-        <v>9991450399</v>
+      <c r="F215" s="4" t="inlineStr">
+        <is>
+          <t>'9991450399</t>
+        </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -19067,8 +19913,10 @@
           <t>MÉXICO</t>
         </is>
       </c>
-      <c r="M215" s="4" t="n">
-        <v>97217</v>
+      <c r="M215" s="4" t="inlineStr">
+        <is>
+          <t>'97217</t>
+        </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -19098,8 +19946,10 @@
           <t>DABD900923MDFVTL03</t>
         </is>
       </c>
-      <c r="F216" s="4" t="n">
-        <v>5543900616</v>
+      <c r="F216" s="4" t="inlineStr">
+        <is>
+          <t>'5543900616</t>
+        </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -19129,8 +19979,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M216" s="4" t="n">
-        <v>97305</v>
+      <c r="M216" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -19183,8 +20035,10 @@
           <t>DABD900923MDFVTL03</t>
         </is>
       </c>
-      <c r="F217" s="4" t="n">
-        <v>5543900616</v>
+      <c r="F217" s="4" t="inlineStr">
+        <is>
+          <t>'5543900616</t>
+        </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -19214,8 +20068,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M217" s="4" t="n">
-        <v>97305</v>
+      <c r="M217" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -19270,8 +20126,10 @@
           <t>DABD900923MDFVTL03</t>
         </is>
       </c>
-      <c r="F218" s="4" t="n">
-        <v>5543900616</v>
+      <c r="F218" s="4" t="inlineStr">
+        <is>
+          <t>'5543900616</t>
+        </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -19301,8 +20159,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M218" s="4" t="n">
-        <v>97305</v>
+      <c r="M218" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -19357,8 +20217,10 @@
           <t>DABD900923MDFVTL03</t>
         </is>
       </c>
-      <c r="F219" s="4" t="n">
-        <v>5543900616</v>
+      <c r="F219" s="4" t="inlineStr">
+        <is>
+          <t>'5543900616</t>
+        </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -19388,8 +20250,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M219" s="4" t="n">
-        <v>97305</v>
+      <c r="M219" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -19442,8 +20306,10 @@
           <t>DABD900923MDFVTL03</t>
         </is>
       </c>
-      <c r="F220" s="4" t="n">
-        <v>5543900616</v>
+      <c r="F220" s="4" t="inlineStr">
+        <is>
+          <t>'5543900616</t>
+        </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -19473,8 +20339,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M220" s="4" t="n">
-        <v>97305</v>
+      <c r="M220" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -19529,8 +20397,10 @@
           <t>LARS970906HYNMNN09</t>
         </is>
       </c>
-      <c r="F221" s="4" t="n">
-        <v>9993359825</v>
+      <c r="F221" s="4" t="inlineStr">
+        <is>
+          <t>'9993359825</t>
+        </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -19560,8 +20430,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M221" s="4" t="n">
-        <v>97305</v>
+      <c r="M221" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -19616,8 +20488,10 @@
           <t>LARS970906HYNMNN09</t>
         </is>
       </c>
-      <c r="F222" s="4" t="n">
-        <v>9993359825</v>
+      <c r="F222" s="4" t="inlineStr">
+        <is>
+          <t>'9993359825</t>
+        </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -19647,8 +20521,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M222" s="4" t="n">
-        <v>97305</v>
+      <c r="M222" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -19703,8 +20579,10 @@
           <t>LARS970906HYNMNN09</t>
         </is>
       </c>
-      <c r="F223" s="4" t="n">
-        <v>9993359825</v>
+      <c r="F223" s="4" t="inlineStr">
+        <is>
+          <t>'9993359825</t>
+        </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -19734,8 +20612,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M223" s="4" t="n">
-        <v>97305</v>
+      <c r="M223" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -19790,8 +20670,10 @@
           <t>LARS970906HYNMNN09</t>
         </is>
       </c>
-      <c r="F224" s="4" t="n">
-        <v>9993359825</v>
+      <c r="F224" s="4" t="inlineStr">
+        <is>
+          <t>'9993359825</t>
+        </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -19821,8 +20703,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M224" s="4" t="n">
-        <v>97305</v>
+      <c r="M224" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -19877,8 +20761,10 @@
           <t>LARS970906HYNMNN09</t>
         </is>
       </c>
-      <c r="F225" s="4" t="n">
-        <v>9993359825</v>
+      <c r="F225" s="4" t="inlineStr">
+        <is>
+          <t>'9993359825</t>
+        </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -19908,8 +20794,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M225" s="4" t="n">
-        <v>97305</v>
+      <c r="M225" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -19964,8 +20852,10 @@
           <t>LARS970906HYNMNN09</t>
         </is>
       </c>
-      <c r="F226" s="4" t="n">
-        <v>9993359825</v>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t>'9993359825</t>
+        </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -19995,8 +20885,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M226" s="4" t="n">
-        <v>97305</v>
+      <c r="M226" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -20051,8 +20943,10 @@
           <t>GOPE850306HDFNCR03</t>
         </is>
       </c>
-      <c r="F227" s="4" t="n">
-        <v>9995328570</v>
+      <c r="F227" s="4" t="inlineStr">
+        <is>
+          <t>'9995328570</t>
+        </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -20082,8 +20976,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M227" s="4" t="n">
-        <v>97115</v>
+      <c r="M227" s="4" t="inlineStr">
+        <is>
+          <t>'97115</t>
+        </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -20136,8 +21032,10 @@
           <t>GOPE850306HDFNCR03</t>
         </is>
       </c>
-      <c r="F228" s="4" t="n">
-        <v>9995328570</v>
+      <c r="F228" s="4" t="inlineStr">
+        <is>
+          <t>'9995328570</t>
+        </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -20167,8 +21065,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M228" s="4" t="n">
-        <v>97115</v>
+      <c r="M228" s="4" t="inlineStr">
+        <is>
+          <t>'97115</t>
+        </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -20223,8 +21123,10 @@
           <t>GOPE850306HDFNCR03</t>
         </is>
       </c>
-      <c r="F229" s="4" t="n">
-        <v>9995328570</v>
+      <c r="F229" s="4" t="inlineStr">
+        <is>
+          <t>'9995328570</t>
+        </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -20254,8 +21156,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M229" s="4" t="n">
-        <v>97115</v>
+      <c r="M229" s="4" t="inlineStr">
+        <is>
+          <t>'97115</t>
+        </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -20310,8 +21214,10 @@
           <t>AERF781023MDFRMR09</t>
         </is>
       </c>
-      <c r="F230" s="4" t="n">
-        <v>5530565722</v>
+      <c r="F230" s="4" t="inlineStr">
+        <is>
+          <t>'5530565722</t>
+        </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -20341,8 +21247,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M230" s="4" t="n">
-        <v>97302</v>
+      <c r="M230" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -20372,8 +21280,10 @@
           <t>FEQG630819HCCRJR06</t>
         </is>
       </c>
-      <c r="F231" s="4" t="n">
-        <v>9811204947</v>
+      <c r="F231" s="4" t="inlineStr">
+        <is>
+          <t>'9811204947</t>
+        </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -20403,8 +21313,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M231" s="4" t="n">
-        <v>24085</v>
+      <c r="M231" s="4" t="inlineStr">
+        <is>
+          <t>'24085</t>
+        </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -20459,8 +21371,10 @@
           <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
-      <c r="F232" s="4" t="n">
-        <v>9993940909</v>
+      <c r="F232" s="4" t="inlineStr">
+        <is>
+          <t>'9993940909</t>
+        </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -20490,8 +21404,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M232" s="4" t="n">
-        <v>97302</v>
+      <c r="M232" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -20546,8 +21462,10 @@
           <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
-      <c r="F233" s="4" t="n">
-        <v>9993940909</v>
+      <c r="F233" s="4" t="inlineStr">
+        <is>
+          <t>'9993940909</t>
+        </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -20577,8 +21495,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M233" s="4" t="n">
-        <v>97302</v>
+      <c r="M233" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -20633,8 +21553,10 @@
           <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
-      <c r="F234" s="4" t="n">
-        <v>9993940909</v>
+      <c r="F234" s="4" t="inlineStr">
+        <is>
+          <t>'9993940909</t>
+        </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -20664,8 +21586,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M234" s="4" t="n">
-        <v>97302</v>
+      <c r="M234" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -20720,8 +21644,10 @@
           <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
-      <c r="F235" s="4" t="n">
-        <v>9993940909</v>
+      <c r="F235" s="4" t="inlineStr">
+        <is>
+          <t>'9993940909</t>
+        </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -20751,8 +21677,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M235" s="4" t="n">
-        <v>97302</v>
+      <c r="M235" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -20807,8 +21735,10 @@
           <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
-      <c r="F236" s="4" t="n">
-        <v>9993940909</v>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>'9993940909</t>
+        </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -20838,8 +21768,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M236" s="4" t="n">
-        <v>97302</v>
+      <c r="M236" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -20894,8 +21826,10 @@
           <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
-      <c r="F237" s="4" t="n">
-        <v>9993940909</v>
+      <c r="F237" s="4" t="inlineStr">
+        <is>
+          <t>'9993940909</t>
+        </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -20925,8 +21859,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M237" s="4" t="n">
-        <v>97302</v>
+      <c r="M237" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -20981,8 +21917,10 @@
           <t>MAAS720901HCCRGR07</t>
         </is>
       </c>
-      <c r="F238" s="4" t="n">
-        <v>9831549084</v>
+      <c r="F238" s="4" t="inlineStr">
+        <is>
+          <t>'9831549084</t>
+        </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -21012,8 +21950,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M238" s="4" t="n">
-        <v>97314</v>
+      <c r="M238" s="4" t="inlineStr">
+        <is>
+          <t>'97314</t>
+        </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -21068,8 +22008,10 @@
           <t>MAAS720901HCCRGR07</t>
         </is>
       </c>
-      <c r="F239" s="4" t="n">
-        <v>9831549084</v>
+      <c r="F239" s="4" t="inlineStr">
+        <is>
+          <t>'9831549084</t>
+        </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -21099,8 +22041,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M239" s="4" t="n">
-        <v>97314</v>
+      <c r="M239" s="4" t="inlineStr">
+        <is>
+          <t>'97314</t>
+        </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -21155,8 +22099,10 @@
           <t>MAAS720901HCCRGR07</t>
         </is>
       </c>
-      <c r="F240" s="4" t="n">
-        <v>9831549084</v>
+      <c r="F240" s="4" t="inlineStr">
+        <is>
+          <t>'9831549084</t>
+        </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -21186,8 +22132,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M240" s="4" t="n">
-        <v>97314</v>
+      <c r="M240" s="4" t="inlineStr">
+        <is>
+          <t>'97314</t>
+        </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -21242,8 +22190,10 @@
           <t>ROEA841021HYNBSL09</t>
         </is>
       </c>
-      <c r="F241" s="4" t="n">
-        <v>9999967145</v>
+      <c r="F241" s="4" t="inlineStr">
+        <is>
+          <t>'9999967145</t>
+        </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -21273,8 +22223,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M241" s="4" t="n">
-        <v>97145</v>
+      <c r="M241" s="4" t="inlineStr">
+        <is>
+          <t>'97145</t>
+        </is>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -21329,8 +22281,10 @@
           <t>ROEA841021HYNBSL09</t>
         </is>
       </c>
-      <c r="F242" s="4" t="n">
-        <v>9999967145</v>
+      <c r="F242" s="4" t="inlineStr">
+        <is>
+          <t>'9999967145</t>
+        </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -21360,8 +22314,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M242" s="4" t="n">
-        <v>97145</v>
+      <c r="M242" s="4" t="inlineStr">
+        <is>
+          <t>'97145</t>
+        </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -21416,8 +22372,10 @@
           <t>ROEA841021HYNBSL09</t>
         </is>
       </c>
-      <c r="F243" s="4" t="n">
-        <v>9999967145</v>
+      <c r="F243" s="4" t="inlineStr">
+        <is>
+          <t>'9999967145</t>
+        </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -21447,8 +22405,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M243" s="4" t="n">
-        <v>97145</v>
+      <c r="M243" s="4" t="inlineStr">
+        <is>
+          <t>'97145</t>
+        </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -21501,8 +22461,10 @@
           <t>RAGJ831020HDFMMN08</t>
         </is>
       </c>
-      <c r="F244" s="4" t="n">
-        <v>5543426160</v>
+      <c r="F244" s="4" t="inlineStr">
+        <is>
+          <t>'5543426160</t>
+        </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -21532,8 +22494,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M244" s="4" t="n">
-        <v>97302</v>
+      <c r="M244" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -21588,8 +22552,10 @@
           <t>CAPG891110HYNMCD00</t>
         </is>
       </c>
-      <c r="F245" s="4" t="n">
-        <v>4431302953</v>
+      <c r="F245" s="4" t="inlineStr">
+        <is>
+          <t>'4431302953</t>
+        </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -21619,8 +22585,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M245" s="4" t="n">
-        <v>97314</v>
+      <c r="M245" s="4" t="inlineStr">
+        <is>
+          <t>'97314</t>
+        </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -21650,8 +22618,10 @@
           <t>CUAG750301HYNVBD00</t>
         </is>
       </c>
-      <c r="F246" s="4" t="n">
-        <v>9993354270</v>
+      <c r="F246" s="4" t="inlineStr">
+        <is>
+          <t>'9993354270</t>
+        </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -21681,8 +22651,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M246" s="4" t="n">
-        <v>97130</v>
+      <c r="M246" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -21737,8 +22709,10 @@
           <t>CUAG750301HYNVBD00</t>
         </is>
       </c>
-      <c r="F247" s="4" t="n">
-        <v>9993354270</v>
+      <c r="F247" s="4" t="inlineStr">
+        <is>
+          <t>'9993354270</t>
+        </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -21768,8 +22742,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M247" s="4" t="n">
-        <v>97130</v>
+      <c r="M247" s="4" t="inlineStr">
+        <is>
+          <t>'97130</t>
+        </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -21824,8 +22800,10 @@
           <t>RUES971109HCCDSN07</t>
         </is>
       </c>
-      <c r="F248" s="4" t="n">
-        <v>9381526811</v>
+      <c r="F248" s="4" t="inlineStr">
+        <is>
+          <t>'9381526811</t>
+        </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -21855,8 +22833,10 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="M248" s="4" t="n">
-        <v>24114</v>
+      <c r="M248" s="4" t="inlineStr">
+        <is>
+          <t>'24114</t>
+        </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -21886,8 +22866,10 @@
           <t>CATI771216HNEBRV03</t>
         </is>
       </c>
-      <c r="F249" s="4" t="n">
-        <v>9992315040</v>
+      <c r="F249" s="4" t="inlineStr">
+        <is>
+          <t>'9992315040</t>
+        </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -21917,8 +22899,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M249" s="4" t="n">
-        <v>97117</v>
+      <c r="M249" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -21973,8 +22957,10 @@
           <t>CATI771216HNEBRV03</t>
         </is>
       </c>
-      <c r="F250" s="4" t="n">
-        <v>9992315040</v>
+      <c r="F250" s="4" t="inlineStr">
+        <is>
+          <t>'9992315040</t>
+        </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -22004,8 +22990,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M250" s="4" t="n">
-        <v>97117</v>
+      <c r="M250" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -22060,8 +23048,10 @@
           <t>CATI771216HNEBRV03</t>
         </is>
       </c>
-      <c r="F251" s="4" t="n">
-        <v>9992315040</v>
+      <c r="F251" s="4" t="inlineStr">
+        <is>
+          <t>'9992315040</t>
+        </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -22091,8 +23081,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M251" s="4" t="n">
-        <v>97117</v>
+      <c r="M251" s="4" t="inlineStr">
+        <is>
+          <t>'97117</t>
+        </is>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -22145,8 +23137,10 @@
           <t>PUSJ000131HYNCSSA4</t>
         </is>
       </c>
-      <c r="F252" s="4" t="n">
-        <v>9993778311</v>
+      <c r="F252" s="4" t="inlineStr">
+        <is>
+          <t>'9993778311</t>
+        </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -22176,8 +23170,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M252" s="4" t="n">
-        <v>97700</v>
+      <c r="M252" s="4" t="inlineStr">
+        <is>
+          <t>'97700</t>
+        </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -22209,7 +23205,7 @@
       </c>
       <c r="F253" s="4" t="inlineStr">
         <is>
-          <t>9999001366</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -22240,8 +23236,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M253" s="4" t="n">
-        <v>97147</v>
+      <c r="M253" s="4" t="inlineStr">
+        <is>
+          <t>'97147</t>
+        </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -22298,7 +23296,7 @@
       </c>
       <c r="F254" s="4" t="inlineStr">
         <is>
-          <t>9999001366</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -22329,8 +23327,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M254" s="4" t="n">
-        <v>97147</v>
+      <c r="M254" s="4" t="inlineStr">
+        <is>
+          <t>'97147</t>
+        </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -22387,7 +23387,7 @@
       </c>
       <c r="F255" s="4" t="inlineStr">
         <is>
-          <t>9999001366</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -22418,8 +23418,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M255" s="4" t="n">
-        <v>97147</v>
+      <c r="M255" s="4" t="inlineStr">
+        <is>
+          <t>'97147</t>
+        </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -22476,7 +23478,7 @@
       </c>
       <c r="F256" s="4" t="inlineStr">
         <is>
-          <t>9999001366</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -22507,8 +23509,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M256" s="4" t="n">
-        <v>97147</v>
+      <c r="M256" s="4" t="inlineStr">
+        <is>
+          <t>'97147</t>
+        </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -22565,7 +23569,7 @@
       </c>
       <c r="F257" s="4" t="inlineStr">
         <is>
-          <t>9999001366</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -22596,8 +23600,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M257" s="4" t="n">
-        <v>97147</v>
+      <c r="M257" s="4" t="inlineStr">
+        <is>
+          <t>'97147</t>
+        </is>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -22654,7 +23660,7 @@
       </c>
       <c r="F258" s="4" t="inlineStr">
         <is>
-          <t>9999001366</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -22685,8 +23691,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M258" s="4" t="n">
-        <v>97147</v>
+      <c r="M258" s="4" t="inlineStr">
+        <is>
+          <t>'97147</t>
+        </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -22743,7 +23751,7 @@
       </c>
       <c r="F259" s="4" t="inlineStr">
         <is>
-          <t>9999001366</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -22774,8 +23782,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M259" s="4" t="n">
-        <v>97147</v>
+      <c r="M259" s="4" t="inlineStr">
+        <is>
+          <t>'97147</t>
+        </is>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -22830,8 +23840,10 @@
           <t>QUPS901102HYNNRN04</t>
         </is>
       </c>
-      <c r="F260" s="4" t="n">
-        <v>9995759542</v>
+      <c r="F260" s="4" t="inlineStr">
+        <is>
+          <t>'9995759542</t>
+        </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -22861,8 +23873,10 @@
           <t>YUCATAN</t>
         </is>
       </c>
-      <c r="M260" s="4" t="n">
-        <v>97816</v>
+      <c r="M260" s="4" t="inlineStr">
+        <is>
+          <t>'97816</t>
+        </is>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -22917,8 +23931,10 @@
           <t>QUPS901102HYNNRN04</t>
         </is>
       </c>
-      <c r="F261" s="4" t="n">
-        <v>9995759542</v>
+      <c r="F261" s="4" t="inlineStr">
+        <is>
+          <t>'9995759542</t>
+        </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -22948,8 +23964,10 @@
           <t>YUCATAN</t>
         </is>
       </c>
-      <c r="M261" s="4" t="n">
-        <v>97816</v>
+      <c r="M261" s="4" t="inlineStr">
+        <is>
+          <t>'97816</t>
+        </is>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -23004,8 +24022,10 @@
           <t>QUPS901102HYNNRN04</t>
         </is>
       </c>
-      <c r="F262" s="4" t="n">
-        <v>9995759542</v>
+      <c r="F262" s="4" t="inlineStr">
+        <is>
+          <t>'9995759542</t>
+        </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -23035,8 +24055,10 @@
           <t>YUCATAN</t>
         </is>
       </c>
-      <c r="M262" s="4" t="n">
-        <v>97816</v>
+      <c r="M262" s="4" t="inlineStr">
+        <is>
+          <t>'97816</t>
+        </is>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -23093,7 +24115,7 @@
       </c>
       <c r="F263" s="4" t="inlineStr">
         <is>
-          <t>529992003314</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -23124,8 +24146,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M263" s="4" t="n">
-        <v>97205</v>
+      <c r="M263" s="4" t="inlineStr">
+        <is>
+          <t>'97205</t>
+        </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -23180,7 +24204,7 @@
       </c>
       <c r="F264" s="4" t="inlineStr">
         <is>
-          <t>529992003314</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -23211,8 +24235,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M264" s="4" t="n">
-        <v>97205</v>
+      <c r="M264" s="4" t="inlineStr">
+        <is>
+          <t>'97205</t>
+        </is>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -23269,7 +24295,7 @@
       </c>
       <c r="F265" s="4" t="inlineStr">
         <is>
-          <t>529992003314</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -23300,8 +24326,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M265" s="4" t="n">
-        <v>97205</v>
+      <c r="M265" s="4" t="inlineStr">
+        <is>
+          <t>'97205</t>
+        </is>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -23358,7 +24386,7 @@
       </c>
       <c r="F266" s="4" t="inlineStr">
         <is>
-          <t>529992003314</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -23389,8 +24417,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M266" s="4" t="n">
-        <v>97205</v>
+      <c r="M266" s="4" t="inlineStr">
+        <is>
+          <t>'97205</t>
+        </is>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -23447,7 +24477,7 @@
       </c>
       <c r="F267" s="4" t="inlineStr">
         <is>
-          <t>529992003314</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -23478,8 +24508,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M267" s="4" t="n">
-        <v>97205</v>
+      <c r="M267" s="4" t="inlineStr">
+        <is>
+          <t>'97205</t>
+        </is>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -23536,7 +24568,7 @@
       </c>
       <c r="F268" s="4" t="inlineStr">
         <is>
-          <t>529992003314</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -23567,8 +24599,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M268" s="4" t="n">
-        <v>97205</v>
+      <c r="M268" s="4" t="inlineStr">
+        <is>
+          <t>'97205</t>
+        </is>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -23625,7 +24659,7 @@
       </c>
       <c r="F269" s="4" t="inlineStr">
         <is>
-          <t>529992003314</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -23656,8 +24690,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M269" s="4" t="n">
-        <v>97205</v>
+      <c r="M269" s="4" t="inlineStr">
+        <is>
+          <t>'97205</t>
+        </is>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -23712,8 +24748,10 @@
           <t>GOXK740906HNERXR09</t>
         </is>
       </c>
-      <c r="F270" s="4" t="n">
-        <v>13213470270</v>
+      <c r="F270" s="4" t="inlineStr">
+        <is>
+          <t>'13213470270</t>
+        </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -23743,8 +24781,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M270" s="4" t="n">
-        <v>97302</v>
+      <c r="M270" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -23774,8 +24814,10 @@
           <t>MAOF620504HDFRRB06</t>
         </is>
       </c>
-      <c r="F271" s="4" t="n">
-        <v>9993772793</v>
+      <c r="F271" s="4" t="inlineStr">
+        <is>
+          <t>'9993772793</t>
+        </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -23805,8 +24847,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M271" s="4" t="n">
-        <v>97305</v>
+      <c r="M271" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -23861,8 +24905,10 @@
           <t>MAOF620504HDFRRB06</t>
         </is>
       </c>
-      <c r="F272" s="4" t="n">
-        <v>9993772793</v>
+      <c r="F272" s="4" t="inlineStr">
+        <is>
+          <t>'9993772793</t>
+        </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -23892,8 +24938,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M272" s="4" t="n">
-        <v>97305</v>
+      <c r="M272" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -23948,8 +24996,10 @@
           <t>MAOF620504HDFRRB06</t>
         </is>
       </c>
-      <c r="F273" s="4" t="n">
-        <v>9993772793</v>
+      <c r="F273" s="4" t="inlineStr">
+        <is>
+          <t>'9993772793</t>
+        </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -23979,8 +25029,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M273" s="4" t="n">
-        <v>97305</v>
+      <c r="M273" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -24035,8 +25087,10 @@
           <t>PARD850710HCCDBN05</t>
         </is>
       </c>
-      <c r="F274" s="4" t="n">
-        <v>9991650849</v>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>'9991650849</t>
+        </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -24066,8 +25120,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M274" s="4" t="n">
-        <v>97305</v>
+      <c r="M274" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -24122,8 +25178,10 @@
           <t>PARD850710HCCDBN05</t>
         </is>
       </c>
-      <c r="F275" s="4" t="n">
-        <v>9991650849</v>
+      <c r="F275" s="4" t="inlineStr">
+        <is>
+          <t>'9991650849</t>
+        </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -24153,8 +25211,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M275" s="4" t="n">
-        <v>97305</v>
+      <c r="M275" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -24209,8 +25269,10 @@
           <t>PARD850710HCCDBN05</t>
         </is>
       </c>
-      <c r="F276" s="4" t="n">
-        <v>9991650849</v>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t>'9991650849</t>
+        </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -24240,8 +25302,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M276" s="4" t="n">
-        <v>97305</v>
+      <c r="M276" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -24296,8 +25360,10 @@
           <t>PARD850710HCCDBN05</t>
         </is>
       </c>
-      <c r="F277" s="4" t="n">
-        <v>9991650849</v>
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t>'9991650849</t>
+        </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -24327,8 +25393,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M277" s="4" t="n">
-        <v>97305</v>
+      <c r="M277" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -24383,8 +25451,10 @@
           <t>PARD850710HCCDBN05</t>
         </is>
       </c>
-      <c r="F278" s="4" t="n">
-        <v>9991650849</v>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t>'9991650849</t>
+        </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -24414,8 +25484,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M278" s="4" t="n">
-        <v>97305</v>
+      <c r="M278" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -24470,8 +25542,10 @@
           <t>PARD850710HCCDBN05</t>
         </is>
       </c>
-      <c r="F279" s="4" t="n">
-        <v>9991650849</v>
+      <c r="F279" s="4" t="inlineStr">
+        <is>
+          <t>'9991650849</t>
+        </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -24501,8 +25575,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M279" s="4" t="n">
-        <v>97305</v>
+      <c r="M279" s="4" t="inlineStr">
+        <is>
+          <t>'97305</t>
+        </is>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -24557,8 +25633,10 @@
           <t>SOGR701015HYNBMC04</t>
         </is>
       </c>
-      <c r="F280" s="4" t="n">
-        <v>9993437376</v>
+      <c r="F280" s="4" t="inlineStr">
+        <is>
+          <t>'9993437376</t>
+        </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -24588,8 +25666,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M280" s="4" t="n">
-        <v>97302</v>
+      <c r="M280" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -24644,8 +25724,10 @@
           <t>SOGR701015HYNBMC04</t>
         </is>
       </c>
-      <c r="F281" s="4" t="n">
-        <v>9993437376</v>
+      <c r="F281" s="4" t="inlineStr">
+        <is>
+          <t>'9993437376</t>
+        </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -24675,8 +25757,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M281" s="4" t="n">
-        <v>97302</v>
+      <c r="M281" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -24731,8 +25815,10 @@
           <t>SOGR701015HYNBMC04</t>
         </is>
       </c>
-      <c r="F282" s="4" t="n">
-        <v>9993437376</v>
+      <c r="F282" s="4" t="inlineStr">
+        <is>
+          <t>'9993437376</t>
+        </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -24762,8 +25848,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M282" s="4" t="n">
-        <v>97302</v>
+      <c r="M282" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -24814,8 +25902,10 @@
           <t>CECR890104HYNRBL02</t>
         </is>
       </c>
-      <c r="F283" s="4" t="n">
-        <v>9993382222</v>
+      <c r="F283" s="4" t="inlineStr">
+        <is>
+          <t>'9993382222</t>
+        </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -24845,8 +25935,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M283" s="4" t="n">
-        <v>97219</v>
+      <c r="M283" s="4" t="inlineStr">
+        <is>
+          <t>'97219</t>
+        </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -24878,7 +25970,7 @@
       </c>
       <c r="F284" s="4" t="inlineStr">
         <is>
-          <t>9991639981</t>
+          <t>'9991639981</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -24909,8 +26001,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M284" s="4" t="n">
-        <v>97114</v>
+      <c r="M284" s="4" t="inlineStr">
+        <is>
+          <t>'97114</t>
+        </is>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -24942,7 +26036,7 @@
       </c>
       <c r="F285" s="4" t="inlineStr">
         <is>
-          <t>9999473043</t>
+          <t>'9999473043</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -24973,8 +26067,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M285" s="4" t="n">
-        <v>97114</v>
+      <c r="M285" s="4" t="inlineStr">
+        <is>
+          <t>'97114</t>
+        </is>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -25031,7 +26127,7 @@
       </c>
       <c r="F286" s="4" t="inlineStr">
         <is>
-          <t>9995287779</t>
+          <t>'9995287779</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -25062,8 +26158,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M286" s="4" t="n">
-        <v>97114</v>
+      <c r="M286" s="4" t="inlineStr">
+        <is>
+          <t>'97114</t>
+        </is>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -25095,7 +26193,7 @@
       </c>
       <c r="F287" s="4" t="inlineStr">
         <is>
-          <t>9997300081</t>
+          <t>'9997300081</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -25126,8 +26224,10 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M287" s="4" t="n">
-        <v>97302</v>
+      <c r="M287" s="4" t="inlineStr">
+        <is>
+          <t>'97302</t>
+        </is>
       </c>
       <c r="N287" t="inlineStr">
         <is>

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S287"/>
+  <dimension ref="A1:S288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25890,39 +25890,39 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>RAÚL CERVANTES CEBALLOS</t>
+          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CECR890104HYNRBL02</t>
-        </is>
-      </c>
-      <c r="F283" s="4" t="inlineStr">
-        <is>
-          <t>'9993382222</t>
+          <t>SOGR701015HYNBMC04</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>'9993437376</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>rcervantes@live.com.mx</t>
+          <t>rsoberanis11@hotmail.com</t>
         </is>
       </c>
       <c r="H283" s="2" t="n">
-        <v>45835</v>
+        <v>45808</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>C 13 POR 62 Y 64 655</t>
+          <t>Calle 23 S/N T.C. 50641</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>RESIDENCIAL PENSIONES</t>
+          <t>Colonia San Antonio Hool</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -25935,14 +25935,39 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M283" s="4" t="inlineStr">
-        <is>
-          <t>'97219</t>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>.40 S&amp;W</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>CZ</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>P-10 C</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>EP29710</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>A3912487</t>
         </is>
       </c>
     </row>
@@ -25956,39 +25981,39 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>RICARDO DANIEL FERNÁNDEZ PÉREZ</t>
+          <t>RAÚL CERVANTES CEBALLOS</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FEPR920403HYNRRC06</t>
+          <t>CECR890104HYNRBL02</t>
         </is>
       </c>
       <c r="F284" s="4" t="inlineStr">
         <is>
-          <t>'9991639981</t>
+          <t>'9993382222</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>richfer0304@gmail.com</t>
+          <t>rcervantes@live.com.mx</t>
         </is>
       </c>
       <c r="H284" s="2" t="n">
-        <v>45864</v>
+        <v>45835</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>C. 37-A # 311 X 24</t>
+          <t>C 13 POR 62 Y 64 655</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>FRACC. MONTEALBAN</t>
+          <t>RESIDENCIAL PENSIONES</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -26003,7 +26028,7 @@
       </c>
       <c r="M284" s="4" t="inlineStr">
         <is>
-          <t>'97114</t>
+          <t>'97219</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -26022,26 +26047,26 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>RICARDO MANUEL FERNÁNDEZ QUIJANO</t>
+          <t>RICARDO DANIEL FERNÁNDEZ PÉREZ</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FEQR591020HCCRJC07</t>
+          <t>FEPR920403HYNRRC06</t>
         </is>
       </c>
       <c r="F285" s="4" t="inlineStr">
         <is>
-          <t>'9999473043</t>
+          <t>'9991639981</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>richfer1020@gmail.com</t>
+          <t>richfer0304@gmail.com</t>
         </is>
       </c>
       <c r="H285" s="2" t="n">
@@ -26074,32 +26099,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
-        </is>
-      </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>0.380"</t>
-        </is>
-      </c>
-      <c r="P285" t="inlineStr">
-        <is>
-          <t>GLOCK</t>
-        </is>
-      </c>
-      <c r="Q285" s="4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="R285" s="3" t="inlineStr">
-        <is>
-          <t>UDV639</t>
-        </is>
-      </c>
-      <c r="S285" t="inlineStr">
-        <is>
-          <t>B347208</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -26113,39 +26113,39 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>YAEL ROMERO DE DIOS</t>
+          <t>RICARDO MANUEL FERNÁNDEZ QUIJANO</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>RODY940625HYNMSL01</t>
+          <t>FEQR591020HCCRJC07</t>
         </is>
       </c>
       <c r="F286" s="4" t="inlineStr">
         <is>
-          <t>'9995287779</t>
+          <t>'9999473043</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>licyaelromero@gmail.com</t>
+          <t>richfer1020@gmail.com</t>
         </is>
       </c>
       <c r="H286" s="2" t="n">
-        <v>45899</v>
+        <v>45864</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Calle 111 No 514 x 132 y 134A</t>
+          <t>C. 37-A # 311 X 24</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Fraccionamiento los Héroes.</t>
+          <t>FRACC. MONTEALBAN</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -26165,7 +26165,32 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>0.380"</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>GLOCK</t>
+        </is>
+      </c>
+      <c r="Q286" s="4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="R286" s="3" t="inlineStr">
+        <is>
+          <t>UDV639</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>B347208</t>
         </is>
       </c>
     </row>
@@ -26179,57 +26204,123 @@
         </is>
       </c>
       <c r="C287" t="n">
+        <v>234</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>YAEL ROMERO DE DIOS</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>RODY940625HYNMSL01</t>
+        </is>
+      </c>
+      <c r="F287" s="4" t="inlineStr">
+        <is>
+          <t>'9995287779</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>licyaelromero@gmail.com</t>
+        </is>
+      </c>
+      <c r="H287" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Calle 111 No 514 x 132 y 134A</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Fraccionamiento los Héroes.</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Mérida</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>YUCATÁN</t>
+        </is>
+      </c>
+      <c r="M287" s="4" t="inlineStr">
+        <is>
+          <t>'97114</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>738</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
         <v>235</v>
       </c>
-      <c r="D287" t="inlineStr">
+      <c r="D288" t="inlineStr">
         <is>
           <t>AIMEE GOMEZ MENDOZA</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>GOMA940118MVZMNM00</t>
         </is>
       </c>
-      <c r="F287" s="4" t="inlineStr">
+      <c r="F288" s="4" t="inlineStr">
         <is>
           <t>'9997300081</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>aimeegomez615@gmail.com</t>
         </is>
       </c>
-      <c r="H287" s="2" t="n">
+      <c r="H288" s="2" t="n">
         <v>46006</v>
       </c>
-      <c r="I287" t="inlineStr">
+      <c r="I288" t="inlineStr">
         <is>
           <t>C 63 D POR 88 TAB 42155</t>
         </is>
       </c>
-      <c r="J287" t="inlineStr">
+      <c r="J288" t="inlineStr">
         <is>
           <t>LOC DZITYA</t>
         </is>
       </c>
-      <c r="K287" t="inlineStr">
+      <c r="K288" t="inlineStr">
         <is>
           <t>Mérida</t>
         </is>
       </c>
-      <c r="L287" t="inlineStr">
+      <c r="L288" t="inlineStr">
         <is>
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M287" s="4" t="inlineStr">
+      <c r="M288" s="4" t="inlineStr">
         <is>
           <t>'97302</t>
         </is>
       </c>
-      <c r="N287" t="inlineStr">
+      <c r="N288" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -25947,12 +25947,12 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>.40 S&amp;W</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr">

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S288"/>
+  <dimension ref="A1:S289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17326,44 +17326,44 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>J. JESÚS VALENCIA ROJAS</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>VARJ861111HMNLJS03</t>
         </is>
       </c>
       <c r="F187" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9971248940</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>valenciarojasjjesus@gmail.com</t>
         </is>
       </c>
       <c r="H187" s="2" t="n">
-        <v>44544</v>
+        <v>44799</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 26 S/N x 53 y 55</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>TEKAX DE ALVARO OBREGON</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="M187" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97970</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -17383,27 +17383,27 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>GRAND POWER</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="Q187" s="4" t="inlineStr">
         <is>
-          <t>P380</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="R187" s="3" t="inlineStr">
         <is>
-          <t>K084328</t>
+          <t>A88396</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>A3714371</t>
+          <t>A 3758538</t>
         </is>
       </c>
     </row>
@@ -17417,44 +17417,44 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>J. JESÚS VALENCIA ROJAS</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>VARJ861111HMNLJS03</t>
         </is>
       </c>
       <c r="F188" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9971248940</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>valenciarojasjjesus@gmail.com</t>
         </is>
       </c>
       <c r="H188" s="2" t="n">
-        <v>44544</v>
+        <v>44799</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 26 S/N x 53 y 55</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>TEKAX DE ALVARO OBREGON</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="M188" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97970</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -17474,27 +17474,27 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>.380" AUTO</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>GRAND POWER</t>
+          <t>BROWNING</t>
         </is>
       </c>
       <c r="Q188" s="4" t="inlineStr">
         <is>
-          <t>LP380</t>
+          <t>BUCK MARK</t>
         </is>
       </c>
       <c r="R188" s="3" t="inlineStr">
         <is>
-          <t>K078999</t>
+          <t>655RR11851</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>A 3601943</t>
+          <t>A 3758539</t>
         </is>
       </c>
     </row>
@@ -17508,44 +17508,44 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>J. JESÚS VALENCIA ROJAS</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>VARJ861111HMNLJS03</t>
         </is>
       </c>
       <c r="F189" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9971248940</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>valenciarojasjjesus@gmail.com</t>
         </is>
       </c>
       <c r="H189" s="2" t="n">
-        <v>44544</v>
+        <v>44799</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 26 S/N x 53 y 55</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>TEKAX DE ALVARO OBREGON</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -17555,37 +17555,37 @@
       </c>
       <c r="M189" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97970</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>.223" REM.</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>GRAND POWER</t>
+          <t>BENELLI</t>
         </is>
       </c>
       <c r="Q189" s="4" t="inlineStr">
         <is>
-          <t>K22 X-TRIM</t>
+          <t>MR1</t>
         </is>
       </c>
       <c r="R189" s="3" t="inlineStr">
         <is>
-          <t>K078928</t>
+          <t>BC003839</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>A 3601944</t>
+          <t>A 3761192</t>
         </is>
       </c>
     </row>
@@ -17599,44 +17599,44 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>BRAYER KERMITH VERDE CHIN</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>VECB750917HYNRHR03</t>
         </is>
       </c>
       <c r="F190" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9992247551</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>brayerbyv@gmail.com</t>
         </is>
       </c>
       <c r="H190" s="2" t="n">
-        <v>44544</v>
+        <v>45163</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 18-A x 31-D y 35</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>COL. NUEVA ALEMÁN</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -17646,37 +17646,37 @@
       </c>
       <c r="M190" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97146</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>20 GA</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>REMINGTON</t>
         </is>
       </c>
       <c r="Q190" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
+          <t>11-87 SPORTSMAN</t>
         </is>
       </c>
       <c r="R190" s="3" t="inlineStr">
         <is>
-          <t>DP25086</t>
+          <t>RS93764K</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>A 3782099</t>
+          <t>B 347235</t>
         </is>
       </c>
     </row>
@@ -17690,44 +17690,44 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>BRAYER KERMITH VERDE CHIN</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>VECB750917HYNRHR03</t>
         </is>
       </c>
       <c r="F191" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9992247551</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>brayerbyv@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="n">
-        <v>44544</v>
+        <v>45163</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 18-A x 31-D y 35</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>COL. NUEVA ALEMÁN</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -17737,37 +17737,35 @@
       </c>
       <c r="M191" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97146</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>0.22" HORNET</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>ZBROJOVKA BRNO</t>
         </is>
       </c>
       <c r="Q191" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
-        </is>
-      </c>
-      <c r="R191" s="3" t="inlineStr">
-        <is>
-          <t>DP25246</t>
-        </is>
+          <t>AZKW</t>
+        </is>
+      </c>
+      <c r="R191" s="3" t="n">
+        <v>21669</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>A 3792515</t>
+          <t>B 404869</t>
         </is>
       </c>
     </row>
@@ -17781,44 +17779,44 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>BRAYER KERMITH VERDE CHIN</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>VECB750917HYNRHR03</t>
         </is>
       </c>
       <c r="F192" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9992247551</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>brayerbyv@gmail.com</t>
         </is>
       </c>
       <c r="H192" s="2" t="n">
-        <v>44544</v>
+        <v>45163</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 18-A x 31-D y 35</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>COL. NUEVA ALEMÁN</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -17828,37 +17826,37 @@
       </c>
       <c r="M192" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97146</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>0.410"</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>RUGER</t>
+          <t>STEVENS</t>
         </is>
       </c>
       <c r="Q192" s="4" t="inlineStr">
         <is>
-          <t>10/22</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="R192" s="3" t="inlineStr">
         <is>
-          <t>0008-32069</t>
+          <t>775ND</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>A 3722288</t>
+          <t>A 3420280</t>
         </is>
       </c>
     </row>
@@ -17872,44 +17870,44 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>BRAYER KERMITH VERDE CHIN</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>VECB750917HYNRHR03</t>
         </is>
       </c>
       <c r="F193" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9992247551</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>brayerbyv@gmail.com</t>
         </is>
       </c>
       <c r="H193" s="2" t="n">
-        <v>44544</v>
+        <v>45163</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 18-A x 31-D y 35</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>COL. NUEVA ALEMÁN</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -17919,37 +17917,37 @@
       </c>
       <c r="M193" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97146</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>RIFE</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>.270" WIN</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>RUGER</t>
+          <t>WEATHERBY</t>
         </is>
       </c>
       <c r="Q193" s="4" t="inlineStr">
         <is>
-          <t>10/22</t>
+          <t>VANGUARD</t>
         </is>
       </c>
       <c r="R193" s="3" t="inlineStr">
         <is>
-          <t>0013-82505</t>
+          <t>VB181028</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>A 3605099</t>
+          <t>B 539965</t>
         </is>
       </c>
     </row>
@@ -17963,44 +17961,44 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>GANJ7408O7HDFRXQ04</t>
+          <t>MECR871030HYNNRG05</t>
         </is>
       </c>
       <c r="F194" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9991356502</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>jrgardoni@gmail.com</t>
+          <t>rafle_30@hotmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="n">
-        <v>44544</v>
+        <v>45336</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>AUSTRAL No. 35 KM. 15.5</t>
+          <t>C. 22C # 247 X 19</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>FRACC. COMPOSTELA XCANATUN</t>
+          <t>FRACC. ALTABRISA</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>CONKAL</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -18010,36 +18008,38 @@
       </c>
       <c r="M194" s="4" t="inlineStr">
         <is>
-          <t>'97345</t>
+          <t>'97130</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>REVOLVER</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>.38" SPL.</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>KRISS</t>
+          <t>SMITH &amp; WESSON</t>
         </is>
       </c>
       <c r="Q194" s="4" t="inlineStr">
         <is>
-          <t>DMK22C</t>
+          <t>SPRINGFIELD</t>
         </is>
       </c>
       <c r="R194" s="3" t="inlineStr">
         <is>
-          <t>22C002369</t>
-        </is>
-      </c>
-      <c r="S194" t="n">
-        <v>3722287</v>
+          <t>6K66706</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>A3658419</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -18052,44 +18052,44 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>J. JESÚS VALENCIA ROJAS</t>
+          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>VARJ861111HMNLJS03</t>
+          <t>MECR871030HYNNRG05</t>
         </is>
       </c>
       <c r="F195" s="4" t="inlineStr">
         <is>
-          <t>'9971248940</t>
+          <t>'9991356502</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>valenciarojasjjesus@gmail.com</t>
+          <t>rafle_30@hotmail.com</t>
         </is>
       </c>
       <c r="H195" s="2" t="n">
-        <v>44799</v>
+        <v>45336</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>C. 26 S/N x 53 y 55</t>
+          <t>C. 22C # 247 X 19</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>FRACC. ALTABRISA</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>TEKAX DE ALVARO OBREGON</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -18099,37 +18099,37 @@
       </c>
       <c r="M195" s="4" t="inlineStr">
         <is>
-          <t>'97970</t>
+          <t>'97130</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>SEARS</t>
         </is>
       </c>
       <c r="Q195" s="4" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>3T</t>
         </is>
       </c>
       <c r="R195" s="3" t="inlineStr">
         <is>
-          <t>A88396</t>
+          <t>H347416</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>A 3758538</t>
+          <t>A3557894</t>
         </is>
       </c>
     </row>
@@ -18143,44 +18143,44 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>J. JESÚS VALENCIA ROJAS</t>
+          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>VARJ861111HMNLJS03</t>
+          <t>MECR871030HYNNRG05</t>
         </is>
       </c>
       <c r="F196" s="4" t="inlineStr">
         <is>
-          <t>'9971248940</t>
+          <t>'9991356502</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>valenciarojasjjesus@gmail.com</t>
+          <t>rafle_30@hotmail.com</t>
         </is>
       </c>
       <c r="H196" s="2" t="n">
-        <v>44799</v>
+        <v>45336</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>C. 26 S/N x 53 y 55</t>
+          <t>C. 22C # 247 X 19</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>FRACC. ALTABRISA</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>TEKAX DE ALVARO OBREGON</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -18190,37 +18190,35 @@
       </c>
       <c r="M196" s="4" t="inlineStr">
         <is>
-          <t>'97970</t>
+          <t>'97130</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>.22" L.R.</t>
-        </is>
+          <t>ESCOPETA</t>
+        </is>
+      </c>
+      <c r="O196" t="n">
+        <v>12</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>WINCHESTER</t>
         </is>
       </c>
       <c r="Q196" s="4" t="inlineStr">
         <is>
-          <t>BUCK MARK</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R196" s="3" t="inlineStr">
         <is>
-          <t>655RR11851</t>
+          <t>W061106</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>A 3758539</t>
+          <t>B546460</t>
         </is>
       </c>
     </row>
@@ -18234,44 +18232,44 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>J. JESÚS VALENCIA ROJAS</t>
+          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>VARJ861111HMNLJS03</t>
+          <t>MECR871030HYNNRG05</t>
         </is>
       </c>
       <c r="F197" s="4" t="inlineStr">
         <is>
-          <t>'9971248940</t>
+          <t>'9991356502</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>valenciarojasjjesus@gmail.com</t>
+          <t>rafle_30@hotmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="n">
-        <v>44799</v>
+        <v>45336</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>C. 26 S/N x 53 y 55</t>
+          <t>C. 22C # 247 X 19</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>FRACC. ALTABRISA</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>TEKAX DE ALVARO OBREGON</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -18281,37 +18279,37 @@
       </c>
       <c r="M197" s="4" t="inlineStr">
         <is>
-          <t>'97970</t>
+          <t>'97130</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>.223" REM.</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>BENELLI</t>
+          <t>STEVENS</t>
         </is>
       </c>
       <c r="Q197" s="4" t="inlineStr">
         <is>
-          <t>MR1</t>
+          <t>311</t>
         </is>
       </c>
       <c r="R197" s="3" t="inlineStr">
         <is>
-          <t>BC003839</t>
+          <t>C284992</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>A 3761192</t>
+          <t>A3555955</t>
         </is>
       </c>
     </row>
@@ -18325,39 +18323,39 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>BRAYER KERMITH VERDE CHIN</t>
+          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>VECB750917HYNRHR03</t>
+          <t>MECR871030HYNNRG05</t>
         </is>
       </c>
       <c r="F198" s="4" t="inlineStr">
         <is>
-          <t>'9992247551</t>
+          <t>'9991356502</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>brayerbyv@gmail.com</t>
+          <t>rafle_30@hotmail.com</t>
         </is>
       </c>
       <c r="H198" s="2" t="n">
-        <v>45163</v>
+        <v>45336</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>C. 18-A x 31-D y 35</t>
+          <t>C. 22C # 247 X 19</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>COL. NUEVA ALEMÁN</t>
+          <t>FRACC. ALTABRISA</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -18372,7 +18370,7 @@
       </c>
       <c r="M198" s="4" t="inlineStr">
         <is>
-          <t>'97146</t>
+          <t>'97130</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -18382,27 +18380,27 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>20 GA</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>REMINGTON</t>
+          <t>STEVENS</t>
         </is>
       </c>
       <c r="Q198" s="4" t="inlineStr">
         <is>
-          <t>11-87 SPORTSMAN</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R198" s="3" t="inlineStr">
         <is>
-          <t>RS93764K</t>
+          <t>D040153</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>B 347235</t>
+          <t>A3557896</t>
         </is>
       </c>
     </row>
@@ -18416,39 +18414,39 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>BRAYER KERMITH VERDE CHIN</t>
+          <t>MANUEL JESUS TZAB CHUC</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>VECB750917HYNRHR03</t>
+          <t>TACM750410HYNZHN05</t>
         </is>
       </c>
       <c r="F199" s="4" t="inlineStr">
         <is>
-          <t>'9992247551</t>
+          <t>'9991518266</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>brayerbyv@gmail.com</t>
+          <t>mjtzab@yahoo.com</t>
         </is>
       </c>
       <c r="H199" s="2" t="n">
-        <v>45163</v>
+        <v>45346</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>C. 18-A x 31-D y 35</t>
+          <t>C. 103 # 624 X 142 Y 144</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>COL. NUEVA ALEMÁN</t>
+          <t>FRACC. LOS HEROES. MÉRIDA</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -18463,35 +18461,37 @@
       </c>
       <c r="M199" s="4" t="inlineStr">
         <is>
-          <t>'97146</t>
+          <t>'97306</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>ESCOPETA SEMIAUTOMATICA</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>0.22" HORNET</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>ZBROJOVKA BRNO</t>
+          <t>MOSSBERG</t>
         </is>
       </c>
       <c r="Q199" s="4" t="inlineStr">
         <is>
-          <t>AZKW</t>
-        </is>
-      </c>
-      <c r="R199" s="3" t="n">
-        <v>21669</v>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="R199" s="3" t="inlineStr">
+        <is>
+          <t>AF0056147</t>
+        </is>
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>B 404869</t>
+          <t>A3771503</t>
         </is>
       </c>
     </row>
@@ -18505,39 +18505,39 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>BRAYER KERMITH VERDE CHIN</t>
+          <t>MANUEL JESUS TZAB CHUC</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>VECB750917HYNRHR03</t>
+          <t>TACM750410HYNZHN05</t>
         </is>
       </c>
       <c r="F200" s="4" t="inlineStr">
         <is>
-          <t>'9992247551</t>
+          <t>'9991518266</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>brayerbyv@gmail.com</t>
+          <t>mjtzab@yahoo.com</t>
         </is>
       </c>
       <c r="H200" s="2" t="n">
-        <v>45163</v>
+        <v>45346</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>C. 18-A x 31-D y 35</t>
+          <t>C. 103 # 624 X 142 Y 144</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>COL. NUEVA ALEMÁN</t>
+          <t>FRACC. LOS HEROES. MÉRIDA</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -18552,37 +18552,37 @@
       </c>
       <c r="M200" s="4" t="inlineStr">
         <is>
-          <t>'97146</t>
+          <t>'97306</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>ESCOPETA SEMIAUTOMATICA</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>0.410"</t>
+          <t>20 GA</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>STEVENS</t>
+          <t>MOSSBERG</t>
         </is>
       </c>
       <c r="Q200" s="4" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SA-20</t>
         </is>
       </c>
       <c r="R200" s="3" t="inlineStr">
         <is>
-          <t>775ND</t>
+          <t>KA39879</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>A 3420280</t>
+          <t>A3771504</t>
         </is>
       </c>
     </row>
@@ -18596,39 +18596,39 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>BRAYER KERMITH VERDE CHIN</t>
+          <t>MANUEL JESUS TZAB CHUC</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>VECB750917HYNRHR03</t>
+          <t>TACM750410HYNZHN05</t>
         </is>
       </c>
       <c r="F201" s="4" t="inlineStr">
         <is>
-          <t>'9992247551</t>
+          <t>'9991518266</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>brayerbyv@gmail.com</t>
+          <t>mjtzab@yahoo.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="n">
-        <v>45163</v>
+        <v>45346</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>C. 18-A x 31-D y 35</t>
+          <t>C. 103 # 624 X 142 Y 144</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>COL. NUEVA ALEMÁN</t>
+          <t>FRACC. LOS HEROES. MÉRIDA</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -18643,37 +18643,37 @@
       </c>
       <c r="M201" s="4" t="inlineStr">
         <is>
-          <t>'97146</t>
+          <t>'97306</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>RIFE</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>.270" WIN</t>
+          <t>.22"</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>WEATHERBY</t>
+          <t>SIG SAUER</t>
         </is>
       </c>
       <c r="Q201" s="4" t="inlineStr">
         <is>
-          <t>VANGUARD</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="R201" s="3" t="inlineStr">
         <is>
-          <t>VB181028</t>
+          <t>73A076600</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>B 539965</t>
+          <t>A3788078</t>
         </is>
       </c>
     </row>
@@ -18687,39 +18687,39 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
+          <t>ARIEL ANTONIO PAREDES CETINA</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MECR871030HYNNRG05</t>
+          <t>PACA840803HYNRTR08</t>
         </is>
       </c>
       <c r="F202" s="4" t="inlineStr">
         <is>
-          <t>'9991356502</t>
+          <t>'9994912883</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>rafle_30@hotmail.com</t>
+          <t>lic.arielparedescetina@hotmail.com</t>
         </is>
       </c>
       <c r="H202" s="2" t="n">
-        <v>45336</v>
+        <v>45350</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>C. 22C # 247 X 19</t>
+          <t>CALLE 129 NO. 584 X 138 Y 140</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>FRACC. ALTABRISA</t>
+          <t>FRACC LOS HEROES MÉRIDA</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -18734,37 +18734,37 @@
       </c>
       <c r="M202" s="4" t="inlineStr">
         <is>
-          <t>'97130</t>
+          <t>'97306</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>REVOLVER</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>.38" SPL.</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>SMITH &amp; WESSON</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q202" s="4" t="inlineStr">
         <is>
-          <t>SPRINGFIELD</t>
+          <t>CZ SHADOW 2</t>
         </is>
       </c>
       <c r="R202" s="3" t="inlineStr">
         <is>
-          <t>6K66706</t>
+          <t>FP39978</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>A3658419</t>
+          <t>A3897242</t>
         </is>
       </c>
     </row>
@@ -18778,39 +18778,39 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
+          <t>ARIEL ANTONIO PAREDES CETINA</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>MECR871030HYNNRG05</t>
+          <t>PACA840803HYNRTR08</t>
         </is>
       </c>
       <c r="F203" s="4" t="inlineStr">
         <is>
-          <t>'9991356502</t>
+          <t>'9994912883</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>rafle_30@hotmail.com</t>
+          <t>lic.arielparedescetina@hotmail.com</t>
         </is>
       </c>
       <c r="H203" s="2" t="n">
-        <v>45336</v>
+        <v>45350</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>C. 22C # 247 X 19</t>
+          <t>CALLE 129 NO. 584 X 138 Y 140</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>FRACC. ALTABRISA</t>
+          <t>FRACC LOS HEROES MÉRIDA</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -18825,37 +18825,37 @@
       </c>
       <c r="M203" s="4" t="inlineStr">
         <is>
-          <t>'97130</t>
+          <t>'97306</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>SEARS</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q203" s="4" t="inlineStr">
         <is>
-          <t>3T</t>
+          <t>CZ SHADOW 2</t>
         </is>
       </c>
       <c r="R203" s="3" t="inlineStr">
         <is>
-          <t>H347416</t>
+          <t>FP39973</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>A3557894</t>
+          <t>A3897243</t>
         </is>
       </c>
     </row>
@@ -18869,39 +18869,39 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
+          <t>ARIEL ANTONIO PAREDES CETINA</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>MECR871030HYNNRG05</t>
+          <t>PACA840803HYNRTR08</t>
         </is>
       </c>
       <c r="F204" s="4" t="inlineStr">
         <is>
-          <t>'9991356502</t>
+          <t>'9994912883</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>rafle_30@hotmail.com</t>
+          <t>lic.arielparedescetina@hotmail.com</t>
         </is>
       </c>
       <c r="H204" s="2" t="n">
-        <v>45336</v>
+        <v>45350</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>C. 22C # 247 X 19</t>
+          <t>CALLE 129 NO. 584 X 138 Y 140</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>FRACC. ALTABRISA</t>
+          <t>FRACC LOS HEROES MÉRIDA</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18916,35 +18916,37 @@
       </c>
       <c r="M204" s="4" t="inlineStr">
         <is>
-          <t>'97130</t>
+          <t>'97306</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
-        </is>
-      </c>
-      <c r="O204" t="n">
-        <v>12</v>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>.380"</t>
+        </is>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>WINCHESTER</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q204" s="4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>CZ P-10 C</t>
         </is>
       </c>
       <c r="R204" s="3" t="inlineStr">
         <is>
-          <t>W061106</t>
+          <t>EP29318</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>B546460</t>
+          <t>A3897245</t>
         </is>
       </c>
     </row>
@@ -18958,39 +18960,39 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
+          <t>RICARDO ERNESTO CASTILLO MANCERA</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MECR871030HYNNRG05</t>
+          <t>CAMR840315HYNSNC08</t>
         </is>
       </c>
       <c r="F205" s="4" t="inlineStr">
         <is>
-          <t>'9991356502</t>
+          <t>'9901011913</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>rafle_30@hotmail.com</t>
+          <t>dr.ricardocastillo@me.com</t>
         </is>
       </c>
       <c r="H205" s="2" t="n">
-        <v>45336</v>
+        <v>45413</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>C. 22C # 247 X 19</t>
+          <t>CARR MÉRIDA PROGRESO KM 10.5 TABLAJE 19153</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>FRACC. ALTABRISA</t>
+          <t>TEMOZON NORTE</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -19005,37 +19007,37 @@
       </c>
       <c r="M205" s="4" t="inlineStr">
         <is>
-          <t>'97130</t>
+          <t>'97300</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>STEVENS</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q205" s="4" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>CZ SHADOW 2</t>
         </is>
       </c>
       <c r="R205" s="3" t="inlineStr">
         <is>
-          <t>C284992</t>
+          <t>EP34718</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>A3555955</t>
+          <t>A3880033</t>
         </is>
       </c>
     </row>
@@ -19049,39 +19051,39 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ROGER IRÁN MÉNDEZ CARRILLO</t>
+          <t>RICARDO ERNESTO CASTILLO MANCERA</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MECR871030HYNNRG05</t>
+          <t>CAMR840315HYNSNC08</t>
         </is>
       </c>
       <c r="F206" s="4" t="inlineStr">
         <is>
-          <t>'9991356502</t>
+          <t>'9901011913</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>rafle_30@hotmail.com</t>
+          <t>dr.ricardocastillo@me.com</t>
         </is>
       </c>
       <c r="H206" s="2" t="n">
-        <v>45336</v>
+        <v>45413</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>C. 22C # 247 X 19</t>
+          <t>CARR MÉRIDA PROGRESO KM 10.5 TABLAJE 19153</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>FRACC. ALTABRISA</t>
+          <t>TEMOZON NORTE</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -19096,37 +19098,37 @@
       </c>
       <c r="M206" s="4" t="inlineStr">
         <is>
-          <t>'97130</t>
+          <t>'97300</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.22"</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>STEVENS</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="Q206" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>CZ 457</t>
         </is>
       </c>
       <c r="R206" s="3" t="inlineStr">
         <is>
-          <t>D040153</t>
+          <t>H228675</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>A3557896</t>
+          <t>A3880038</t>
         </is>
       </c>
     </row>
@@ -19140,39 +19142,39 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>MANUEL JESUS TZAB CHUC</t>
+          <t>EDGARDO RAUL GÓMEZ ARZAMENDI</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>TACM750410HYNZHN05</t>
+          <t>GOAE840623HYNMRD00</t>
         </is>
       </c>
       <c r="F207" s="4" t="inlineStr">
         <is>
-          <t>'9991518266</t>
+          <t>'9991450399</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>mjtzab@yahoo.com</t>
+          <t>cpedgardo_gomez@hotmail.com</t>
         </is>
       </c>
       <c r="H207" s="2" t="n">
-        <v>45346</v>
+        <v>45413</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>C. 103 # 624 X 142 Y 144</t>
+          <t>CALLE 7 NO 567 X 66 Y 68</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>FRACC. LOS HEROES. MÉRIDA</t>
+          <t>PENSIONES</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -19182,42 +19184,17 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>MÉXICO</t>
         </is>
       </c>
       <c r="M207" s="4" t="inlineStr">
         <is>
-          <t>'97306</t>
+          <t>'97217</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>ESCOPETA SEMIAUTOMATICA</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>12 GA</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>MOSSBERG</t>
-        </is>
-      </c>
-      <c r="Q207" s="4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="R207" s="3" t="inlineStr">
-        <is>
-          <t>AF0056147</t>
-        </is>
-      </c>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>A3771503</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19231,39 +19208,39 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>MANUEL JESUS TZAB CHUC</t>
+          <t>MARIA DOLORES DAVIS BETANZOS</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>TACM750410HYNZHN05</t>
+          <t>DABD900923MDFVTL03</t>
         </is>
       </c>
       <c r="F208" s="4" t="inlineStr">
         <is>
-          <t>'9991518266</t>
+          <t>'5543900616</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>mjtzab@yahoo.com</t>
+          <t>lolita@concepthaus.mx</t>
         </is>
       </c>
       <c r="H208" s="2" t="n">
-        <v>45346</v>
+        <v>45439</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>C. 103 # 624 X 142 Y 144</t>
+          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>FRACC. LOS HEROES. MÉRIDA</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -19278,37 +19255,35 @@
       </c>
       <c r="M208" s="4" t="inlineStr">
         <is>
-          <t>'97306</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>ESCOPETA SEMIAUTOMATICA</t>
+          <t>RIFLE DE REPETICIÓN</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>20 GA</t>
+          <t>25-35</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>MOSSBERG</t>
+          <t>WINCHESTER</t>
         </is>
       </c>
       <c r="Q208" s="4" t="inlineStr">
         <is>
-          <t>SA-20</t>
-        </is>
-      </c>
-      <c r="R208" s="3" t="inlineStr">
-        <is>
-          <t>KA39879</t>
-        </is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="R208" s="3" t="n">
+        <v>373343</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>A3771504</t>
+          <t>B612055</t>
         </is>
       </c>
     </row>
@@ -19322,39 +19297,39 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>MANUEL JESUS TZAB CHUC</t>
+          <t>MARIA DOLORES DAVIS BETANZOS</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>TACM750410HYNZHN05</t>
+          <t>DABD900923MDFVTL03</t>
         </is>
       </c>
       <c r="F209" s="4" t="inlineStr">
         <is>
-          <t>'9991518266</t>
+          <t>'5543900616</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>mjtzab@yahoo.com</t>
+          <t>lolita@concepthaus.mx</t>
         </is>
       </c>
       <c r="H209" s="2" t="n">
-        <v>45346</v>
+        <v>45439</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>C. 103 # 624 X 142 Y 144</t>
+          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>FRACC. LOS HEROES. MÉRIDA</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -19369,7 +19344,7 @@
       </c>
       <c r="M209" s="4" t="inlineStr">
         <is>
-          <t>'97306</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -19379,27 +19354,27 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>.22"</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>SIG SAUER</t>
+          <t>COLT</t>
         </is>
       </c>
       <c r="Q209" s="4" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>GOVERNMENT</t>
         </is>
       </c>
       <c r="R209" s="3" t="inlineStr">
         <is>
-          <t>73A076600</t>
+          <t>70S22023</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>A3788078</t>
+          <t>B612056</t>
         </is>
       </c>
     </row>
@@ -19413,39 +19388,39 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ARIEL ANTONIO PAREDES CETINA</t>
+          <t>MARIA DOLORES DAVIS BETANZOS</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PACA840803HYNRTR08</t>
+          <t>DABD900923MDFVTL03</t>
         </is>
       </c>
       <c r="F210" s="4" t="inlineStr">
         <is>
-          <t>'9994912883</t>
+          <t>'5543900616</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>lic.arielparedescetina@hotmail.com</t>
+          <t>lolita@concepthaus.mx</t>
         </is>
       </c>
       <c r="H210" s="2" t="n">
-        <v>45350</v>
+        <v>45439</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>CALLE 129 NO. 584 X 138 Y 140</t>
+          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>FRACC LOS HEROES MÉRIDA</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -19460,37 +19435,37 @@
       </c>
       <c r="M210" s="4" t="inlineStr">
         <is>
-          <t>'97306</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE SEMI-AUTOM ÁTICO</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>REMINGTON</t>
         </is>
       </c>
       <c r="Q210" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
+          <t>552</t>
         </is>
       </c>
       <c r="R210" s="3" t="inlineStr">
         <is>
-          <t>FP39978</t>
+          <t>A1790332</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>A3897242</t>
+          <t>B612057</t>
         </is>
       </c>
     </row>
@@ -19504,39 +19479,39 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>ARIEL ANTONIO PAREDES CETINA</t>
+          <t>MARIA DOLORES DAVIS BETANZOS</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PACA840803HYNRTR08</t>
+          <t>DABD900923MDFVTL03</t>
         </is>
       </c>
       <c r="F211" s="4" t="inlineStr">
         <is>
-          <t>'9994912883</t>
+          <t>'5543900616</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>lic.arielparedescetina@hotmail.com</t>
+          <t>lolita@concepthaus.mx</t>
         </is>
       </c>
       <c r="H211" s="2" t="n">
-        <v>45350</v>
+        <v>45439</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>CALLE 129 NO. 584 X 138 Y 140</t>
+          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>FRACC LOS HEROES MÉRIDA</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -19551,37 +19526,35 @@
       </c>
       <c r="M211" s="4" t="inlineStr">
         <is>
-          <t>'97306</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA DOS CAÑONES</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>16 GA</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>BERETTA</t>
         </is>
       </c>
       <c r="Q211" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
-        </is>
-      </c>
-      <c r="R211" s="3" t="inlineStr">
-        <is>
-          <t>FP39973</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R211" s="3" t="n">
+        <v>92070</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>A3897243</t>
+          <t>B612058</t>
         </is>
       </c>
     </row>
@@ -19595,39 +19568,39 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>ARIEL ANTONIO PAREDES CETINA</t>
+          <t>MARIA DOLORES DAVIS BETANZOS</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PACA840803HYNRTR08</t>
+          <t>DABD900923MDFVTL03</t>
         </is>
       </c>
       <c r="F212" s="4" t="inlineStr">
         <is>
-          <t>'9994912883</t>
+          <t>'5543900616</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>lic.arielparedescetina@hotmail.com</t>
+          <t>lolita@concepthaus.mx</t>
         </is>
       </c>
       <c r="H212" s="2" t="n">
-        <v>45350</v>
+        <v>45439</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>CALLE 129 NO. 584 X 138 Y 140</t>
+          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>FRACC LOS HEROES MÉRIDA</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -19642,37 +19615,37 @@
       </c>
       <c r="M212" s="4" t="inlineStr">
         <is>
-          <t>'97306</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE DE REPETICIÓN</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>.243" WIN</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>SAVAGE</t>
         </is>
       </c>
       <c r="Q212" s="4" t="inlineStr">
         <is>
-          <t>CZ P-10 C</t>
+          <t>110</t>
         </is>
       </c>
       <c r="R212" s="3" t="inlineStr">
         <is>
-          <t>EP29318</t>
+          <t>C347639</t>
         </is>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>A3897245</t>
+          <t>B612060</t>
         </is>
       </c>
     </row>
@@ -19686,39 +19659,39 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>RICARDO ERNESTO CASTILLO MANCERA</t>
+          <t>SANTIAGO LAMAS RINGENBACH</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>CAMR840315HYNSNC08</t>
+          <t>LARS970906HYNMNN09</t>
         </is>
       </c>
       <c r="F213" s="4" t="inlineStr">
         <is>
-          <t>'9901011913</t>
+          <t>'9993359825</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>dr.ricardocastillo@me.com</t>
+          <t>santiago100100@hotmail.com</t>
         </is>
       </c>
       <c r="H213" s="2" t="n">
-        <v>45413</v>
+        <v>45439</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>CARR MÉRIDA PROGRESO KM 10.5 TABLAJE 19153</t>
+          <t>CALLE 22 X 15 # 94-A</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>TEMOZON NORTE</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -19733,37 +19706,37 @@
       </c>
       <c r="M213" s="4" t="inlineStr">
         <is>
-          <t>'97300</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>ATA ARMS</t>
         </is>
       </c>
       <c r="Q213" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
+          <t>MAX 5</t>
         </is>
       </c>
       <c r="R213" s="3" t="inlineStr">
         <is>
-          <t>EP34718</t>
+          <t>16/D09919</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>A3880033</t>
+          <t>B 613229</t>
         </is>
       </c>
     </row>
@@ -19777,39 +19750,39 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>RICARDO ERNESTO CASTILLO MANCERA</t>
+          <t>SANTIAGO LAMAS RINGENBACH</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>CAMR840315HYNSNC08</t>
+          <t>LARS970906HYNMNN09</t>
         </is>
       </c>
       <c r="F214" s="4" t="inlineStr">
         <is>
-          <t>'9901011913</t>
+          <t>'9993359825</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>dr.ricardocastillo@me.com</t>
+          <t>santiago100100@hotmail.com</t>
         </is>
       </c>
       <c r="H214" s="2" t="n">
-        <v>45413</v>
+        <v>45439</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>CARR MÉRIDA PROGRESO KM 10.5 TABLAJE 19153</t>
+          <t>CALLE 22 X 15 # 94-A</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>TEMOZON NORTE</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -19824,37 +19797,37 @@
       </c>
       <c r="M214" s="4" t="inlineStr">
         <is>
-          <t>'97300</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>.22"</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>BROWNING</t>
         </is>
       </c>
       <c r="Q214" s="4" t="inlineStr">
         <is>
-          <t>CZ 457</t>
+          <t>WHITE LIGHTNING</t>
         </is>
       </c>
       <c r="R214" s="3" t="inlineStr">
         <is>
-          <t>H228675</t>
+          <t>10847MN</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>A3880038</t>
+          <t>B 613225</t>
         </is>
       </c>
     </row>
@@ -19868,39 +19841,39 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>EDGARDO RAUL GÓMEZ ARZAMENDI</t>
+          <t>SANTIAGO LAMAS RINGENBACH</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>GOAE840623HYNMRD00</t>
+          <t>LARS970906HYNMNN09</t>
         </is>
       </c>
       <c r="F215" s="4" t="inlineStr">
         <is>
-          <t>'9991450399</t>
+          <t>'9993359825</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>cpedgardo_gomez@hotmail.com</t>
+          <t>santiago100100@hotmail.com</t>
         </is>
       </c>
       <c r="H215" s="2" t="n">
-        <v>45413</v>
+        <v>45439</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>CALLE 7 NO 567 X 66 Y 68</t>
+          <t>CALLE 22 X 15 # 94-A</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>PENSIONES</t>
+          <t>CHOLUL</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -19910,17 +19883,42 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>MÉXICO</t>
+          <t>YUCATÁN</t>
         </is>
       </c>
       <c r="M215" s="4" t="inlineStr">
         <is>
-          <t>'97217</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ESCOPETA</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>12 GA</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>BROWNING</t>
+        </is>
+      </c>
+      <c r="Q215" s="4" t="inlineStr">
+        <is>
+          <t>MAXUS</t>
+        </is>
+      </c>
+      <c r="R215" s="3" t="inlineStr">
+        <is>
+          <t>115ZM17757</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>B 613228</t>
         </is>
       </c>
     </row>
@@ -19934,26 +19932,26 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>MARIA DOLORES DAVIS BETANZOS</t>
+          <t>SANTIAGO LAMAS RINGENBACH</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>DABD900923MDFVTL03</t>
+          <t>LARS970906HYNMNN09</t>
         </is>
       </c>
       <c r="F216" s="4" t="inlineStr">
         <is>
-          <t>'5543900616</t>
+          <t>'9993359825</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>lolita@concepthaus.mx</t>
+          <t>santiago100100@hotmail.com</t>
         </is>
       </c>
       <c r="H216" s="2" t="n">
@@ -19961,7 +19959,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
+          <t>CALLE 22 X 15 # 94-A</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -19986,30 +19984,32 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>RIFLE DE REPETICIÓN</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>25-35</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>WINCHESTER</t>
+          <t>BROWNING</t>
         </is>
       </c>
       <c r="Q216" s="4" t="inlineStr">
         <is>
-          <t>1894</t>
-        </is>
-      </c>
-      <c r="R216" s="3" t="n">
-        <v>373343</v>
+          <t>FUSION EVOLVE</t>
+        </is>
+      </c>
+      <c r="R216" s="3" t="inlineStr">
+        <is>
+          <t>113MP16287</t>
+        </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>B612055</t>
+          <t>B 613227</t>
         </is>
       </c>
     </row>
@@ -20023,26 +20023,26 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>MARIA DOLORES DAVIS BETANZOS</t>
+          <t>SANTIAGO LAMAS RINGENBACH</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>DABD900923MDFVTL03</t>
+          <t>LARS970906HYNMNN09</t>
         </is>
       </c>
       <c r="F217" s="4" t="inlineStr">
         <is>
-          <t>'5543900616</t>
+          <t>'9993359825</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>lolita@concepthaus.mx</t>
+          <t>santiago100100@hotmail.com</t>
         </is>
       </c>
       <c r="H217" s="2" t="n">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
+          <t>CALLE 22 X 15 # 94-A</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -20075,32 +20075,32 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>20 GA</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>COLT</t>
+          <t>BROWNING</t>
         </is>
       </c>
       <c r="Q217" s="4" t="inlineStr">
         <is>
-          <t>GOVERNMENT</t>
+          <t>SILVER HUNTER</t>
         </is>
       </c>
       <c r="R217" s="3" t="inlineStr">
         <is>
-          <t>70S22023</t>
+          <t>114ZM05238</t>
         </is>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>B612056</t>
+          <t>B 613226</t>
         </is>
       </c>
     </row>
@@ -20114,26 +20114,26 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>MARIA DOLORES DAVIS BETANZOS</t>
+          <t>SANTIAGO LAMAS RINGENBACH</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>DABD900923MDFVTL03</t>
+          <t>LARS970906HYNMNN09</t>
         </is>
       </c>
       <c r="F218" s="4" t="inlineStr">
         <is>
-          <t>'5543900616</t>
+          <t>'9993359825</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>lolita@concepthaus.mx</t>
+          <t>santiago100100@hotmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="n">
@@ -20141,7 +20141,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
+          <t>CALLE 22 X 15 # 94-A</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -20166,32 +20166,32 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>RIFLE SEMI-AUTOM ÁTICO</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>0.22"</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>REMINGTON</t>
+          <t>COLT</t>
         </is>
       </c>
       <c r="Q218" s="4" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>WOODSMAN</t>
         </is>
       </c>
       <c r="R218" s="3" t="inlineStr">
         <is>
-          <t>A1790332</t>
+          <t>32288-S</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>B612057</t>
+          <t>B 612475</t>
         </is>
       </c>
     </row>
@@ -20205,26 +20205,26 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>MARIA DOLORES DAVIS BETANZOS</t>
+          <t>ERNESTO GONZALEZ PICCOLO</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>DABD900923MDFVTL03</t>
+          <t>GOPE850306HDFNCR03</t>
         </is>
       </c>
       <c r="F219" s="4" t="inlineStr">
         <is>
-          <t>'5543900616</t>
+          <t>'9995328570</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>lolita@concepthaus.mx</t>
+          <t>egpiccolo@gmail.com</t>
         </is>
       </c>
       <c r="H219" s="2" t="n">
@@ -20232,12 +20232,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
+          <t>C 40 POR 67 Y 69 234</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>COL MONTES DE AME</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -20252,35 +20252,35 @@
       </c>
       <c r="M219" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97115</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>ESCOPETA DOS CAÑONES</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>16 GA</t>
+          <t>0.22"</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>BERETTA</t>
+          <t>STAR</t>
         </is>
       </c>
       <c r="Q219" s="4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="R219" s="3" t="n">
-        <v>92070</v>
+        <v>808223</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>B612058</t>
+          <t>A 3862440</t>
         </is>
       </c>
     </row>
@@ -20294,26 +20294,26 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>MARIA DOLORES DAVIS BETANZOS</t>
+          <t>ERNESTO GONZALEZ PICCOLO</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>DABD900923MDFVTL03</t>
+          <t>GOPE850306HDFNCR03</t>
         </is>
       </c>
       <c r="F220" s="4" t="inlineStr">
         <is>
-          <t>'5543900616</t>
+          <t>'9995328570</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>lolita@concepthaus.mx</t>
+          <t>egpiccolo@gmail.com</t>
         </is>
       </c>
       <c r="H220" s="2" t="n">
@@ -20321,12 +20321,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>TABLAJE 13037 DEPTO 19 19 GRAND VIEW 6 Y 8</t>
+          <t>C 40 POR 67 Y 69 234</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>COL MONTES DE AME</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -20341,37 +20341,37 @@
       </c>
       <c r="M220" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97115</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>RIFLE DE REPETICIÓN</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>.243" WIN</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>SAVAGE</t>
+          <t>REMINGTON</t>
         </is>
       </c>
       <c r="Q220" s="4" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>SPR310</t>
         </is>
       </c>
       <c r="R220" s="3" t="inlineStr">
         <is>
-          <t>C347639</t>
+          <t>06277749  R</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>B612060</t>
+          <t>B 613230</t>
         </is>
       </c>
     </row>
@@ -20385,26 +20385,26 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>SANTIAGO LAMAS RINGENBACH</t>
+          <t>ERNESTO GONZALEZ PICCOLO</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>LARS970906HYNMNN09</t>
+          <t>GOPE850306HDFNCR03</t>
         </is>
       </c>
       <c r="F221" s="4" t="inlineStr">
         <is>
-          <t>'9993359825</t>
+          <t>'9995328570</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>santiago100100@hotmail.com</t>
+          <t>egpiccolo@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="n">
@@ -20412,12 +20412,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>CALLE 22 X 15 # 94-A</t>
+          <t>C 40 POR 67 Y 69 234</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>COL MONTES DE AME</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -20432,12 +20432,12 @@
       </c>
       <c r="M221" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97115</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>ESCOPETA DOS CAÑONES</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -20447,22 +20447,22 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>ATA ARMS</t>
+          <t>BROWNING</t>
         </is>
       </c>
       <c r="Q221" s="4" t="inlineStr">
         <is>
-          <t>MAX 5</t>
+          <t>CITORI</t>
         </is>
       </c>
       <c r="R221" s="3" t="inlineStr">
         <is>
-          <t>16/D09919</t>
+          <t>108664PT153</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>B 613229</t>
+          <t>B612059</t>
         </is>
       </c>
     </row>
@@ -20476,84 +20476,84 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>SANTIAGO LAMAS RINGENBACH</t>
+          <t>GERARDO ANTONIO FERNÁNDEZ QUIJANO</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>LARS970906HYNMNN09</t>
+          <t>FEQG630819HCCRJR06</t>
         </is>
       </c>
       <c r="F222" s="4" t="inlineStr">
         <is>
-          <t>'9993359825</t>
+          <t>'9811204947</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>santiago100100@hotmail.com</t>
+          <t>gfernandez63@gmail.com</t>
         </is>
       </c>
       <c r="H222" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>CALLE 22 X 15 # 94-A</t>
+          <t>Circuito Pablo García Oeste # 2 esquina con Eduardo Lavalle.</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>Ciudad Concordia</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>CAMPECHE</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>CAMPECHE</t>
         </is>
       </c>
       <c r="M222" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'24085</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>0.380" ACP.</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>GRAND POWER</t>
         </is>
       </c>
       <c r="Q222" s="4" t="inlineStr">
         <is>
-          <t>WHITE LIGHTNING</t>
+          <t>ROXOR</t>
         </is>
       </c>
       <c r="R222" s="3" t="inlineStr">
         <is>
-          <t>10847MN</t>
+          <t>K078901</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>B 613225</t>
+          <t>B 612621</t>
         </is>
       </c>
     </row>
@@ -20567,39 +20567,39 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>SANTIAGO LAMAS RINGENBACH</t>
+          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>LARS970906HYNMNN09</t>
+          <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
       <c r="F223" s="4" t="inlineStr">
         <is>
-          <t>'9993359825</t>
+          <t>'9993940909</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>santiago100100@hotmail.com</t>
+          <t>ridesquens@yahoo.com.mx</t>
         </is>
       </c>
       <c r="H223" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>CALLE 22 X 15 # 94-A</t>
+          <t>Calle 51-C # 643 x 72 y 72-A</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>Real Montejo</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -20614,37 +20614,37 @@
       </c>
       <c r="M223" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q223" s="4" t="inlineStr">
         <is>
-          <t>MAXUS</t>
+          <t>CZ SHADOW 2</t>
         </is>
       </c>
       <c r="R223" s="3" t="inlineStr">
         <is>
-          <t>115ZM17757</t>
+          <t>EP35129</t>
         </is>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>B 613228</t>
+          <t>A3888058</t>
         </is>
       </c>
     </row>
@@ -20658,39 +20658,39 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>SANTIAGO LAMAS RINGENBACH</t>
+          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>LARS970906HYNMNN09</t>
+          <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
       <c r="F224" s="4" t="inlineStr">
         <is>
-          <t>'9993359825</t>
+          <t>'9993940909</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>santiago100100@hotmail.com</t>
+          <t>ridesquens@yahoo.com.mx</t>
         </is>
       </c>
       <c r="H224" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>CALLE 22 X 15 # 94-A</t>
+          <t>Calle 51-C # 643 x 72 y 72-A</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>Real Montejo</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -20705,37 +20705,37 @@
       </c>
       <c r="M224" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q224" s="4" t="inlineStr">
         <is>
-          <t>FUSION EVOLVE</t>
+          <t>C Z P-10 C</t>
         </is>
       </c>
       <c r="R224" s="3" t="inlineStr">
         <is>
-          <t>113MP16287</t>
+          <t>FP45007</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>B 613227</t>
+          <t>A3928748</t>
         </is>
       </c>
     </row>
@@ -20749,39 +20749,39 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>SANTIAGO LAMAS RINGENBACH</t>
+          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>LARS970906HYNMNN09</t>
+          <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
       <c r="F225" s="4" t="inlineStr">
         <is>
-          <t>'9993359825</t>
+          <t>'9993940909</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>santiago100100@hotmail.com</t>
+          <t>ridesquens@yahoo.com.mx</t>
         </is>
       </c>
       <c r="H225" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>CALLE 22 X 15 # 94-A</t>
+          <t>Calle 51-C # 643 x 72 y 72-A</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>Real Montejo</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -20796,37 +20796,37 @@
       </c>
       <c r="M225" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>20 GA</t>
+          <t>.22 LR</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>SIG SAUER</t>
         </is>
       </c>
       <c r="Q225" s="4" t="inlineStr">
         <is>
-          <t>SILVER HUNTER</t>
+          <t>P322</t>
         </is>
       </c>
       <c r="R225" s="3" t="inlineStr">
         <is>
-          <t>114ZM05238</t>
+          <t>73A191658</t>
         </is>
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t>B 613226</t>
+          <t>A3928749</t>
         </is>
       </c>
     </row>
@@ -20840,39 +20840,39 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>SANTIAGO LAMAS RINGENBACH</t>
+          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>LARS970906HYNMNN09</t>
+          <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
       <c r="F226" s="4" t="inlineStr">
         <is>
-          <t>'9993359825</t>
+          <t>'9993940909</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>santiago100100@hotmail.com</t>
+          <t>ridesquens@yahoo.com.mx</t>
         </is>
       </c>
       <c r="H226" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>CALLE 22 X 15 # 94-A</t>
+          <t>Calle 51-C # 643 x 72 y 72-A</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>CHOLUL</t>
+          <t>Real Montejo</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -20887,37 +20887,37 @@
       </c>
       <c r="M226" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE SEMI-AUTOMÁTICO</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>0.22"</t>
+          <t xml:space="preserve">.22" </t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>COLT</t>
+          <t>MENDOZA</t>
         </is>
       </c>
       <c r="Q226" s="4" t="inlineStr">
         <is>
-          <t>WOODSMAN</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="R226" s="3" t="inlineStr">
         <is>
-          <t>32288-S</t>
+          <t>RM2403464</t>
         </is>
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>B 612475</t>
+          <t>A3888060</t>
         </is>
       </c>
     </row>
@@ -20931,39 +20931,39 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>ERNESTO GONZALEZ PICCOLO</t>
+          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>GOPE850306HDFNCR03</t>
+          <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
       <c r="F227" s="4" t="inlineStr">
         <is>
-          <t>'9995328570</t>
+          <t>'9993940909</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>egpiccolo@gmail.com</t>
+          <t>ridesquens@yahoo.com.mx</t>
         </is>
       </c>
       <c r="H227" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>C 40 POR 67 Y 69 234</t>
+          <t>Calle 51-C # 643 x 72 y 72-A</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>COL MONTES DE AME</t>
+          <t>Real Montejo</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20978,35 +20978,37 @@
       </c>
       <c r="M227" s="4" t="inlineStr">
         <is>
-          <t>'97115</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE SEMI-AUTOMÁTICO</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>0.22"</t>
+          <t xml:space="preserve">.22" </t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>STAR</t>
+          <t>RUGER</t>
         </is>
       </c>
       <c r="Q227" s="4" t="inlineStr">
         <is>
-          <t>SIN</t>
-        </is>
-      </c>
-      <c r="R227" s="3" t="n">
-        <v>808223</v>
+          <t>10/22</t>
+        </is>
+      </c>
+      <c r="R227" s="3" t="inlineStr">
+        <is>
+          <t>‭0027-45533‬</t>
+        </is>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>A 3862440</t>
+          <t>A3928750</t>
         </is>
       </c>
     </row>
@@ -21020,39 +21022,39 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>ERNESTO GONZALEZ PICCOLO</t>
+          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>GOPE850306HDFNCR03</t>
+          <t>DEBR700911HDFSNC06</t>
         </is>
       </c>
       <c r="F228" s="4" t="inlineStr">
         <is>
-          <t>'9995328570</t>
+          <t>'9993940909</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>egpiccolo@gmail.com</t>
+          <t>ridesquens@yahoo.com.mx</t>
         </is>
       </c>
       <c r="H228" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>C 40 POR 67 Y 69 234</t>
+          <t>Calle 51-C # 643 x 72 y 72-A</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>COL MONTES DE AME</t>
+          <t>Real Montejo</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -21067,12 +21069,12 @@
       </c>
       <c r="M228" s="4" t="inlineStr">
         <is>
-          <t>'97115</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>ESCOPETA UN CAÑON CON SISTEMA DE BOMBA</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -21082,22 +21084,22 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>REMINGTON</t>
+          <t>RETAY</t>
         </is>
       </c>
       <c r="Q228" s="4" t="inlineStr">
         <is>
-          <t>SPR310</t>
+          <t>GPSX</t>
         </is>
       </c>
       <c r="R228" s="3" t="inlineStr">
         <is>
-          <t>06277749  R</t>
+          <t>73-H24PT-000150</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>B 613230</t>
+          <t>A3888062</t>
         </is>
       </c>
     </row>
@@ -21111,39 +21113,39 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>ERNESTO GONZALEZ PICCOLO</t>
+          <t>SERGIO FERNANDO MARTINEZ AGUILAR</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>GOPE850306HDFNCR03</t>
+          <t>MAAS720901HCCRGR07</t>
         </is>
       </c>
       <c r="F229" s="4" t="inlineStr">
         <is>
-          <t>'9995328570</t>
+          <t>'9831549084</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>egpiccolo@gmail.com</t>
+          <t>martinezasergio@hotmail.com</t>
         </is>
       </c>
       <c r="H229" s="2" t="n">
-        <v>45439</v>
+        <v>45497</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>C 40 POR 67 Y 69 234</t>
+          <t>Calle 74 No. 629 x 37-A y 39</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>COL MONTES DE AME</t>
+          <t>Fracc. Jardines de Caucel</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -21158,37 +21160,37 @@
       </c>
       <c r="M229" s="4" t="inlineStr">
         <is>
-          <t>'97115</t>
+          <t>'97314</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>ESCOPETA DOS CAÑONES</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q229" s="4" t="inlineStr">
         <is>
-          <t>CITORI</t>
+          <t>C Z P-10 C</t>
         </is>
       </c>
       <c r="R229" s="3" t="inlineStr">
         <is>
-          <t>108664PT153</t>
+          <t>FP45008</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>B612059</t>
+          <t>A3928754</t>
         </is>
       </c>
     </row>
@@ -21202,39 +21204,39 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</t>
+          <t>SERGIO FERNANDO MARTINEZ AGUILAR</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AERF781023MDFRMR09</t>
+          <t>MAAS720901HCCRGR07</t>
         </is>
       </c>
       <c r="F230" s="4" t="inlineStr">
         <is>
-          <t>'5530565722</t>
+          <t>'9831549084</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>arechiga@jogarplastics.com</t>
+          <t>martinezasergio@hotmail.com</t>
         </is>
       </c>
       <c r="H230" s="2" t="n">
-        <v>45471</v>
+        <v>45497</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>TABLAJE 15687 LOTE 35 COMPOSTELA</t>
+          <t>Calle 74 No. 629 x 37-A y 39</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>XCANATUN</t>
+          <t>Fracc. Jardines de Caucel</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -21249,12 +21251,37 @@
       </c>
       <c r="M230" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97314</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">.22" </t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>BROWNING</t>
+        </is>
+      </c>
+      <c r="Q230" s="4" t="inlineStr">
+        <is>
+          <t>BUCKMARK CONTOUR</t>
+        </is>
+      </c>
+      <c r="R230" s="3" t="inlineStr">
+        <is>
+          <t>US515YV02463</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>A3928755</t>
         </is>
       </c>
     </row>
@@ -21268,26 +21295,26 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>GERARDO ANTONIO FERNÁNDEZ QUIJANO</t>
+          <t>SERGIO FERNANDO MARTINEZ AGUILAR</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FEQG630819HCCRJR06</t>
+          <t>MAAS720901HCCRGR07</t>
         </is>
       </c>
       <c r="F231" s="4" t="inlineStr">
         <is>
-          <t>'9811204947</t>
+          <t>'9831549084</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>gfernandez63@gmail.com</t>
+          <t>martinezasergio@hotmail.com</t>
         </is>
       </c>
       <c r="H231" s="2" t="n">
@@ -21295,57 +21322,57 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Circuito Pablo García Oeste # 2 esquina con Eduardo Lavalle.</t>
+          <t>Calle 74 No. 629 x 37-A y 39</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Ciudad Concordia</t>
+          <t>Fracc. Jardines de Caucel</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>YUCATÁN</t>
         </is>
       </c>
       <c r="M231" s="4" t="inlineStr">
         <is>
-          <t>'24085</t>
+          <t>'97314</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA SEMIAUTOMATICA</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>0.380" ACP.</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>GRAND POWER</t>
+          <t>RETAY</t>
         </is>
       </c>
       <c r="Q231" s="4" t="inlineStr">
         <is>
-          <t>ROXOR</t>
+          <t>GORDION</t>
         </is>
       </c>
       <c r="R231" s="3" t="inlineStr">
         <is>
-          <t>K078901</t>
+          <t>73-H21YT-002866</t>
         </is>
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t>B 612621</t>
+          <t>A3928753</t>
         </is>
       </c>
     </row>
@@ -21359,39 +21386,39 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
+          <t>ALEJANDRO OLIVER ROBERT EASTMOND</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DEBR700911HDFSNC06</t>
+          <t>ROEA841021HYNBSL09</t>
         </is>
       </c>
       <c r="F232" s="4" t="inlineStr">
         <is>
-          <t>'9993940909</t>
+          <t>'9999967145</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>ridesquens@yahoo.com.mx</t>
+          <t>arobert01@protonmail.com</t>
         </is>
       </c>
       <c r="H232" s="2" t="n">
-        <v>45497</v>
+        <v>45525</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Calle 51-C # 643 x 72 y 72-A</t>
+          <t>Calle 20A Núm 407 x 33 y 35.</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Real Montejo</t>
+          <t>Colonia Nueva Alemán</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -21406,37 +21433,37 @@
       </c>
       <c r="M232" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97145</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>FRANCHI</t>
         </is>
       </c>
       <c r="Q232" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
+          <t>BARRAGE SPORTING</t>
         </is>
       </c>
       <c r="R232" s="3" t="inlineStr">
         <is>
-          <t>EP35129</t>
+          <t>S004083S</t>
         </is>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>A3888058</t>
+          <t>B575399</t>
         </is>
       </c>
     </row>
@@ -21450,39 +21477,39 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
+          <t>ALEJANDRO OLIVER ROBERT EASTMOND</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>DEBR700911HDFSNC06</t>
+          <t>ROEA841021HYNBSL09</t>
         </is>
       </c>
       <c r="F233" s="4" t="inlineStr">
         <is>
-          <t>'9993940909</t>
+          <t>'9999967145</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>ridesquens@yahoo.com.mx</t>
+          <t>arobert01@protonmail.com</t>
         </is>
       </c>
       <c r="H233" s="2" t="n">
-        <v>45497</v>
+        <v>45525</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Calle 51-C # 643 x 72 y 72-A</t>
+          <t>Calle 20A Núm 407 x 33 y 35.</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Real Montejo</t>
+          <t>Colonia Nueva Alemán</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -21497,37 +21524,37 @@
       </c>
       <c r="M233" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97145</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>20 GA</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>WINCHESTER</t>
         </is>
       </c>
       <c r="Q233" s="4" t="inlineStr">
         <is>
-          <t>C Z P-10 C</t>
+          <t>NATERAS</t>
         </is>
       </c>
       <c r="R233" s="3" t="inlineStr">
         <is>
-          <t>FP45007</t>
+          <t>L 3026227</t>
         </is>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>A3928748</t>
+          <t>B575731</t>
         </is>
       </c>
     </row>
@@ -21541,39 +21568,39 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
+          <t>ALEJANDRO OLIVER ROBERT EASTMOND</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>DEBR700911HDFSNC06</t>
+          <t>ROEA841021HYNBSL09</t>
         </is>
       </c>
       <c r="F234" s="4" t="inlineStr">
         <is>
-          <t>'9993940909</t>
+          <t>'9999967145</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>ridesquens@yahoo.com.mx</t>
+          <t>arobert01@protonmail.com</t>
         </is>
       </c>
       <c r="H234" s="2" t="n">
-        <v>45497</v>
+        <v>45525</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Calle 51-C # 643 x 72 y 72-A</t>
+          <t>Calle 20A Núm 407 x 33 y 35.</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Real Montejo</t>
+          <t>Colonia Nueva Alemán</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -21588,7 +21615,7 @@
       </c>
       <c r="M234" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97145</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -21598,27 +21625,25 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>.22 LR</t>
+          <t>0.380" ACP</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>SIG SAUER</t>
-        </is>
-      </c>
-      <c r="Q234" s="4" t="inlineStr">
-        <is>
-          <t>P322</t>
-        </is>
+          <t>GLOCK</t>
+        </is>
+      </c>
+      <c r="Q234" s="4" t="n">
+        <v>25</v>
       </c>
       <c r="R234" s="3" t="inlineStr">
         <is>
-          <t>73A191658</t>
+          <t>BAYK183</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>A3928749</t>
+          <t xml:space="preserve">B631118                            </t>
         </is>
       </c>
     </row>
@@ -21632,39 +21657,39 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
+          <t>JUAN CARLOS RAMIREZ GOMEZ</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>DEBR700911HDFSNC06</t>
+          <t>RAGJ831020HDFMMN08</t>
         </is>
       </c>
       <c r="F235" s="4" t="inlineStr">
         <is>
-          <t>'9993940909</t>
+          <t>'5543426160</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>ridesquens@yahoo.com.mx</t>
+          <t>olga.garcia@mayaseguridad.mx</t>
         </is>
       </c>
       <c r="H235" s="2" t="n">
-        <v>45497</v>
+        <v>45542</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Calle 51-C # 643 x 72 y 72-A</t>
+          <t>C. 81 112-2</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Real Montejo</t>
+          <t>Temozon Norte</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -21684,32 +21709,32 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>RIFLE SEMI-AUTOMÁTICO</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t xml:space="preserve">.22" </t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>MENDOZA</t>
+          <t>GLOCK</t>
         </is>
       </c>
       <c r="Q235" s="4" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R235" s="3" t="inlineStr">
         <is>
-          <t>RM2403464</t>
+          <t>BAMD268</t>
         </is>
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>A3888060</t>
+          <t>F 243199</t>
         </is>
       </c>
     </row>
@@ -21723,44 +21748,44 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
+          <t>GADDI OTHONIEL CAAMAL PUC</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DEBR700911HDFSNC06</t>
+          <t>CAPG891110HYNMCD00</t>
         </is>
       </c>
       <c r="F236" s="4" t="inlineStr">
         <is>
-          <t>'9993940909</t>
+          <t>'4431302953</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>ridesquens@yahoo.com.mx</t>
+          <t>gocaamal@hotmail.com</t>
         </is>
       </c>
       <c r="H236" s="2" t="n">
-        <v>45497</v>
+        <v>45549</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Calle 51-C # 643 x 72 y 72-A</t>
+          <t>CALLE 9 NÚM 681 X 74A y 74D</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Real Montejo</t>
+          <t>Cerrada Las Dalias</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Gran Santa Fe</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -21770,37 +21795,12 @@
       </c>
       <c r="M236" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97314</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>RIFLE SEMI-AUTOMÁTICO</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">.22" </t>
-        </is>
-      </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>RUGER</t>
-        </is>
-      </c>
-      <c r="Q236" s="4" t="inlineStr">
-        <is>
-          <t>10/22</t>
-        </is>
-      </c>
-      <c r="R236" s="3" t="inlineStr">
-        <is>
-          <t>‭0027-45533‬</t>
-        </is>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>A3928750</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21814,39 +21814,39 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RICARDO ALBERTO DESQUENS BONILLA</t>
+          <t>GUIDO RENY CUEVAS ABRAHAM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>DEBR700911HDFSNC06</t>
+          <t>CUAG750301HYNVBD00</t>
         </is>
       </c>
       <c r="F237" s="4" t="inlineStr">
         <is>
-          <t>'9993940909</t>
+          <t>'9993354270</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>ridesquens@yahoo.com.mx</t>
+          <t>guidorcuevasabraham@gmail.com</t>
         </is>
       </c>
       <c r="H237" s="2" t="n">
-        <v>45497</v>
+        <v>45628</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Calle 51-C # 643 x 72 y 72-A</t>
+          <t>Calle 15 NÚM 314 x 32 y 34</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Real Montejo</t>
+          <t>Montecarlo</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -21861,37 +21861,37 @@
       </c>
       <c r="M237" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97130</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>ESCOPETA UN CAÑON CON SISTEMA DE BOMBA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>RETAY</t>
+          <t>GLOCK</t>
         </is>
       </c>
       <c r="Q237" s="4" t="inlineStr">
         <is>
-          <t>GPSX</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R237" s="3" t="inlineStr">
         <is>
-          <t>73-H24PT-000150</t>
+          <t>CENT504</t>
         </is>
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>A3888062</t>
+          <t>A3897403</t>
         </is>
       </c>
     </row>
@@ -21905,39 +21905,39 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>SERGIO FERNANDO MARTINEZ AGUILAR</t>
+          <t>GUIDO RENY CUEVAS ABRAHAM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>MAAS720901HCCRGR07</t>
+          <t>CUAG750301HYNVBD00</t>
         </is>
       </c>
       <c r="F238" s="4" t="inlineStr">
         <is>
-          <t>'9831549084</t>
+          <t>'9993354270</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>martinezasergio@hotmail.com</t>
+          <t>guidorcuevasabraham@gmail.com</t>
         </is>
       </c>
       <c r="H238" s="2" t="n">
-        <v>45497</v>
+        <v>45628</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Calle 74 No. 629 x 37-A y 39</t>
+          <t>Calle 15 NÚM 314 x 32 y 34</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Fracc. Jardines de Caucel</t>
+          <t>Montecarlo</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="M238" s="4" t="inlineStr">
         <is>
-          <t>'97314</t>
+          <t>'97130</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -21967,22 +21967,22 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>GLOCK</t>
         </is>
       </c>
       <c r="Q238" s="4" t="inlineStr">
         <is>
-          <t>C Z P-10 C</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R238" s="3" t="inlineStr">
         <is>
-          <t>FP45008</t>
+          <t>CCXC253</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t>A3928754</t>
+          <t>A3897404</t>
         </is>
       </c>
     </row>
@@ -21996,84 +21996,59 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>SERGIO FERNANDO MARTINEZ AGUILAR</t>
+          <t>SANTIAGO RUEDA ESCOBEDO</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>MAAS720901HCCRGR07</t>
+          <t>RUES971109HCCDSN07</t>
         </is>
       </c>
       <c r="F239" s="4" t="inlineStr">
         <is>
-          <t>'9831549084</t>
+          <t>'9381526811</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>martinezasergio@hotmail.com</t>
+          <t>santiagorueda2@gmail.com</t>
         </is>
       </c>
       <c r="H239" s="2" t="n">
-        <v>45497</v>
+        <v>45628</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Calle 74 No. 629 x 37-A y 39</t>
+          <t>C. 65 87</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Fracc. Jardines de Caucel</t>
+          <t>Col. Justo Sierra</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Ciudad del Carmen</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>CAMPECHE</t>
         </is>
       </c>
       <c r="M239" s="4" t="inlineStr">
         <is>
-          <t>'97314</t>
+          <t>'24114</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">.22" </t>
-        </is>
-      </c>
-      <c r="P239" t="inlineStr">
-        <is>
-          <t>BROWNING</t>
-        </is>
-      </c>
-      <c r="Q239" s="4" t="inlineStr">
-        <is>
-          <t>BUCKMARK CONTOUR</t>
-        </is>
-      </c>
-      <c r="R239" s="3" t="inlineStr">
-        <is>
-          <t>US515YV02463</t>
-        </is>
-      </c>
-      <c r="S239" t="inlineStr">
-        <is>
-          <t>A3928755</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22087,39 +22062,39 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>SERGIO FERNANDO MARTINEZ AGUILAR</t>
+          <t>IVAN TSUIS CABO TORRES</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>MAAS720901HCCRGR07</t>
+          <t>CATI771216HNEBRV03</t>
         </is>
       </c>
       <c r="F240" s="4" t="inlineStr">
         <is>
-          <t>'9831549084</t>
+          <t>'9992315040</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>martinezasergio@hotmail.com</t>
+          <t>ivancabo@gmail.com</t>
         </is>
       </c>
       <c r="H240" s="2" t="n">
-        <v>45497</v>
+        <v>45632</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Calle 74 No. 629 x 37-A y 39</t>
+          <t>C. 43 322 X 36 Y 36A</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Fracc. Jardines de Caucel</t>
+          <t>San Ramón Norte</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -22134,37 +22109,37 @@
       </c>
       <c r="M240" s="4" t="inlineStr">
         <is>
-          <t>'97314</t>
+          <t>'97117</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>ESCOPETA SEMIAUTOMATICA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>RETAY</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q240" s="4" t="inlineStr">
         <is>
-          <t>GORDION</t>
+          <t>CZ P-10 C</t>
         </is>
       </c>
       <c r="R240" s="3" t="inlineStr">
         <is>
-          <t>73-H21YT-002866</t>
+          <t>DP23540</t>
         </is>
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t>A3928753</t>
+          <t>A3779516</t>
         </is>
       </c>
     </row>
@@ -22178,39 +22153,39 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>ALEJANDRO OLIVER ROBERT EASTMOND</t>
+          <t>IVAN TSUIS CABO TORRES</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>ROEA841021HYNBSL09</t>
+          <t>CATI771216HNEBRV03</t>
         </is>
       </c>
       <c r="F241" s="4" t="inlineStr">
         <is>
-          <t>'9999967145</t>
+          <t>'9992315040</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>arobert01@protonmail.com</t>
+          <t>ivancabo@gmail.com</t>
         </is>
       </c>
       <c r="H241" s="2" t="n">
-        <v>45525</v>
+        <v>45632</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Calle 20A Núm 407 x 33 y 35.</t>
+          <t>C. 43 322 X 36 Y 36A</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Colonia Nueva Alemán</t>
+          <t>San Ramón Norte</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -22225,37 +22200,37 @@
       </c>
       <c r="M241" s="4" t="inlineStr">
         <is>
-          <t>'97145</t>
+          <t>'97117</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.22"</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>FRANCHI</t>
+          <t>BROWNING</t>
         </is>
       </c>
       <c r="Q241" s="4" t="inlineStr">
         <is>
-          <t>BARRAGE SPORTING</t>
+          <t>BUCK</t>
         </is>
       </c>
       <c r="R241" s="3" t="inlineStr">
         <is>
-          <t>S004083S</t>
+          <t>US515YY19935</t>
         </is>
       </c>
       <c r="S241" t="inlineStr">
         <is>
-          <t>B575399</t>
+          <t>A3779515</t>
         </is>
       </c>
     </row>
@@ -22269,39 +22244,39 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>ALEJANDRO OLIVER ROBERT EASTMOND</t>
+          <t>IVAN TSUIS CABO TORRES</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ROEA841021HYNBSL09</t>
+          <t>CATI771216HNEBRV03</t>
         </is>
       </c>
       <c r="F242" s="4" t="inlineStr">
         <is>
-          <t>'9999967145</t>
+          <t>'9992315040</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>arobert01@protonmail.com</t>
+          <t>ivancabo@gmail.com</t>
         </is>
       </c>
       <c r="H242" s="2" t="n">
-        <v>45525</v>
+        <v>45632</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Calle 20A Núm 407 x 33 y 35.</t>
+          <t>C. 43 322 X 36 Y 36A</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Colonia Nueva Alemán</t>
+          <t>San Ramón Norte</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -22316,37 +22291,35 @@
       </c>
       <c r="M242" s="4" t="inlineStr">
         <is>
-          <t>'97145</t>
+          <t>'97117</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>ESCOPETA</t>
+          <t>RIFLE SEMI-AUTOMÁTICO</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>20 GA</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>WINCHESTER</t>
+          <t>MENDOZA</t>
         </is>
       </c>
       <c r="Q242" s="4" t="inlineStr">
         <is>
-          <t>NATERAS</t>
-        </is>
-      </c>
-      <c r="R242" s="3" t="inlineStr">
-        <is>
-          <t>L 3026227</t>
-        </is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="R242" s="3" t="n">
+        <v>27280</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>B575731</t>
+          <t>A3779518</t>
         </is>
       </c>
     </row>
@@ -22360,44 +22333,44 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ALEJANDRO OLIVER ROBERT EASTMOND</t>
+          <t>JESUS ALEJANDRO PUC SOSA</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ROEA841021HYNBSL09</t>
+          <t>PUSJ000131HYNCSSA4</t>
         </is>
       </c>
       <c r="F243" s="4" t="inlineStr">
         <is>
-          <t>'9999967145</t>
+          <t>'9993778311</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>arobert01@protonmail.com</t>
+          <t>alejandro18sosa@gmail.com</t>
         </is>
       </c>
       <c r="H243" s="2" t="n">
-        <v>45525</v>
+        <v>45642</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Calle 20A Núm 407 x 33 y 35.</t>
+          <t>C. 53 entre 58 y 60 NÚM. 425</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Colonia Nueva Alemán</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Tizimín</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -22407,35 +22380,12 @@
       </c>
       <c r="M243" s="4" t="inlineStr">
         <is>
-          <t>'97145</t>
+          <t>'97700</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>0.380" ACP</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>GLOCK</t>
-        </is>
-      </c>
-      <c r="Q243" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="R243" s="3" t="inlineStr">
-        <is>
-          <t>BAYK183</t>
-        </is>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B631118                            </t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22449,39 +22399,39 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>JUAN CARLOS RAMIREZ GOMEZ</t>
+          <t>JOSE GIL HEREDIA HAGAR</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>RAGJ831020HDFMMN08</t>
+          <t>HEHG860310HYNRGL05</t>
         </is>
       </c>
       <c r="F244" s="4" t="inlineStr">
         <is>
-          <t>'5543426160</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>olga.garcia@mayaseguridad.mx</t>
+          <t>jgheredia@hotmail.com</t>
         </is>
       </c>
       <c r="H244" s="2" t="n">
-        <v>45542</v>
+        <v>45642</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>C. 81 112-2</t>
+          <t>C. 46 480 X 33 Y 31 A</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Temozon Norte</t>
+          <t>COL. NUEVA YUCATAN</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -22496,7 +22446,7 @@
       </c>
       <c r="M244" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97147</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -22506,27 +22456,27 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>.22"</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>GLOCK</t>
+          <t>GRAND POWER</t>
         </is>
       </c>
       <c r="Q244" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>K22</t>
         </is>
       </c>
       <c r="R244" s="3" t="inlineStr">
         <is>
-          <t>BAMD268</t>
+          <t>K084513</t>
         </is>
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>F 243199</t>
+          <t>A3725153</t>
         </is>
       </c>
     </row>
@@ -22540,44 +22490,44 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>GADDI OTHONIEL CAAMAL PUC</t>
+          <t>JOSE GIL HEREDIA HAGAR</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CAPG891110HYNMCD00</t>
+          <t>HEHG860310HYNRGL05</t>
         </is>
       </c>
       <c r="F245" s="4" t="inlineStr">
         <is>
-          <t>'4431302953</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>gocaamal@hotmail.com</t>
+          <t>jgheredia@hotmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="n">
-        <v>45549</v>
+        <v>45642</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>CALLE 9 NÚM 681 X 74A y 74D</t>
+          <t>C. 46 480 X 33 Y 31 A</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Cerrada Las Dalias</t>
+          <t>COL. NUEVA YUCATAN</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Gran Santa Fe</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -22587,12 +22537,37 @@
       </c>
       <c r="M245" s="4" t="inlineStr">
         <is>
-          <t>'97314</t>
+          <t>'97147</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>.380"</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q245" s="4" t="inlineStr">
+        <is>
+          <t>CZ SHADOW 2</t>
+        </is>
+      </c>
+      <c r="R245" s="3" t="inlineStr">
+        <is>
+          <t>DP25316</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>A3793354</t>
         </is>
       </c>
     </row>
@@ -22606,39 +22581,39 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>GUIDO RENY CUEVAS ABRAHAM</t>
+          <t>JOSE GIL HEREDIA HAGAR</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CUAG750301HYNVBD00</t>
+          <t>HEHG860310HYNRGL05</t>
         </is>
       </c>
       <c r="F246" s="4" t="inlineStr">
         <is>
-          <t>'9993354270</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>guidorcuevasabraham@gmail.com</t>
+          <t>jgheredia@hotmail.com</t>
         </is>
       </c>
       <c r="H246" s="2" t="n">
-        <v>45628</v>
+        <v>45642</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Calle 15 NÚM 314 x 32 y 34</t>
+          <t>C. 46 480 X 33 Y 31 A</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Montecarlo</t>
+          <t>COL. NUEVA YUCATAN</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -22653,7 +22628,7 @@
       </c>
       <c r="M246" s="4" t="inlineStr">
         <is>
-          <t>'97130</t>
+          <t>'97147</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -22668,22 +22643,22 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>GLOCK</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q246" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>CZ SHADOW 2</t>
         </is>
       </c>
       <c r="R246" s="3" t="inlineStr">
         <is>
-          <t>CENT504</t>
+          <t>DP25317</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>A3897403</t>
+          <t>A3793355</t>
         </is>
       </c>
     </row>
@@ -22697,39 +22672,39 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>GUIDO RENY CUEVAS ABRAHAM</t>
+          <t>JOSE GIL HEREDIA HAGAR</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CUAG750301HYNVBD00</t>
+          <t>HEHG860310HYNRGL05</t>
         </is>
       </c>
       <c r="F247" s="4" t="inlineStr">
         <is>
-          <t>'9993354270</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>guidorcuevasabraham@gmail.com</t>
+          <t>jgheredia@hotmail.com</t>
         </is>
       </c>
       <c r="H247" s="2" t="n">
-        <v>45628</v>
+        <v>45642</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Calle 15 NÚM 314 x 32 y 34</t>
+          <t>C. 46 480 X 33 Y 31 A</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Montecarlo</t>
+          <t>COL. NUEVA YUCATAN</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -22744,7 +22719,7 @@
       </c>
       <c r="M247" s="4" t="inlineStr">
         <is>
-          <t>'97130</t>
+          <t>'97147</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -22759,22 +22734,22 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>GLOCK</t>
+          <t>SIG SAUER</t>
         </is>
       </c>
       <c r="Q247" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>P365</t>
         </is>
       </c>
       <c r="R247" s="3" t="inlineStr">
         <is>
-          <t>CCXC253</t>
+          <t>66F398918</t>
         </is>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>A3897404</t>
+          <t>A3793356</t>
         </is>
       </c>
     </row>
@@ -22788,59 +22763,84 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>SANTIAGO RUEDA ESCOBEDO</t>
+          <t>JOSE GIL HEREDIA HAGAR</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>RUES971109HCCDSN07</t>
+          <t>HEHG860310HYNRGL05</t>
         </is>
       </c>
       <c r="F248" s="4" t="inlineStr">
         <is>
-          <t>'9381526811</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>santiagorueda2@gmail.com</t>
+          <t>jgheredia@hotmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="n">
-        <v>45628</v>
+        <v>45642</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>C. 65 87</t>
+          <t>C. 46 480 X 33 Y 31 A</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Col. Justo Sierra</t>
+          <t>COL. NUEVA YUCATAN</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Ciudad del Carmen</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>YUCATÁN</t>
         </is>
       </c>
       <c r="M248" s="4" t="inlineStr">
         <is>
-          <t>'24114</t>
+          <t>'97147</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>.380"</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>GLOCK</t>
+        </is>
+      </c>
+      <c r="Q248" s="4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="R248" s="3" t="inlineStr">
+        <is>
+          <t>BLCC322</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>A3586249</t>
         </is>
       </c>
     </row>
@@ -22854,39 +22854,39 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>IVAN TSUIS CABO TORRES</t>
+          <t>JOSE GIL HEREDIA HAGAR</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CATI771216HNEBRV03</t>
+          <t>HEHG860310HYNRGL05</t>
         </is>
       </c>
       <c r="F249" s="4" t="inlineStr">
         <is>
-          <t>'9992315040</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>ivancabo@gmail.com</t>
+          <t>jgheredia@hotmail.com</t>
         </is>
       </c>
       <c r="H249" s="2" t="n">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>C. 43 322 X 36 Y 36A</t>
+          <t>C. 46 480 X 33 Y 31 A</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>San Ramón Norte</t>
+          <t>COL. NUEVA YUCATAN</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -22901,37 +22901,37 @@
       </c>
       <c r="M249" s="4" t="inlineStr">
         <is>
-          <t>'97117</t>
+          <t>'97147</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>REVOLVER</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>0.22" L.R.</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>H&amp;R</t>
         </is>
       </c>
       <c r="Q249" s="4" t="inlineStr">
         <is>
-          <t>CZ P-10 C</t>
+          <t>929</t>
         </is>
       </c>
       <c r="R249" s="3" t="inlineStr">
         <is>
-          <t>DP23540</t>
+          <t>AG11090</t>
         </is>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>A3779516</t>
+          <t>A3422000</t>
         </is>
       </c>
     </row>
@@ -22945,39 +22945,39 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>IVAN TSUIS CABO TORRES</t>
+          <t>JOSE GIL HEREDIA HAGAR</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CATI771216HNEBRV03</t>
+          <t>HEHG860310HYNRGL05</t>
         </is>
       </c>
       <c r="F250" s="4" t="inlineStr">
         <is>
-          <t>'9992315040</t>
+          <t>'9999001366</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>ivancabo@gmail.com</t>
+          <t>jgheredia@hotmail.com</t>
         </is>
       </c>
       <c r="H250" s="2" t="n">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>C. 43 322 X 36 Y 36A</t>
+          <t>C. 46 480 X 33 Y 31 A</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>San Ramón Norte</t>
+          <t>COL. NUEVA YUCATAN</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -22992,37 +22992,37 @@
       </c>
       <c r="M250" s="4" t="inlineStr">
         <is>
-          <t>'97117</t>
+          <t>'97147</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE SEMI-AUTOMATICO</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>.22"</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>CHIAPPA FIREARMS</t>
         </is>
       </c>
       <c r="Q250" s="4" t="inlineStr">
         <is>
-          <t>BUCK</t>
+          <t>MFOUR-22</t>
         </is>
       </c>
       <c r="R250" s="3" t="inlineStr">
         <is>
-          <t>US515YY19935</t>
+          <t>19A00758</t>
         </is>
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>A3779515</t>
+          <t>A3586246</t>
         </is>
       </c>
     </row>
@@ -23036,82 +23036,84 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>IVAN TSUIS CABO TORRES</t>
+          <t>SANTIAGO ALEJANDRO QUINTAL PARDES</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CATI771216HNEBRV03</t>
+          <t>QUPS901102HYNNRN04</t>
         </is>
       </c>
       <c r="F251" s="4" t="inlineStr">
         <is>
-          <t>'9992315040</t>
+          <t>'9995759542</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>ivancabo@gmail.com</t>
+          <t>squintal158@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="n">
-        <v>45632</v>
+        <v>45717</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>C. 43 322 X 36 Y 36A</t>
+          <t>CALLE 14 SIN NUMERO</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>San Ramón Norte</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>CHOCHOLA</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>YUCATAN</t>
         </is>
       </c>
       <c r="M251" s="4" t="inlineStr">
         <is>
-          <t>'97117</t>
+          <t>'97816</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>RIFLE SEMI-AUTOMÁTICO</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>MENDOZA</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q251" s="4" t="inlineStr">
         <is>
-          <t>PUMA</t>
-        </is>
-      </c>
-      <c r="R251" s="3" t="n">
-        <v>27280</v>
+          <t>CZ SHADOW 2</t>
+        </is>
+      </c>
+      <c r="R251" s="3" t="inlineStr">
+        <is>
+          <t>FP41102</t>
+        </is>
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>A3779518</t>
+          <t>A3916933</t>
         </is>
       </c>
     </row>
@@ -23125,59 +23127,84 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>JESUS ALEJANDRO PUC SOSA</t>
+          <t>SANTIAGO ALEJANDRO QUINTAL PARDES</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>PUSJ000131HYNCSSA4</t>
+          <t>QUPS901102HYNNRN04</t>
         </is>
       </c>
       <c r="F252" s="4" t="inlineStr">
         <is>
-          <t>'9993778311</t>
+          <t>'9995759542</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>alejandro18sosa@gmail.com</t>
+          <t>squintal158@gmail.com</t>
         </is>
       </c>
       <c r="H252" s="2" t="n">
-        <v>45642</v>
+        <v>45717</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>C. 53 entre 58 y 60 NÚM. 425</t>
+          <t>CALLE 14 SIN NUMERO</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Tizimín</t>
+          <t>CHOCHOLA</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>YUCATAN</t>
         </is>
       </c>
       <c r="M252" s="4" t="inlineStr">
         <is>
-          <t>'97700</t>
+          <t>'97816</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>RIFLE</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>.22" L.R.</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q252" s="4" t="inlineStr">
+        <is>
+          <t>CZ 457 MTR</t>
+        </is>
+      </c>
+      <c r="R252" s="3" t="inlineStr">
+        <is>
+          <t>J002602</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>A3916936</t>
         </is>
       </c>
     </row>
@@ -23191,84 +23218,84 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>JOSE GIL HEREDIA HAGAR</t>
+          <t>SANTIAGO ALEJANDRO QUINTAL PARDES</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>HEHG860310HYNRGL05</t>
+          <t>QUPS901102HYNNRN04</t>
         </is>
       </c>
       <c r="F253" s="4" t="inlineStr">
         <is>
-          <t>'9999001366</t>
+          <t>'9995759542</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>jgheredia@hotmail.com</t>
+          <t>squintal158@gmail.com</t>
         </is>
       </c>
       <c r="H253" s="2" t="n">
-        <v>45642</v>
+        <v>45717</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>C. 46 480 X 33 Y 31 A</t>
+          <t>CALLE 14 SIN NUMERO</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>COL. NUEVA YUCATAN</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>CHOCHOLA</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>YUCATAN</t>
         </is>
       </c>
       <c r="M253" s="4" t="inlineStr">
         <is>
-          <t>'97147</t>
+          <t>'97816</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA SEMIAUTOMATICA</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>.22"</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>GRAND POWER</t>
+          <t>BREDA</t>
         </is>
       </c>
       <c r="Q253" s="4" t="inlineStr">
         <is>
-          <t>K22</t>
+          <t>TITANIO</t>
         </is>
       </c>
       <c r="R253" s="3" t="inlineStr">
         <is>
-          <t>K084513</t>
+          <t>BA 12657</t>
         </is>
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t>A3725153</t>
+          <t>A3916935</t>
         </is>
       </c>
     </row>
@@ -23282,39 +23309,39 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>JOSE GIL HEREDIA HAGAR</t>
+          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>HEHG860310HYNRGL05</t>
+          <t>COWA700106TSRLR00</t>
         </is>
       </c>
       <c r="F254" s="4" t="inlineStr">
         <is>
-          <t>'9999001366</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>jgheredia@hotmail.com</t>
+          <t>atietzbabam@gmail.com</t>
         </is>
       </c>
       <c r="H254" s="2" t="n">
-        <v>45642</v>
+        <v>45747</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>C. 46 480 X 33 Y 31 A</t>
+          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>COL. NUEVA YUCATAN</t>
+          <t>COL. JUAN B. SOSA</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -23329,37 +23356,35 @@
       </c>
       <c r="M254" s="4" t="inlineStr">
         <is>
-          <t>'97147</t>
+          <t>'97205</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE SEMI AUTOMATICO</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>MENDOZA</t>
         </is>
       </c>
       <c r="Q254" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
-        </is>
-      </c>
-      <c r="R254" s="3" t="inlineStr">
-        <is>
-          <t>DP25316</t>
-        </is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="R254" s="3" t="n">
+        <v>42722</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>A3793354</t>
+          <t>A3848750</t>
         </is>
       </c>
     </row>
@@ -23373,39 +23398,39 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>JOSE GIL HEREDIA HAGAR</t>
+          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>HEHG860310HYNRGL05</t>
+          <t>COWA700106TSRLR00</t>
         </is>
       </c>
       <c r="F255" s="4" t="inlineStr">
         <is>
-          <t>'9999001366</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>jgheredia@hotmail.com</t>
+          <t>atietzbabam@gmail.com</t>
         </is>
       </c>
       <c r="H255" s="2" t="n">
-        <v>45642</v>
+        <v>45747</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>C. 46 480 X 33 Y 31 A</t>
+          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>COL. NUEVA YUCATAN</t>
+          <t>COL. JUAN B. SOSA</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -23420,37 +23445,37 @@
       </c>
       <c r="M255" s="4" t="inlineStr">
         <is>
-          <t>'97147</t>
+          <t>'97205</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>0.223" REM.</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>BENELLI</t>
         </is>
       </c>
       <c r="Q255" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
+          <t>MR1</t>
         </is>
       </c>
       <c r="R255" s="3" t="inlineStr">
         <is>
-          <t>DP25317</t>
+          <t>BC013587R</t>
         </is>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>A3793355</t>
+          <t>A3853877</t>
         </is>
       </c>
     </row>
@@ -23464,39 +23489,39 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>JOSE GIL HEREDIA HAGAR</t>
+          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>HEHG860310HYNRGL05</t>
+          <t>COWA700106TSRLR00</t>
         </is>
       </c>
       <c r="F256" s="4" t="inlineStr">
         <is>
-          <t>'9999001366</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>jgheredia@hotmail.com</t>
+          <t>atietzbabam@gmail.com</t>
         </is>
       </c>
       <c r="H256" s="2" t="n">
-        <v>45642</v>
+        <v>45747</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>C. 46 480 X 33 Y 31 A</t>
+          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>COL. NUEVA YUCATAN</t>
+          <t>COL. JUAN B. SOSA</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -23511,37 +23536,37 @@
       </c>
       <c r="M256" s="4" t="inlineStr">
         <is>
-          <t>'97147</t>
+          <t>'97205</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>0.223" REM.</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>SIG SAUER</t>
+          <t>BENELLI</t>
         </is>
       </c>
       <c r="Q256" s="4" t="inlineStr">
         <is>
-          <t>P365</t>
+          <t>MR1</t>
         </is>
       </c>
       <c r="R256" s="3" t="inlineStr">
         <is>
-          <t>66F398918</t>
+          <t>BC013586P</t>
         </is>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>A3793356</t>
+          <t>A3853878</t>
         </is>
       </c>
     </row>
@@ -23555,39 +23580,39 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>JOSE GIL HEREDIA HAGAR</t>
+          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>HEHG860310HYNRGL05</t>
+          <t>COWA700106TSRLR00</t>
         </is>
       </c>
       <c r="F257" s="4" t="inlineStr">
         <is>
-          <t>'9999001366</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>jgheredia@hotmail.com</t>
+          <t>atietzbabam@gmail.com</t>
         </is>
       </c>
       <c r="H257" s="2" t="n">
-        <v>45642</v>
+        <v>45747</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>C. 46 480 X 33 Y 31 A</t>
+          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>COL. NUEVA YUCATAN</t>
+          <t>COL. JUAN B. SOSA</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -23602,37 +23627,37 @@
       </c>
       <c r="M257" s="4" t="inlineStr">
         <is>
-          <t>'97147</t>
+          <t>'97205</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA SEMIAUTOMATICA</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>GLOCK</t>
+          <t>RETAY</t>
         </is>
       </c>
       <c r="Q257" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>MASAY MARA</t>
         </is>
       </c>
       <c r="R257" s="3" t="inlineStr">
         <is>
-          <t>BLCC322</t>
+          <t>73-H23YT-005654</t>
         </is>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>A3586249</t>
+          <t>A3888062</t>
         </is>
       </c>
     </row>
@@ -23646,39 +23671,39 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>JOSE GIL HEREDIA HAGAR</t>
+          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>HEHG860310HYNRGL05</t>
+          <t>COWA700106TSRLR00</t>
         </is>
       </c>
       <c r="F258" s="4" t="inlineStr">
         <is>
-          <t>'9999001366</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>jgheredia@hotmail.com</t>
+          <t>atietzbabam@gmail.com</t>
         </is>
       </c>
       <c r="H258" s="2" t="n">
-        <v>45642</v>
+        <v>45747</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>C. 46 480 X 33 Y 31 A</t>
+          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>COL. NUEVA YUCATAN</t>
+          <t>COL. JUAN B. SOSA</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -23693,37 +23718,37 @@
       </c>
       <c r="M258" s="4" t="inlineStr">
         <is>
-          <t>'97147</t>
+          <t>'97205</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>REVOLVER</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>0.22" L.R.</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>H&amp;R</t>
+          <t>BERSA</t>
         </is>
       </c>
       <c r="Q258" s="4" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>THUNDER 380 COMBAT</t>
         </is>
       </c>
       <c r="R258" s="3" t="inlineStr">
         <is>
-          <t>AG11090</t>
+          <t>M58492</t>
         </is>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>A3422000</t>
+          <t>A3832011</t>
         </is>
       </c>
     </row>
@@ -23737,39 +23762,39 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>JOSE GIL HEREDIA HAGAR</t>
+          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>HEHG860310HYNRGL05</t>
+          <t>COWA700106TSRLR00</t>
         </is>
       </c>
       <c r="F259" s="4" t="inlineStr">
         <is>
-          <t>'9999001366</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>jgheredia@hotmail.com</t>
+          <t>atietzbabam@gmail.com</t>
         </is>
       </c>
       <c r="H259" s="2" t="n">
-        <v>45642</v>
+        <v>45747</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>C. 46 480 X 33 Y 31 A</t>
+          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>COL. NUEVA YUCATAN</t>
+          <t>COL. JUAN B. SOSA</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -23784,37 +23809,37 @@
       </c>
       <c r="M259" s="4" t="inlineStr">
         <is>
-          <t>'97147</t>
+          <t>'97205</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>RIFLE SEMI-AUTOMATICO</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>0.380"</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>CHIAPPA FIREARMS</t>
+          <t>GLOCK</t>
         </is>
       </c>
       <c r="Q259" s="4" t="inlineStr">
         <is>
-          <t>MFOUR-22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R259" s="3" t="inlineStr">
         <is>
-          <t>19A00758</t>
+          <t>UGL153</t>
         </is>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>A3586246</t>
+          <t>A3267256</t>
         </is>
       </c>
     </row>
@@ -23828,54 +23853,54 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>SANTIAGO ALEJANDRO QUINTAL PARDES</t>
+          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>QUPS901102HYNNRN04</t>
+          <t>COWA700106TSRLR00</t>
         </is>
       </c>
       <c r="F260" s="4" t="inlineStr">
         <is>
-          <t>'9995759542</t>
+          <t>'529992003314</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>squintal158@gmail.com</t>
+          <t>atietzbabam@gmail.com</t>
         </is>
       </c>
       <c r="H260" s="2" t="n">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>CALLE 14 SIN NUMERO</t>
+          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COL. JUAN B. SOSA</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>CHOCHOLA</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>YUCATAN</t>
+          <t>YUCATÁN</t>
         </is>
       </c>
       <c r="M260" s="4" t="inlineStr">
         <is>
-          <t>'97816</t>
+          <t>'97205</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -23885,27 +23910,27 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>.380" AUTO</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>GRAND POWER</t>
         </is>
       </c>
       <c r="Q260" s="4" t="inlineStr">
         <is>
-          <t>CZ SHADOW 2</t>
+          <t>LP380</t>
         </is>
       </c>
       <c r="R260" s="3" t="inlineStr">
         <is>
-          <t>FP41102</t>
+          <t>K102854</t>
         </is>
       </c>
       <c r="S260" t="inlineStr">
         <is>
-          <t>A3916933</t>
+          <t>A385379</t>
         </is>
       </c>
     </row>
@@ -23919,84 +23944,59 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>SANTIAGO ALEJANDRO QUINTAL PARDES</t>
+          <t>KRISZTIAN GOR</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>QUPS901102HYNNRN04</t>
+          <t>GOXK740906HNERXR09</t>
         </is>
       </c>
       <c r="F261" s="4" t="inlineStr">
         <is>
-          <t>'9995759542</t>
+          <t>'13213470270</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>squintal158@gmail.com</t>
+          <t>ttok09136@gmail.com</t>
         </is>
       </c>
       <c r="H261" s="2" t="n">
-        <v>45717</v>
+        <v>45730</v>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>CALLE 14 SIN NUMERO</t>
+          <t>Calle 35 SN INT. townhouse</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Temozón Norte</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>CHOCHOLA</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>YUCATAN</t>
+          <t>YUCATÁN</t>
         </is>
       </c>
       <c r="M261" s="4" t="inlineStr">
         <is>
-          <t>'97816</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>RIFLE</t>
-        </is>
-      </c>
-      <c r="O261" t="inlineStr">
-        <is>
-          <t>.22" L.R.</t>
-        </is>
-      </c>
-      <c r="P261" t="inlineStr">
-        <is>
-          <t>CESKA ZBROJOVKA</t>
-        </is>
-      </c>
-      <c r="Q261" s="4" t="inlineStr">
-        <is>
-          <t>CZ 457 MTR</t>
-        </is>
-      </c>
-      <c r="R261" s="3" t="inlineStr">
-        <is>
-          <t>J002602</t>
-        </is>
-      </c>
-      <c r="S261" t="inlineStr">
-        <is>
-          <t>A3916936</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -24010,84 +24010,84 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>SANTIAGO ALEJANDRO QUINTAL PARDES</t>
+          <t>FABIAN MARQUEZ ORTEGA</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>QUPS901102HYNNRN04</t>
+          <t>MAOF620504HDFRRB06</t>
         </is>
       </c>
       <c r="F262" s="4" t="inlineStr">
         <is>
-          <t>'9995759542</t>
+          <t>'9993772793</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>squintal158@gmail.com</t>
+          <t>fabian.sievers3548@gmail.com</t>
         </is>
       </c>
       <c r="H262" s="2" t="n">
-        <v>45717</v>
+        <v>45777</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>CALLE 14 SIN NUMERO</t>
+          <t>Calle 28 x 5 y 7 48-A</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Col Granjas Cholul</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>CHOCHOLA</t>
+          <t>MÉRIDA</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>YUCATAN</t>
+          <t>YUCATÁN</t>
         </is>
       </c>
       <c r="M262" s="4" t="inlineStr">
         <is>
-          <t>'97816</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>ESCOPETA SEMIAUTOMATICA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>BREDA</t>
+          <t>BROWNING</t>
         </is>
       </c>
       <c r="Q262" s="4" t="inlineStr">
         <is>
-          <t>TITANIO</t>
+          <t>BUCKMARK CONTOUR</t>
         </is>
       </c>
       <c r="R262" s="3" t="inlineStr">
         <is>
-          <t>BA 12657</t>
+          <t>US515YW33488</t>
         </is>
       </c>
       <c r="S262" t="inlineStr">
         <is>
-          <t>A3916935</t>
+          <t>A3916213</t>
         </is>
       </c>
     </row>
@@ -24101,39 +24101,39 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
+          <t>FABIAN MARQUEZ ORTEGA</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>COWA700106TSRLR00</t>
+          <t>MAOF620504HDFRRB06</t>
         </is>
       </c>
       <c r="F263" s="4" t="inlineStr">
         <is>
-          <t>'529992003314</t>
+          <t>'9993772793</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>atietzbabam@gmail.com</t>
+          <t>fabian.sievers3548@gmail.com</t>
         </is>
       </c>
       <c r="H263" s="2" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
+          <t>Calle 28 x 5 y 7 48-A</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>COL. JUAN B. SOSA</t>
+          <t>Col Granjas Cholul</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -24148,12 +24148,12 @@
       </c>
       <c r="M263" s="4" t="inlineStr">
         <is>
-          <t>'97205</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>RIFLE SEMI AUTOMATICO</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -24163,20 +24163,22 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>MENDOZA</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q263" s="4" t="inlineStr">
         <is>
-          <t>PUMA</t>
-        </is>
-      </c>
-      <c r="R263" s="3" t="n">
-        <v>42722</v>
+          <t>457 PREMIUM</t>
+        </is>
+      </c>
+      <c r="R263" s="3" t="inlineStr">
+        <is>
+          <t>J011779</t>
+        </is>
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>A3848750</t>
+          <t>A3916216</t>
         </is>
       </c>
     </row>
@@ -24190,39 +24192,39 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
+          <t>FABIAN MARQUEZ ORTEGA</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>COWA700106TSRLR00</t>
+          <t>MAOF620504HDFRRB06</t>
         </is>
       </c>
       <c r="F264" s="4" t="inlineStr">
         <is>
-          <t>'529992003314</t>
+          <t>'9993772793</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>atietzbabam@gmail.com</t>
+          <t>fabian.sievers3548@gmail.com</t>
         </is>
       </c>
       <c r="H264" s="2" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
+          <t>Calle 28 x 5 y 7 48-A</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>COL. JUAN B. SOSA</t>
+          <t>Col Granjas Cholul</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -24237,37 +24239,37 @@
       </c>
       <c r="M264" s="4" t="inlineStr">
         <is>
-          <t>'97205</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>0.223" REM.</t>
+          <t>.380" AUTO</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>BENELLI</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q264" s="4" t="inlineStr">
         <is>
-          <t>MR1</t>
+          <t>CZ P-10 C</t>
         </is>
       </c>
       <c r="R264" s="3" t="inlineStr">
         <is>
-          <t>BC013587R</t>
+          <t>EP29797</t>
         </is>
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>A3853877</t>
+          <t>A3916211</t>
         </is>
       </c>
     </row>
@@ -24281,44 +24283,44 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
+          <t>DANIEL DE JESUS PADILLA ROBLES</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>COWA700106TSRLR00</t>
+          <t>PARD850710HCCDBN05</t>
         </is>
       </c>
       <c r="F265" s="4" t="inlineStr">
         <is>
-          <t>'529992003314</t>
+          <t>'9991650849</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>atietzbabam@gmail.com</t>
+          <t>padilla_079@hotmail.com</t>
         </is>
       </c>
       <c r="H265" s="2" t="n">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
+          <t>Calle Tzolkin Num 48</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>COL. JUAN B. SOSA</t>
+          <t>Privada Kinish</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Cholul</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -24328,37 +24330,37 @@
       </c>
       <c r="M265" s="4" t="inlineStr">
         <is>
-          <t>'97205</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>REVOLVER</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>0.223" REM.</t>
+          <t>.38" SPL.</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>BENELLI</t>
+          <t>COLT</t>
         </is>
       </c>
       <c r="Q265" s="4" t="inlineStr">
         <is>
-          <t>MR1</t>
+          <t>DETECTIVE</t>
         </is>
       </c>
       <c r="R265" s="3" t="inlineStr">
         <is>
-          <t>BC013586P</t>
+          <t>C02127</t>
         </is>
       </c>
       <c r="S265" t="inlineStr">
         <is>
-          <t>A3853878</t>
+          <t>B624330</t>
         </is>
       </c>
     </row>
@@ -24372,44 +24374,44 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
+          <t>DANIEL DE JESUS PADILLA ROBLES</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>COWA700106TSRLR00</t>
+          <t>PARD850710HCCDBN05</t>
         </is>
       </c>
       <c r="F266" s="4" t="inlineStr">
         <is>
-          <t>'529992003314</t>
+          <t>'9991650849</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>atietzbabam@gmail.com</t>
+          <t>padilla_079@hotmail.com</t>
         </is>
       </c>
       <c r="H266" s="2" t="n">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
+          <t>Calle Tzolkin Num 48</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>COL. JUAN B. SOSA</t>
+          <t>Privada Kinish</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Cholul</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -24419,37 +24421,37 @@
       </c>
       <c r="M266" s="4" t="inlineStr">
         <is>
-          <t>'97205</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>ESCOPETA SEMIAUTOMATICA</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>12 GA</t>
+          <t>.22" L.R.</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>RETAY</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q266" s="4" t="inlineStr">
         <is>
-          <t>MASAY MARA</t>
+          <t>CZ P-09</t>
         </is>
       </c>
       <c r="R266" s="3" t="inlineStr">
         <is>
-          <t>73-H23YT-005654</t>
+          <t>AP08758</t>
         </is>
       </c>
       <c r="S266" t="inlineStr">
         <is>
-          <t>A3888062</t>
+          <t>B587694</t>
         </is>
       </c>
     </row>
@@ -24463,44 +24465,44 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
+          <t>DANIEL DE JESUS PADILLA ROBLES</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>COWA700106TSRLR00</t>
+          <t>PARD850710HCCDBN05</t>
         </is>
       </c>
       <c r="F267" s="4" t="inlineStr">
         <is>
-          <t>'529992003314</t>
+          <t>'9991650849</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>atietzbabam@gmail.com</t>
+          <t>padilla_079@hotmail.com</t>
         </is>
       </c>
       <c r="H267" s="2" t="n">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
+          <t>Calle Tzolkin Num 48</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>COL. JUAN B. SOSA</t>
+          <t>Privada Kinish</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Cholul</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -24510,7 +24512,7 @@
       </c>
       <c r="M267" s="4" t="inlineStr">
         <is>
-          <t>'97205</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -24520,27 +24522,27 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>.380"</t>
+          <t>.380" AUTO</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>BERSA</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q267" s="4" t="inlineStr">
         <is>
-          <t>THUNDER 380 COMBAT</t>
+          <t>CZ P-10 C</t>
         </is>
       </c>
       <c r="R267" s="3" t="inlineStr">
         <is>
-          <t>M58492</t>
+          <t>EP29734</t>
         </is>
       </c>
       <c r="S267" t="inlineStr">
         <is>
-          <t>A3832011</t>
+          <t>A3912448</t>
         </is>
       </c>
     </row>
@@ -24554,44 +24556,44 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
+          <t>DANIEL DE JESUS PADILLA ROBLES</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>COWA700106TSRLR00</t>
+          <t>PARD850710HCCDBN05</t>
         </is>
       </c>
       <c r="F268" s="4" t="inlineStr">
         <is>
-          <t>'529992003314</t>
+          <t>'9991650849</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>atietzbabam@gmail.com</t>
+          <t>padilla_079@hotmail.com</t>
         </is>
       </c>
       <c r="H268" s="2" t="n">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
+          <t>Calle Tzolkin Num 48</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>COL. JUAN B. SOSA</t>
+          <t>Privada Kinish</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Cholul</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -24601,7 +24603,7 @@
       </c>
       <c r="M268" s="4" t="inlineStr">
         <is>
-          <t>'97205</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -24611,27 +24613,27 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>.380" AUTO</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>GLOCK</t>
+          <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
       <c r="Q268" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>CZ P-07</t>
         </is>
       </c>
       <c r="R268" s="3" t="inlineStr">
         <is>
-          <t>UGL153</t>
+          <t>F187917</t>
         </is>
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t>A3267256</t>
+          <t>B625008</t>
         </is>
       </c>
     </row>
@@ -24645,44 +24647,44 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>ARIEL BALTAZAR CÓRDOBA WILSON</t>
+          <t>DANIEL DE JESUS PADILLA ROBLES</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>COWA700106TSRLR00</t>
+          <t>PARD850710HCCDBN05</t>
         </is>
       </c>
       <c r="F269" s="4" t="inlineStr">
         <is>
-          <t>'529992003314</t>
+          <t>'9991650849</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>atietzbabam@gmail.com</t>
+          <t>padilla_079@hotmail.com</t>
         </is>
       </c>
       <c r="H269" s="2" t="n">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>C. 5-A DIAGONAL 239 X 18 Y 20</t>
+          <t>Calle Tzolkin Num 48</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>COL. JUAN B. SOSA</t>
+          <t>Privada Kinish</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Cholul</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -24692,37 +24694,37 @@
       </c>
       <c r="M269" s="4" t="inlineStr">
         <is>
-          <t>'97205</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
+          <t>ESCOPETA UN CAÑON CON SISTEMA DE BOMBA</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>.380" AUTO</t>
+          <t>12 GA</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>GRAND POWER</t>
+          <t>ARMSAN</t>
         </is>
       </c>
       <c r="Q269" s="4" t="inlineStr">
         <is>
-          <t>LP380</t>
+          <t>P612</t>
         </is>
       </c>
       <c r="R269" s="3" t="inlineStr">
         <is>
-          <t>K102854</t>
+          <t>59-H25PT-000026</t>
         </is>
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>A385379</t>
+          <t>A3912450</t>
         </is>
       </c>
     </row>
@@ -24736,44 +24738,44 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>KRISZTIAN GOR</t>
+          <t>DANIEL DE JESUS PADILLA ROBLES</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>GOXK740906HNERXR09</t>
+          <t>PARD850710HCCDBN05</t>
         </is>
       </c>
       <c r="F270" s="4" t="inlineStr">
         <is>
-          <t>'13213470270</t>
+          <t>'9991650849</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>ttok09136@gmail.com</t>
+          <t>padilla_079@hotmail.com</t>
         </is>
       </c>
       <c r="H270" s="2" t="n">
-        <v>45730</v>
+        <v>45808</v>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Calle 35 SN INT. townhouse</t>
+          <t>Calle Tzolkin Num 48</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Temozón Norte</t>
+          <t>Privada Kinish</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Cholul</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -24783,12 +24785,37 @@
       </c>
       <c r="M270" s="4" t="inlineStr">
         <is>
-          <t>'97302</t>
+          <t>'97305</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>RIFLE SEMI-AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>.22" L.R.</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>MENDOZA</t>
+        </is>
+      </c>
+      <c r="Q270" s="4" t="inlineStr">
+        <is>
+          <t>RM22-1000 CENTENARIO</t>
+        </is>
+      </c>
+      <c r="R270" s="3" t="inlineStr">
+        <is>
+          <t>RM2515680</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>A3912449</t>
         </is>
       </c>
     </row>
@@ -24802,44 +24829,44 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>FABIAN MARQUEZ ORTEGA</t>
+          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>MAOF620504HDFRRB06</t>
+          <t>SOGR701015HYNBMC04</t>
         </is>
       </c>
       <c r="F271" s="4" t="inlineStr">
         <is>
-          <t>'9993772793</t>
+          <t>'9993437376</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>fabian.sievers3548@gmail.com</t>
+          <t>rsoberanis11@hotmail.com</t>
         </is>
       </c>
       <c r="H271" s="2" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Calle 28 x 5 y 7 48-A</t>
+          <t>Calle 23 S/N T.C. 50641</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Col Granjas Cholul</t>
+          <t>Colonia San Antonio Hool</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -24849,7 +24876,7 @@
       </c>
       <c r="M271" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -24859,27 +24886,27 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>22" L.R.</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>BROWNING</t>
+          <t>SIG SAUER</t>
         </is>
       </c>
       <c r="Q271" s="4" t="inlineStr">
         <is>
-          <t>BUCKMARK CONTOUR</t>
+          <t>P322</t>
         </is>
       </c>
       <c r="R271" s="3" t="inlineStr">
         <is>
-          <t>US515YW33488</t>
+          <t>73A05683</t>
         </is>
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t>A3916213</t>
+          <t>A3845138</t>
         </is>
       </c>
     </row>
@@ -24893,44 +24920,44 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>FABIAN MARQUEZ ORTEGA</t>
+          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>MAOF620504HDFRRB06</t>
+          <t>SOGR701015HYNBMC04</t>
         </is>
       </c>
       <c r="F272" s="4" t="inlineStr">
         <is>
-          <t>'9993772793</t>
+          <t>'9993437376</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>fabian.sievers3548@gmail.com</t>
+          <t>rsoberanis11@hotmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Calle 28 x 5 y 7 48-A</t>
+          <t>Calle 23 S/N T.C. 50641</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Col Granjas Cholul</t>
+          <t>Colonia San Antonio Hool</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -24940,37 +24967,37 @@
       </c>
       <c r="M272" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>RIFLE SEMI-AUTOMATICO</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>.22" L.R.</t>
+          <t>22" L.R.</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>RUGER</t>
         </is>
       </c>
       <c r="Q272" s="4" t="inlineStr">
         <is>
-          <t>457 PREMIUM</t>
+          <t>10/22</t>
         </is>
       </c>
       <c r="R272" s="3" t="inlineStr">
         <is>
-          <t>J011779</t>
+          <t>0014-07080</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
         <is>
-          <t>A3916216</t>
+          <t>B624593</t>
         </is>
       </c>
     </row>
@@ -24984,44 +25011,44 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>FABIAN MARQUEZ ORTEGA</t>
+          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>MAOF620504HDFRRB06</t>
+          <t>SOGR701015HYNBMC04</t>
         </is>
       </c>
       <c r="F273" s="4" t="inlineStr">
         <is>
-          <t>'9993772793</t>
+          <t>'9993437376</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>fabian.sievers3548@gmail.com</t>
+          <t>rsoberanis11@hotmail.com</t>
         </is>
       </c>
       <c r="H273" s="2" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Calle 28 x 5 y 7 48-A</t>
+          <t>Calle 23 S/N T.C. 50641</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Col Granjas Cholul</t>
+          <t>Colonia San Antonio Hool</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -25031,37 +25058,33 @@
       </c>
       <c r="M273" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
-        </is>
-      </c>
-      <c r="O273" t="inlineStr">
-        <is>
-          <t>.380" AUTO</t>
-        </is>
+          <t>ESCOPETA DOS CAÑONES</t>
+        </is>
+      </c>
+      <c r="O273" t="n">
+        <v>20</v>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>J.B. RONGE FILF A LIEGE</t>
         </is>
       </c>
       <c r="Q273" s="4" t="inlineStr">
         <is>
-          <t>CZ P-10 C</t>
-        </is>
-      </c>
-      <c r="R273" s="3" t="inlineStr">
-        <is>
-          <t>EP29797</t>
-        </is>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="R273" s="3" t="n">
+        <v>65937</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>A3916211</t>
+          <t>B624607</t>
         </is>
       </c>
     </row>
@@ -25075,26 +25098,26 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>DANIEL DE JESUS PADILLA ROBLES</t>
+          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PARD850710HCCDBN05</t>
-        </is>
-      </c>
-      <c r="F274" s="4" t="inlineStr">
-        <is>
-          <t>'9991650849</t>
+          <t>SOGR701015HYNBMC04</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>'9993437376</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>padilla_079@hotmail.com</t>
+          <t>rsoberanis11@hotmail.com</t>
         </is>
       </c>
       <c r="H274" s="2" t="n">
@@ -25102,17 +25125,17 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Calle Tzolkin Num 48</t>
+          <t>Calle 23 S/N T.C. 50641</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Privada Kinish</t>
+          <t>Colonia San Antonio Hool</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Cholul</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -25120,39 +25143,39 @@
           <t>YUCATÁN</t>
         </is>
       </c>
-      <c r="M274" s="4" t="inlineStr">
-        <is>
-          <t>'97305</t>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>REVOLVER</t>
+          <t>PISTOLA</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>.38" SPL.</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>COLT</t>
-        </is>
-      </c>
-      <c r="Q274" s="4" t="inlineStr">
-        <is>
-          <t>DETECTIVE</t>
-        </is>
-      </c>
-      <c r="R274" s="3" t="inlineStr">
-        <is>
-          <t>C02127</t>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>P-10 C</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>EP29710</t>
         </is>
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>B624330</t>
+          <t>A3912487</t>
         </is>
       </c>
     </row>
@@ -25166,44 +25189,44 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>DANIEL DE JESUS PADILLA ROBLES</t>
+          <t>RAÚL CERVANTES CEBALLOS</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>PARD850710HCCDBN05</t>
+          <t>CECR890104HYNRBL02</t>
         </is>
       </c>
       <c r="F275" s="4" t="inlineStr">
         <is>
-          <t>'9991650849</t>
+          <t>'9993382222</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>padilla_079@hotmail.com</t>
+          <t>rcervantes@live.com.mx</t>
         </is>
       </c>
       <c r="H275" s="2" t="n">
-        <v>45808</v>
+        <v>45835</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Calle Tzolkin Num 48</t>
+          <t>C 13 POR 62 Y 64 655</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Privada Kinish</t>
+          <t>RESIDENCIAL PENSIONES</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Cholul</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -25213,37 +25236,12 @@
       </c>
       <c r="M275" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97219</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
-        </is>
-      </c>
-      <c r="O275" t="inlineStr">
-        <is>
-          <t>.22" L.R.</t>
-        </is>
-      </c>
-      <c r="P275" t="inlineStr">
-        <is>
-          <t>CESKA ZBROJOVKA</t>
-        </is>
-      </c>
-      <c r="Q275" s="4" t="inlineStr">
-        <is>
-          <t>CZ P-09</t>
-        </is>
-      </c>
-      <c r="R275" s="3" t="inlineStr">
-        <is>
-          <t>AP08758</t>
-        </is>
-      </c>
-      <c r="S275" t="inlineStr">
-        <is>
-          <t>B587694</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25257,44 +25255,44 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>DANIEL DE JESUS PADILLA ROBLES</t>
+          <t>RICARDO DANIEL FERNÁNDEZ PÉREZ</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>PARD850710HCCDBN05</t>
+          <t>FEPR920403HYNRRC06</t>
         </is>
       </c>
       <c r="F276" s="4" t="inlineStr">
         <is>
-          <t>'9991650849</t>
+          <t>'9991639981</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>padilla_079@hotmail.com</t>
+          <t>richfer0304@gmail.com</t>
         </is>
       </c>
       <c r="H276" s="2" t="n">
-        <v>45808</v>
+        <v>45864</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Calle Tzolkin Num 48</t>
+          <t>C. 37-A # 311 X 24</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Privada Kinish</t>
+          <t>FRACC. MONTEALBAN</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Cholul</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -25304,37 +25302,12 @@
       </c>
       <c r="M276" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97114</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>PISTOLA</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>.380" AUTO</t>
-        </is>
-      </c>
-      <c r="P276" t="inlineStr">
-        <is>
-          <t>CESKA ZBROJOVKA</t>
-        </is>
-      </c>
-      <c r="Q276" s="4" t="inlineStr">
-        <is>
-          <t>CZ P-10 C</t>
-        </is>
-      </c>
-      <c r="R276" s="3" t="inlineStr">
-        <is>
-          <t>EP29734</t>
-        </is>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>A3912448</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25348,44 +25321,44 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>DANIEL DE JESUS PADILLA ROBLES</t>
+          <t>RICARDO MANUEL FERNÁNDEZ QUIJANO</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>PARD850710HCCDBN05</t>
+          <t>FEQR591020HCCRJC07</t>
         </is>
       </c>
       <c r="F277" s="4" t="inlineStr">
         <is>
-          <t>'9991650849</t>
+          <t>'9999473043</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>padilla_079@hotmail.com</t>
+          <t>richfer1020@gmail.com</t>
         </is>
       </c>
       <c r="H277" s="2" t="n">
-        <v>45808</v>
+        <v>45864</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Calle Tzolkin Num 48</t>
+          <t>C. 37-A # 311 X 24</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Privada Kinish</t>
+          <t>FRACC. MONTEALBAN</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Cholul</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -25395,7 +25368,7 @@
       </c>
       <c r="M277" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97114</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -25405,27 +25378,27 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>.380" AUTO</t>
+          <t>0.380"</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>CESKA ZBROJOVKA</t>
+          <t>GLOCK</t>
         </is>
       </c>
       <c r="Q277" s="4" t="inlineStr">
         <is>
-          <t>CZ P-07</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R277" s="3" t="inlineStr">
         <is>
-          <t>F187917</t>
+          <t>UDV639</t>
         </is>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>B625008</t>
+          <t>B347208</t>
         </is>
       </c>
     </row>
@@ -25439,44 +25412,44 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>DANIEL DE JESUS PADILLA ROBLES</t>
+          <t>YAEL ROMERO DE DIOS</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>PARD850710HCCDBN05</t>
+          <t>RODY940625HYNMSL01</t>
         </is>
       </c>
       <c r="F278" s="4" t="inlineStr">
         <is>
-          <t>'9991650849</t>
+          <t>'9995287779</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>padilla_079@hotmail.com</t>
+          <t>licyaelromero@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="n">
-        <v>45808</v>
+        <v>45899</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Calle Tzolkin Num 48</t>
+          <t>Calle 111 No 514 x 132 y 134A</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Privada Kinish</t>
+          <t>Fraccionamiento los Héroes.</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Cholul</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -25486,37 +25459,12 @@
       </c>
       <c r="M278" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97114</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>ESCOPETA UN CAÑON CON SISTEMA DE BOMBA</t>
-        </is>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>12 GA</t>
-        </is>
-      </c>
-      <c r="P278" t="inlineStr">
-        <is>
-          <t>ARMSAN</t>
-        </is>
-      </c>
-      <c r="Q278" s="4" t="inlineStr">
-        <is>
-          <t>P612</t>
-        </is>
-      </c>
-      <c r="R278" s="3" t="inlineStr">
-        <is>
-          <t>59-H25PT-000026</t>
-        </is>
-      </c>
-      <c r="S278" t="inlineStr">
-        <is>
-          <t>A3912450</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25530,44 +25478,44 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>DANIEL DE JESUS PADILLA ROBLES</t>
+          <t>AIMEE GOMEZ MENDOZA</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>PARD850710HCCDBN05</t>
+          <t>GOMA940118MVZMNM00</t>
         </is>
       </c>
       <c r="F279" s="4" t="inlineStr">
         <is>
-          <t>'9991650849</t>
+          <t>'9997300081</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>padilla_079@hotmail.com</t>
+          <t>aimeegomez615@gmail.com</t>
         </is>
       </c>
       <c r="H279" s="2" t="n">
-        <v>45808</v>
+        <v>46006</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Calle Tzolkin Num 48</t>
+          <t>C 63 D POR 88 TAB 42155</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Privada Kinish</t>
+          <t>LOC DZITYA</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Cholul</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -25577,590 +25525,297 @@
       </c>
       <c r="M279" s="4" t="inlineStr">
         <is>
-          <t>'97305</t>
+          <t>'97302</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>RIFLE SEMI-AUTOMATICO</t>
-        </is>
-      </c>
-      <c r="O279" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="n">
+        <v>199</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
         <is>
           <t>.22" L.R.</t>
         </is>
       </c>
-      <c r="P279" t="inlineStr">
-        <is>
-          <t>MENDOZA</t>
-        </is>
-      </c>
-      <c r="Q279" s="4" t="inlineStr">
-        <is>
-          <t>RM22-1000 CENTENARIO</t>
-        </is>
-      </c>
-      <c r="R279" s="3" t="inlineStr">
-        <is>
-          <t>RM2515680</t>
-        </is>
-      </c>
-      <c r="S279" t="inlineStr">
-        <is>
-          <t>A3912449</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>738</v>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
-      <c r="C280" t="n">
-        <v>230</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>SOGR701015HYNBMC04</t>
-        </is>
-      </c>
-      <c r="F280" s="4" t="inlineStr">
-        <is>
-          <t>'9993437376</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>rsoberanis11@hotmail.com</t>
-        </is>
-      </c>
-      <c r="H280" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>Calle 23 S/N T.C. 50641</t>
-        </is>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>Colonia San Antonio Hool</t>
-        </is>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M280" s="4" t="inlineStr">
-        <is>
-          <t>'97302</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr">
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>GRAND POWER</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>K22 X-TRIM</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>K078928</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>A 3601944</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="n">
+        <v>199</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>RIFLE</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>.22" L.R.</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>KRISS</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>DMK22C</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>22C002369</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>3722287</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="n">
+        <v>199</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>RIFLE</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>.22" L.R.</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>RUGER</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>10/22</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>0008-32069</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>A 3722288</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="n">
+        <v>199</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>RIFLE</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>.22" L.R.</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>RUGER</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>10/22</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>0013-82505</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>A 3605099</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="n">
+        <v>199</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
         <is>
           <t>PISTOLA</t>
         </is>
       </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>22" L.R.</t>
-        </is>
-      </c>
-      <c r="P280" t="inlineStr">
-        <is>
-          <t>SIG SAUER</t>
-        </is>
-      </c>
-      <c r="Q280" s="4" t="inlineStr">
-        <is>
-          <t>P322</t>
-        </is>
-      </c>
-      <c r="R280" s="3" t="inlineStr">
-        <is>
-          <t>73A05683</t>
-        </is>
-      </c>
-      <c r="S280" t="inlineStr">
-        <is>
-          <t>A3845138</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>738</v>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v>230</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>SOGR701015HYNBMC04</t>
-        </is>
-      </c>
-      <c r="F281" s="4" t="inlineStr">
-        <is>
-          <t>'9993437376</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>rsoberanis11@hotmail.com</t>
-        </is>
-      </c>
-      <c r="H281" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>Calle 23 S/N T.C. 50641</t>
-        </is>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>Colonia San Antonio Hool</t>
-        </is>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M281" s="4" t="inlineStr">
-        <is>
-          <t>'97302</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>RIFLE SEMI-AUTOMATICO</t>
-        </is>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>22" L.R.</t>
-        </is>
-      </c>
-      <c r="P281" t="inlineStr">
-        <is>
-          <t>RUGER</t>
-        </is>
-      </c>
-      <c r="Q281" s="4" t="inlineStr">
-        <is>
-          <t>10/22</t>
-        </is>
-      </c>
-      <c r="R281" s="3" t="inlineStr">
-        <is>
-          <t>0014-07080</t>
-        </is>
-      </c>
-      <c r="S281" t="inlineStr">
-        <is>
-          <t>B624593</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>738</v>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
-      <c r="C282" t="n">
-        <v>230</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>SOGR701015HYNBMC04</t>
-        </is>
-      </c>
-      <c r="F282" s="4" t="inlineStr">
-        <is>
-          <t>'9993437376</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>rsoberanis11@hotmail.com</t>
-        </is>
-      </c>
-      <c r="H282" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>Calle 23 S/N T.C. 50641</t>
-        </is>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>Colonia San Antonio Hool</t>
-        </is>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M282" s="4" t="inlineStr">
-        <is>
-          <t>'97302</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>ESCOPETA DOS CAÑONES</t>
-        </is>
-      </c>
-      <c r="O282" t="n">
-        <v>20</v>
-      </c>
-      <c r="P282" t="inlineStr">
-        <is>
-          <t>J.B. RONGE FILF A LIEGE</t>
-        </is>
-      </c>
-      <c r="Q282" s="4" t="inlineStr">
-        <is>
-          <t>SIN</t>
-        </is>
-      </c>
-      <c r="R282" s="3" t="n">
-        <v>65937</v>
-      </c>
-      <c r="S282" t="inlineStr">
-        <is>
-          <t>B624607</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>738</v>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
-      <c r="C283" t="n">
-        <v>230</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>RICARDO ANTONIO SOBERANIS GAMBOA</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>SOGR701015HYNBMC04</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>'9993437376</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>rsoberanis11@hotmail.com</t>
-        </is>
-      </c>
-      <c r="H283" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>Calle 23 S/N T.C. 50641</t>
-        </is>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>Colonia San Antonio Hool</t>
-        </is>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M283" t="inlineStr">
-        <is>
-          <t>'97302</t>
-        </is>
-      </c>
-      <c r="N283" t="inlineStr">
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>.380"</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>CZ SHADOW 2</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>DP25086</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>A 3782099</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="n">
+        <v>199</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
         <is>
           <t>PISTOLA</t>
         </is>
       </c>
-      <c r="O283" t="inlineStr">
+      <c r="O285" t="inlineStr">
         <is>
           <t>.380"</t>
         </is>
       </c>
-      <c r="P283" t="inlineStr">
+      <c r="P285" t="inlineStr">
         <is>
           <t>CESKA ZBROJOVKA</t>
         </is>
       </c>
-      <c r="Q283" t="inlineStr">
-        <is>
-          <t>P-10 C</t>
-        </is>
-      </c>
-      <c r="R283" t="inlineStr">
-        <is>
-          <t>EP29710</t>
-        </is>
-      </c>
-      <c r="S283" t="inlineStr">
-        <is>
-          <t>A3912487</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>738</v>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
-      <c r="C284" t="n">
-        <v>231</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>RAÚL CERVANTES CEBALLOS</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>CECR890104HYNRBL02</t>
-        </is>
-      </c>
-      <c r="F284" s="4" t="inlineStr">
-        <is>
-          <t>'9993382222</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>rcervantes@live.com.mx</t>
-        </is>
-      </c>
-      <c r="H284" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>C 13 POR 62 Y 64 655</t>
-        </is>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>RESIDENCIAL PENSIONES</t>
-        </is>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M284" s="4" t="inlineStr">
-        <is>
-          <t>'97219</t>
-        </is>
-      </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>738</v>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>232</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>RICARDO DANIEL FERNÁNDEZ PÉREZ</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>FEPR920403HYNRRC06</t>
-        </is>
-      </c>
-      <c r="F285" s="4" t="inlineStr">
-        <is>
-          <t>'9991639981</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>richfer0304@gmail.com</t>
-        </is>
-      </c>
-      <c r="H285" s="2" t="n">
-        <v>45864</v>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>C. 37-A # 311 X 24</t>
-        </is>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>FRACC. MONTEALBAN</t>
-        </is>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M285" s="4" t="inlineStr">
-        <is>
-          <t>'97114</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>CZ SHADOW 2</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>DP25246</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>A 3792515</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>738</v>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
       <c r="C286" t="n">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>RICARDO MANUEL FERNÁNDEZ QUIJANO</t>
+          <t>JOAQUIN RODOLFO GARDONI NUÑEZ</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FEQR591020HCCRJC07</t>
-        </is>
-      </c>
-      <c r="F286" s="4" t="inlineStr">
-        <is>
-          <t>'9999473043</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>richfer1020@gmail.com</t>
-        </is>
-      </c>
-      <c r="H286" s="2" t="n">
-        <v>45864</v>
-      </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>C. 37-A # 311 X 24</t>
-        </is>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>FRACC. MONTEALBAN</t>
-        </is>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M286" s="4" t="inlineStr">
-        <is>
-          <t>'97114</t>
+          <t>jrgardoni@gmail.com</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -26170,159 +25825,162 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>.380"</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>GLOCK</t>
-        </is>
-      </c>
-      <c r="Q286" s="4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="R286" s="3" t="inlineStr">
-        <is>
-          <t>UDV639</t>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>CZ SHADOW 2</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>DP25087</t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>B347208</t>
+          <t>A 3782098</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
-        <v>738</v>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
       <c r="C287" t="n">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>YAEL ROMERO DE DIOS</t>
+          <t>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>RODY940625HYNMSL01</t>
-        </is>
-      </c>
-      <c r="F287" s="4" t="inlineStr">
-        <is>
-          <t>'9995287779</t>
-        </is>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>licyaelromero@gmail.com</t>
-        </is>
-      </c>
-      <c r="H287" s="2" t="n">
-        <v>45899</v>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>Calle 111 No 514 x 132 y 134A</t>
-        </is>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Fraccionamiento los Héroes.</t>
-        </is>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M287" s="4" t="inlineStr">
-        <is>
-          <t>'97114</t>
+          <t>arechiga@jogarplastics.com</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>.380" AUTO</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>GRAND POWER</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>LP380</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>K084328</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>A3714371</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>738</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>CALLE 50 No. 531-E x 69 y 71, CENTRO, 97000 MÉRIDA, YUC.</t>
-        </is>
-      </c>
       <c r="C288" t="n">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>AIMEE GOMEZ MENDOZA</t>
+          <t>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>GOMA940118MVZMNM00</t>
-        </is>
-      </c>
-      <c r="F288" s="4" t="inlineStr">
-        <is>
-          <t>'9997300081</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>aimeegomez615@gmail.com</t>
-        </is>
-      </c>
-      <c r="H288" s="2" t="n">
-        <v>46006</v>
-      </c>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>C 63 D POR 88 TAB 42155</t>
-        </is>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>LOC DZITYA</t>
-        </is>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>Mérida</t>
-        </is>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>YUCATÁN</t>
-        </is>
-      </c>
-      <c r="M288" s="4" t="inlineStr">
-        <is>
-          <t>'97302</t>
+          <t>arechiga@jogarplastics.com</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>.380" AUTO</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>GRAND POWER</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>LP380</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>K078999</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>A 3601943</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="C289" t="n">
+        <v>212</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA GUADALUPE ARECHIGA RAMOS</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>arechiga@jogarplastics.com</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>.380"</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>CZ P-07</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>C647155</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>B 611940</t>
         </is>
       </c>
     </row>

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -25548,6 +25548,11 @@
           <t>jrgardoni@gmail.com</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
       <c r="N280" t="inlineStr">
         <is>
           <t>PISTOLA</t>
@@ -25593,6 +25598,11 @@
           <t>jrgardoni@gmail.com</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
       <c r="N281" t="inlineStr">
         <is>
           <t>RIFLE</t>
@@ -25638,6 +25648,11 @@
           <t>jrgardoni@gmail.com</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
       <c r="N282" t="inlineStr">
         <is>
           <t>RIFLE</t>
@@ -25683,6 +25698,11 @@
           <t>jrgardoni@gmail.com</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
       <c r="N283" t="inlineStr">
         <is>
           <t>RIFLE</t>
@@ -25728,6 +25748,11 @@
           <t>jrgardoni@gmail.com</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
       <c r="N284" t="inlineStr">
         <is>
           <t>PISTOLA</t>
@@ -25773,6 +25798,11 @@
           <t>jrgardoni@gmail.com</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
       <c r="N285" t="inlineStr">
         <is>
           <t>PISTOLA</t>
@@ -25818,6 +25848,11 @@
           <t>jrgardoni@gmail.com</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>jrgardoni@gmail.com</t>
+        </is>
+      </c>
       <c r="N286" t="inlineStr">
         <is>
           <t>PISTOLA</t>
@@ -25863,6 +25898,11 @@
           <t>arechiga@jogarplastics.com</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>arechiga@jogarplastics.com</t>
+        </is>
+      </c>
       <c r="N287" t="inlineStr">
         <is>
           <t>PISTOLA</t>
@@ -25908,6 +25948,11 @@
           <t>arechiga@jogarplastics.com</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>arechiga@jogarplastics.com</t>
+        </is>
+      </c>
       <c r="N288" t="inlineStr">
         <is>
           <t>PISTOLA</t>
@@ -25949,6 +25994,11 @@
         </is>
       </c>
       <c r="E289" t="inlineStr">
+        <is>
+          <t>arechiga@jogarplastics.com</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
         <is>
           <t>arechiga@jogarplastics.com</t>
         </is>

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S289"/>
+  <dimension ref="A1:S293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26034,6 +26034,186 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="C290" t="n">
+        <v>183</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>CELESTINO SANCHEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>tinosanchezf@yahoo.com.mx</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>RIFLE</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>.22" L.R.</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>WINCHESTER</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>9422</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>F11281</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>A3917581</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="n">
+        <v>183</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>CELESTINO SANCHEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>tinosanchezf@yahoo.com.mx</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>.380" AUTO</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>CZ P-07</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>D207727</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>A3747924</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="n">
+        <v>183</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>CELESTINO SANCHEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>tinosanchezf@yahoo.com.mx</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>.380" AUTO</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>CESKA ZBROJOVKA</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>CZ P-10 C</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>CP18665</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>A3747922</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="C293" t="n">
+        <v>183</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>CELESTINO SANCHEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>tinosanchezf@yahoo.com.mx</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>PISTOLA</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>.380" AUTO</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>SIG SAUER</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>P250</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>57C048858</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>B596607</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
+++ b/socios/FUENTE_DE_VERDAD_CLUB_738_ENERO_2026.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S293"/>
+  <dimension ref="A1:S294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26214,6 +26214,42 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Calle 32 x 9 Cedro, Tablaje 23222, Loc. Tixcuytun, Mérida, YUCATÁN CP97305</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>236</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>LUIS FERNANDO GUILLERMO GAMBOA</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>GUGL750204HYNLMS04</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>9992420621</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>oso.guigam@gmail.com</t>
+        </is>
+      </c>
+      <c r="H294" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
